--- a/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704560E2-43F0-44FD-8A58-7113C0F562C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297C82D-CA28-4B71-9085-8C800DAFAA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,92 +1528,92 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>731</v>
       </c>
       <c r="AA11" s="11">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="AB11" s="11">
-        <v>723</v>
+        <v>618</v>
       </c>
       <c r="AC11" s="11">
-        <v>618</v>
+        <v>1158</v>
       </c>
       <c r="AD11" s="11">
-        <v>1158</v>
+        <v>450</v>
       </c>
       <c r="AE11" s="11">
-        <v>450</v>
+        <v>298</v>
       </c>
       <c r="AF11" s="11">
-        <v>298</v>
+        <v>434</v>
       </c>
       <c r="AG11" s="11">
-        <v>434</v>
+        <v>679</v>
       </c>
       <c r="AH11" s="11">
-        <v>679</v>
+        <v>851</v>
       </c>
       <c r="AI11" s="11">
-        <v>851</v>
+        <v>300</v>
       </c>
       <c r="AJ11" s="11">
-        <v>300</v>
+        <v>767</v>
       </c>
       <c r="AK11" s="11">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="AL11" s="11">
-        <v>709</v>
+        <v>284</v>
       </c>
       <c r="AM11" s="11">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="AN11" s="11">
-        <v>181</v>
+        <v>570</v>
       </c>
       <c r="AO11" s="11">
-        <v>570</v>
+        <v>114</v>
       </c>
       <c r="AP11" s="11">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="AQ11" s="11">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AR11" s="11">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="AS11" s="11">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="AT11" s="11">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AU11" s="11">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="AV11" s="11">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="AW11" s="11">
-        <v>575</v>
+        <v>918</v>
       </c>
       <c r="AX11" s="11">
-        <v>918</v>
+        <v>747</v>
       </c>
       <c r="AY11" s="11">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="AZ11" s="11">
-        <v>725</v>
+        <v>396</v>
       </c>
       <c r="BA11" s="11">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="BB11" s="11">
-        <v>439</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1687,92 +1687,92 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>11</v>
       </c>
       <c r="AA12" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="13">
         <v>12</v>
       </c>
       <c r="AC12" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>10</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>11</v>
+      </c>
+      <c r="AM12" s="13">
         <v>12</v>
       </c>
-      <c r="AD12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>41</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="13">
+      <c r="AN12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AO12" s="13">
         <v>9</v>
       </c>
-      <c r="AL12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AN12" s="13">
+      <c r="AP12" s="13">
+        <v>13</v>
+      </c>
+      <c r="AQ12" s="13">
         <v>12</v>
       </c>
-      <c r="AO12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>9</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>13</v>
-      </c>
       <c r="AR12" s="13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AS12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AT12" s="13">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AU12" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AV12" s="13">
         <v>3</v>
       </c>
       <c r="AW12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="13">
         <v>3</v>
       </c>
-      <c r="AX12" s="13">
-        <v>0</v>
-      </c>
       <c r="AY12" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1846,92 +1846,92 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>16832</v>
       </c>
       <c r="AA13" s="11">
-        <v>16832</v>
+        <v>15223</v>
       </c>
       <c r="AB13" s="11">
-        <v>15223</v>
+        <v>14701</v>
       </c>
       <c r="AC13" s="11">
-        <v>14701</v>
+        <v>16461</v>
       </c>
       <c r="AD13" s="11">
-        <v>16461</v>
+        <v>20511</v>
       </c>
       <c r="AE13" s="11">
-        <v>20511</v>
+        <v>14290</v>
       </c>
       <c r="AF13" s="11">
-        <v>14290</v>
+        <v>13776</v>
       </c>
       <c r="AG13" s="11">
-        <v>13776</v>
+        <v>13012</v>
       </c>
       <c r="AH13" s="11">
-        <v>13012</v>
+        <v>15131</v>
       </c>
       <c r="AI13" s="11">
-        <v>15131</v>
+        <v>5265</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5265</v>
+        <v>13388</v>
       </c>
       <c r="AK13" s="11">
-        <v>13388</v>
+        <v>19316</v>
       </c>
       <c r="AL13" s="11">
-        <v>19316</v>
+        <v>17826</v>
       </c>
       <c r="AM13" s="11">
-        <v>17826</v>
+        <v>18131</v>
       </c>
       <c r="AN13" s="11">
-        <v>18131</v>
+        <v>12233</v>
       </c>
       <c r="AO13" s="11">
-        <v>12233</v>
+        <v>11402</v>
       </c>
       <c r="AP13" s="11">
-        <v>11402</v>
+        <v>15418</v>
       </c>
       <c r="AQ13" s="11">
-        <v>15418</v>
+        <v>12006</v>
       </c>
       <c r="AR13" s="11">
-        <v>12006</v>
+        <v>12286</v>
       </c>
       <c r="AS13" s="11">
-        <v>12286</v>
+        <v>9342</v>
       </c>
       <c r="AT13" s="11">
-        <v>9342</v>
+        <v>10583</v>
       </c>
       <c r="AU13" s="11">
-        <v>10583</v>
+        <v>943</v>
       </c>
       <c r="AV13" s="11">
-        <v>943</v>
+        <v>11691</v>
       </c>
       <c r="AW13" s="11">
-        <v>11691</v>
+        <v>13437</v>
       </c>
       <c r="AX13" s="11">
-        <v>13437</v>
+        <v>7517</v>
       </c>
       <c r="AY13" s="11">
-        <v>7517</v>
+        <v>6414</v>
       </c>
       <c r="AZ13" s="11">
-        <v>6414</v>
+        <v>6984</v>
       </c>
       <c r="BA13" s="11">
-        <v>6984</v>
+        <v>5785</v>
       </c>
       <c r="BB13" s="11">
-        <v>5785</v>
+        <v>12055</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,92 +2005,92 @@
       <c r="Y14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Z14" s="13">
+        <v>3844</v>
       </c>
       <c r="AA14" s="13">
-        <v>3844</v>
+        <v>2602</v>
       </c>
       <c r="AB14" s="13">
-        <v>2602</v>
+        <v>3052</v>
       </c>
       <c r="AC14" s="13">
-        <v>3052</v>
+        <v>2912</v>
       </c>
       <c r="AD14" s="13">
-        <v>2912</v>
+        <v>4109</v>
       </c>
       <c r="AE14" s="13">
-        <v>4109</v>
+        <v>3265</v>
       </c>
       <c r="AF14" s="13">
-        <v>3265</v>
+        <v>3210</v>
       </c>
       <c r="AG14" s="13">
-        <v>3210</v>
+        <v>3268</v>
       </c>
       <c r="AH14" s="13">
-        <v>3268</v>
+        <v>3041</v>
       </c>
       <c r="AI14" s="13">
-        <v>3041</v>
+        <v>1139</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1139</v>
+        <v>2752</v>
       </c>
       <c r="AK14" s="13">
-        <v>2752</v>
+        <v>2340</v>
       </c>
       <c r="AL14" s="13">
-        <v>2340</v>
+        <v>2840</v>
       </c>
       <c r="AM14" s="13">
-        <v>2840</v>
+        <v>2910</v>
       </c>
       <c r="AN14" s="13">
-        <v>2910</v>
+        <v>3269</v>
       </c>
       <c r="AO14" s="13">
-        <v>3269</v>
+        <v>4102</v>
       </c>
       <c r="AP14" s="13">
-        <v>4102</v>
+        <v>3082</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3082</v>
+        <v>3793</v>
       </c>
       <c r="AR14" s="13">
-        <v>3793</v>
+        <v>2875</v>
       </c>
       <c r="AS14" s="13">
-        <v>2875</v>
+        <v>2964</v>
       </c>
       <c r="AT14" s="13">
-        <v>2964</v>
+        <v>3135</v>
       </c>
       <c r="AU14" s="13">
-        <v>3135</v>
+        <v>53</v>
       </c>
       <c r="AV14" s="13">
-        <v>53</v>
+        <v>2604</v>
       </c>
       <c r="AW14" s="13">
-        <v>2604</v>
+        <v>4234</v>
       </c>
       <c r="AX14" s="13">
-        <v>4234</v>
+        <v>2562</v>
       </c>
       <c r="AY14" s="13">
-        <v>2562</v>
+        <v>2111</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2111</v>
+        <v>2404</v>
       </c>
       <c r="BA14" s="13">
-        <v>2404</v>
+        <v>2003</v>
       </c>
       <c r="BB14" s="13">
-        <v>2003</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2164,92 +2164,92 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>234</v>
       </c>
       <c r="AA15" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AB15" s="11">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AC15" s="11">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AD15" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AE15" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF15" s="11">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG15" s="11">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AH15" s="11">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AI15" s="11">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="AJ15" s="11">
+        <v>217</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>205</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>197</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>211</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>224</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>201</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>169</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>127</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>156</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
         <v>118</v>
       </c>
-      <c r="AK15" s="11">
-        <v>217</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>205</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>200</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>197</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>211</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>224</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>201</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>127</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>156</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>0</v>
-      </c>
       <c r="AW15" s="11">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="AX15" s="11">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AY15" s="11">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AZ15" s="11">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="BA15" s="11">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="BB15" s="11">
-        <v>194</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2323,92 +2323,92 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>318</v>
       </c>
       <c r="AA16" s="13">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="AB16" s="13">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AC16" s="13">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AD16" s="13">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="AE16" s="13">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="AF16" s="13">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AG16" s="13">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AH16" s="13">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="AI16" s="13">
+        <v>133</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>327</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>127</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>165</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>179</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>151</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>226</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>232</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>230</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>109</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>178</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AY16" s="13">
         <v>68</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>133</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>327</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>146</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>127</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>186</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>165</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>179</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>151</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>226</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>232</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>230</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>109</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>178</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>186</v>
-      </c>
       <c r="AZ16" s="13">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BA16" s="13">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="BB16" s="13">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2482,92 +2482,92 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>196</v>
       </c>
       <c r="AA17" s="11">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="AB17" s="11">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="11">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AD17" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AE17" s="11">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AF17" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG17" s="11">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AH17" s="11">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AI17" s="11">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="AJ17" s="11">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AK17" s="11">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="AL17" s="11">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="AM17" s="11">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AN17" s="11">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AO17" s="11">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="AP17" s="11">
+        <v>144</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>338</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>221</v>
+      </c>
+      <c r="AS17" s="11">
         <v>194</v>
       </c>
-      <c r="AQ17" s="11">
-        <v>144</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>338</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>221</v>
-      </c>
       <c r="AT17" s="11">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AU17" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="11">
         <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AX17" s="11">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="AY17" s="11">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="AZ17" s="11">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="BA17" s="11">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="BB17" s="11">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2641,92 +2641,92 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>119</v>
       </c>
       <c r="AA18" s="13">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="AB18" s="13">
+        <v>46</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>86</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>61</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>141</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>116</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>40</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>38</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>82</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>84</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>29</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>17</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>44</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>49</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>66</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AY18" s="13">
         <v>50</v>
       </c>
-      <c r="AC18" s="13">
-        <v>46</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>86</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>25</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>61</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>141</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>116</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AL18" s="13">
+      <c r="AZ18" s="13">
+        <v>23</v>
+      </c>
+      <c r="BA18" s="13">
         <v>40</v>
       </c>
-      <c r="AM18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>38</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>82</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>84</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>29</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>17</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>44</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>49</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>66</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>50</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>23</v>
-      </c>
       <c r="BB18" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2800,92 +2800,92 @@
       <c r="Y19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AB19" s="11">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="AC19" s="11">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AD19" s="11">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="AE19" s="11">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="AF19" s="11">
-        <v>466</v>
+        <v>238</v>
       </c>
       <c r="AG19" s="11">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="AH19" s="11">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AI19" s="11">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="AJ19" s="11">
-        <v>242</v>
+        <v>552</v>
       </c>
       <c r="AK19" s="11">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="AL19" s="11">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="AM19" s="11">
+        <v>465</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>438</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>277</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>366</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>428</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>453</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>377</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>373</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>11</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>226</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>310</v>
+      </c>
+      <c r="AX19" s="11">
         <v>184</v>
       </c>
-      <c r="AN19" s="11">
-        <v>465</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>438</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>277</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>366</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>428</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>453</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>377</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>373</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>11</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>226</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>310</v>
-      </c>
       <c r="AY19" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AZ19" s="11">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="BA19" s="11">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="BB19" s="11">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2958,91 +2958,91 @@
         <v>0</v>
       </c>
       <c r="Z20" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="AA20" s="15">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AB20" s="15">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AC20" s="15">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AD20" s="15">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AE20" s="15">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AF20" s="15">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AG20" s="15">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AH20" s="15">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AI20" s="15">
-        <v>20108</v>
+        <v>7346</v>
       </c>
       <c r="AJ20" s="15">
-        <v>7346</v>
+        <v>18316</v>
       </c>
       <c r="AK20" s="15">
-        <v>18316</v>
+        <v>23054</v>
       </c>
       <c r="AL20" s="15">
-        <v>23054</v>
+        <v>21705</v>
       </c>
       <c r="AM20" s="15">
-        <v>21705</v>
+        <v>22138</v>
       </c>
       <c r="AN20" s="15">
-        <v>22138</v>
+        <v>17288</v>
       </c>
       <c r="AO20" s="15">
-        <v>17288</v>
+        <v>16558</v>
       </c>
       <c r="AP20" s="15">
-        <v>16558</v>
+        <v>19743</v>
       </c>
       <c r="AQ20" s="15">
-        <v>19743</v>
+        <v>17261</v>
       </c>
       <c r="AR20" s="15">
-        <v>17261</v>
+        <v>16671</v>
       </c>
       <c r="AS20" s="15">
-        <v>16671</v>
+        <v>13788</v>
       </c>
       <c r="AT20" s="15">
-        <v>13788</v>
+        <v>15229</v>
       </c>
       <c r="AU20" s="15">
-        <v>15229</v>
+        <v>1163</v>
       </c>
       <c r="AV20" s="15">
-        <v>1163</v>
+        <v>15326</v>
       </c>
       <c r="AW20" s="15">
-        <v>15326</v>
+        <v>19559</v>
       </c>
       <c r="AX20" s="15">
-        <v>19559</v>
+        <v>11859</v>
       </c>
       <c r="AY20" s="15">
-        <v>11859</v>
+        <v>10097</v>
       </c>
       <c r="AZ20" s="15">
-        <v>10097</v>
+        <v>10757</v>
       </c>
       <c r="BA20" s="15">
-        <v>10757</v>
+        <v>9055</v>
       </c>
       <c r="BB20" s="15">
-        <v>9055</v>
+        <v>15247</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3200,14 +3200,14 @@
       <c r="AH22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="11" t="s">
-        <v>58</v>
+      <c r="AI22" s="11">
+        <v>0</v>
       </c>
       <c r="AJ22" s="11">
         <v>0</v>
       </c>
-      <c r="AK22" s="11">
-        <v>0</v>
+      <c r="AK22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL22" s="11" t="s">
         <v>58</v>
@@ -3224,8 +3224,8 @@
       <c r="AP22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="11" t="s">
-        <v>58</v>
+      <c r="AQ22" s="11">
+        <v>0</v>
       </c>
       <c r="AR22" s="11">
         <v>0</v>
@@ -3359,65 +3359,65 @@
       <c r="AH23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" s="13" t="s">
-        <v>58</v>
+      <c r="AI23" s="13">
+        <v>1349</v>
       </c>
       <c r="AJ23" s="13">
-        <v>1349</v>
+        <v>4198</v>
       </c>
       <c r="AK23" s="13">
-        <v>4198</v>
+        <v>355</v>
       </c>
       <c r="AL23" s="13">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="AM23" s="13">
-        <v>524</v>
+        <v>1088</v>
       </c>
       <c r="AN23" s="13">
-        <v>1088</v>
+        <v>2991</v>
       </c>
       <c r="AO23" s="13">
-        <v>2991</v>
+        <v>797</v>
       </c>
       <c r="AP23" s="13">
-        <v>797</v>
+        <v>3403</v>
       </c>
       <c r="AQ23" s="13">
-        <v>3403</v>
+        <v>5451</v>
       </c>
       <c r="AR23" s="13">
-        <v>5451</v>
+        <v>2065</v>
       </c>
       <c r="AS23" s="13">
-        <v>2065</v>
+        <v>2035</v>
       </c>
       <c r="AT23" s="13">
-        <v>2035</v>
+        <v>4308</v>
       </c>
       <c r="AU23" s="13">
-        <v>4308</v>
+        <v>477</v>
       </c>
       <c r="AV23" s="13">
-        <v>477</v>
+        <v>969</v>
       </c>
       <c r="AW23" s="13">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="AX23" s="13">
-        <v>913</v>
+        <v>2068</v>
       </c>
       <c r="AY23" s="13">
-        <v>2068</v>
+        <v>181</v>
       </c>
       <c r="AZ23" s="13">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="BA23" s="13">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="BB23" s="13">
-        <v>429</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3518,65 +3518,65 @@
       <c r="AH24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI24" s="11" t="s">
-        <v>58</v>
+      <c r="AI24" s="11">
+        <v>194</v>
       </c>
       <c r="AJ24" s="11">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="AK24" s="11">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AL24" s="11">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AM24" s="11">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="AN24" s="11">
-        <v>641</v>
+        <v>420</v>
       </c>
       <c r="AO24" s="11">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="AP24" s="11">
-        <v>304</v>
+        <v>982</v>
       </c>
       <c r="AQ24" s="11">
-        <v>982</v>
+        <v>494</v>
       </c>
       <c r="AR24" s="11">
-        <v>494</v>
+        <v>1338</v>
       </c>
       <c r="AS24" s="11">
-        <v>1338</v>
+        <v>771</v>
       </c>
       <c r="AT24" s="11">
-        <v>771</v>
+        <v>1063</v>
       </c>
       <c r="AU24" s="11">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="AV24" s="11">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX24" s="11">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="AY24" s="11">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="AZ24" s="11">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="BA24" s="11">
-        <v>664</v>
+        <v>137</v>
       </c>
       <c r="BB24" s="11">
-        <v>137</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3677,65 +3677,65 @@
       <c r="AH25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI25" s="13" t="s">
-        <v>58</v>
+      <c r="AI25" s="13">
+        <v>13</v>
       </c>
       <c r="AJ25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>21</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>10</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>8</v>
+      </c>
+      <c r="AO25" s="13">
         <v>13</v>
       </c>
-      <c r="AK25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AL25" s="13">
+      <c r="AP25" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ25" s="13">
+        <v>15</v>
+      </c>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>102</v>
+      </c>
+      <c r="AT25" s="13">
+        <v>9</v>
+      </c>
+      <c r="AU25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>99</v>
+      </c>
+      <c r="AX25" s="13">
+        <v>-79</v>
+      </c>
+      <c r="AY25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="13">
         <v>2</v>
       </c>
-      <c r="AM25" s="13">
-        <v>21</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>10</v>
-      </c>
-      <c r="AO25" s="13">
-        <v>8</v>
-      </c>
-      <c r="AP25" s="13">
-        <v>13</v>
-      </c>
-      <c r="AQ25" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>15</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="13">
-        <v>102</v>
-      </c>
-      <c r="AU25" s="13">
-        <v>9</v>
-      </c>
-      <c r="AV25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="13">
-        <v>99</v>
-      </c>
-      <c r="AY25" s="13">
-        <v>172</v>
-      </c>
-      <c r="AZ25" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="13">
+      <c r="BB25" s="13">
         <v>1</v>
-      </c>
-      <c r="BB25" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3835,64 +3835,64 @@
         <v>0</v>
       </c>
       <c r="AI26" s="17">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="AJ26" s="17">
-        <v>1556</v>
+        <v>4680</v>
       </c>
       <c r="AK26" s="17">
-        <v>4680</v>
+        <v>839</v>
       </c>
       <c r="AL26" s="17">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="AM26" s="17">
-        <v>755</v>
+        <v>1739</v>
       </c>
       <c r="AN26" s="17">
-        <v>1739</v>
+        <v>3419</v>
       </c>
       <c r="AO26" s="17">
-        <v>3419</v>
+        <v>1114</v>
       </c>
       <c r="AP26" s="17">
-        <v>1114</v>
+        <v>4397</v>
       </c>
       <c r="AQ26" s="17">
-        <v>4397</v>
+        <v>5960</v>
       </c>
       <c r="AR26" s="17">
-        <v>5960</v>
+        <v>3403</v>
       </c>
       <c r="AS26" s="17">
-        <v>3403</v>
+        <v>2908</v>
       </c>
       <c r="AT26" s="17">
-        <v>2908</v>
+        <v>5380</v>
       </c>
       <c r="AU26" s="17">
-        <v>5380</v>
+        <v>707</v>
       </c>
       <c r="AV26" s="17">
-        <v>707</v>
+        <v>969</v>
       </c>
       <c r="AW26" s="17">
-        <v>969</v>
+        <v>1046</v>
       </c>
       <c r="AX26" s="17">
-        <v>1046</v>
+        <v>2518</v>
       </c>
       <c r="AY26" s="17">
-        <v>2518</v>
+        <v>413</v>
       </c>
       <c r="AZ26" s="17">
-        <v>413</v>
+        <v>1108</v>
       </c>
       <c r="BA26" s="17">
-        <v>1108</v>
+        <v>568</v>
       </c>
       <c r="BB26" s="17">
-        <v>568</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4021,8 +4021,8 @@
       <c r="Y28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="17" t="s">
-        <v>58</v>
+      <c r="Z28" s="17">
+        <v>0</v>
       </c>
       <c r="AA28" s="17">
         <v>0</v>
@@ -4179,91 +4179,91 @@
         <v>0</v>
       </c>
       <c r="Z29" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="AA29" s="15">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AB29" s="15">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AC29" s="15">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AD29" s="15">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AE29" s="15">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AF29" s="15">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AG29" s="15">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AH29" s="15">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AI29" s="15">
-        <v>20108</v>
+        <v>8902</v>
       </c>
       <c r="AJ29" s="15">
-        <v>8902</v>
+        <v>22996</v>
       </c>
       <c r="AK29" s="15">
-        <v>22996</v>
+        <v>23893</v>
       </c>
       <c r="AL29" s="15">
-        <v>23893</v>
+        <v>22460</v>
       </c>
       <c r="AM29" s="15">
-        <v>22460</v>
+        <v>23877</v>
       </c>
       <c r="AN29" s="15">
-        <v>23877</v>
+        <v>20707</v>
       </c>
       <c r="AO29" s="15">
-        <v>20707</v>
+        <v>17672</v>
       </c>
       <c r="AP29" s="15">
-        <v>17672</v>
+        <v>24140</v>
       </c>
       <c r="AQ29" s="15">
-        <v>24140</v>
+        <v>23221</v>
       </c>
       <c r="AR29" s="15">
-        <v>23221</v>
+        <v>20074</v>
       </c>
       <c r="AS29" s="15">
-        <v>20074</v>
+        <v>16696</v>
       </c>
       <c r="AT29" s="15">
-        <v>16696</v>
+        <v>20609</v>
       </c>
       <c r="AU29" s="15">
-        <v>20609</v>
+        <v>1870</v>
       </c>
       <c r="AV29" s="15">
-        <v>1870</v>
+        <v>16295</v>
       </c>
       <c r="AW29" s="15">
-        <v>16295</v>
+        <v>20605</v>
       </c>
       <c r="AX29" s="15">
-        <v>20605</v>
+        <v>14377</v>
       </c>
       <c r="AY29" s="15">
-        <v>14377</v>
+        <v>10510</v>
       </c>
       <c r="AZ29" s="15">
-        <v>10510</v>
+        <v>11865</v>
       </c>
       <c r="BA29" s="15">
-        <v>11865</v>
+        <v>9623</v>
       </c>
       <c r="BB29" s="15">
-        <v>9623</v>
+        <v>19444</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4771,92 +4771,92 @@
       <c r="Y36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Z36" s="11">
+        <v>778</v>
       </c>
       <c r="AA36" s="11">
-        <v>778</v>
+        <v>579</v>
       </c>
       <c r="AB36" s="11">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="AC36" s="11">
-        <v>596</v>
+        <v>1031</v>
       </c>
       <c r="AD36" s="11">
-        <v>1031</v>
+        <v>491</v>
       </c>
       <c r="AE36" s="11">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="AF36" s="11">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="AG36" s="11">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="AH36" s="11">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="AI36" s="11">
-        <v>838</v>
+        <v>207</v>
       </c>
       <c r="AJ36" s="11">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="AK36" s="11">
-        <v>522</v>
+        <v>690</v>
       </c>
       <c r="AL36" s="11">
-        <v>690</v>
+        <v>544</v>
       </c>
       <c r="AM36" s="11">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="AN36" s="11">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="AO36" s="11">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="AP36" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AQ36" s="11">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="AR36" s="11">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="AS36" s="11">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="AT36" s="11">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="AU36" s="11">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="AV36" s="11">
-        <v>146</v>
+        <v>637</v>
       </c>
       <c r="AW36" s="11">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="AX36" s="11">
-        <v>833</v>
+        <v>885</v>
       </c>
       <c r="AY36" s="11">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="AZ36" s="11">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="BA36" s="11">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="BB36" s="11">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4930,38 +4930,38 @@
       <c r="Y37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="13" t="s">
-        <v>58</v>
+      <c r="Z37" s="13">
+        <v>7</v>
       </c>
       <c r="AA37" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="13">
         <v>7</v>
       </c>
-      <c r="AB37" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AD37" s="13">
+      <c r="AE37" s="13">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="13">
         <v>5</v>
       </c>
-      <c r="AE37" s="13">
-        <v>7</v>
-      </c>
-      <c r="AF37" s="13">
+      <c r="AG37" s="13">
         <v>6</v>
       </c>
-      <c r="AG37" s="13">
-        <v>5</v>
-      </c>
       <c r="AH37" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="13">
         <v>6</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>13</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>0</v>
       </c>
       <c r="AK37" s="13">
         <v>6</v>
@@ -4970,34 +4970,34 @@
         <v>6</v>
       </c>
       <c r="AM37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AN37" s="13">
         <v>6</v>
       </c>
-      <c r="AN37" s="13">
+      <c r="AO37" s="13">
         <v>7</v>
       </c>
-      <c r="AO37" s="13">
-        <v>6</v>
-      </c>
       <c r="AP37" s="13">
+        <v>13</v>
+      </c>
+      <c r="AQ37" s="13">
         <v>7</v>
       </c>
-      <c r="AQ37" s="13">
-        <v>13</v>
-      </c>
       <c r="AR37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AS37" s="13">
         <v>7</v>
       </c>
-      <c r="AS37" s="13">
-        <v>8</v>
-      </c>
       <c r="AT37" s="13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AU37" s="13">
-        <v>15</v>
-      </c>
-      <c r="AV37" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>0</v>
       </c>
       <c r="AW37" s="13">
         <v>0</v>
@@ -5009,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA37" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="13">
         <v>0</v>
@@ -5089,92 +5089,92 @@
       <c r="Y38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="11" t="s">
-        <v>58</v>
+      <c r="Z38" s="11">
+        <v>13264</v>
       </c>
       <c r="AA38" s="11">
-        <v>13264</v>
+        <v>13833</v>
       </c>
       <c r="AB38" s="11">
-        <v>13833</v>
+        <v>11275</v>
       </c>
       <c r="AC38" s="11">
-        <v>11275</v>
+        <v>16972</v>
       </c>
       <c r="AD38" s="11">
-        <v>16972</v>
+        <v>20277</v>
       </c>
       <c r="AE38" s="11">
-        <v>20277</v>
+        <v>9815</v>
       </c>
       <c r="AF38" s="11">
-        <v>9815</v>
+        <v>14661</v>
       </c>
       <c r="AG38" s="11">
-        <v>14661</v>
+        <v>12199</v>
       </c>
       <c r="AH38" s="11">
-        <v>12199</v>
+        <v>14504</v>
       </c>
       <c r="AI38" s="11">
-        <v>14504</v>
+        <v>6813</v>
       </c>
       <c r="AJ38" s="11">
-        <v>6813</v>
+        <v>10423</v>
       </c>
       <c r="AK38" s="11">
-        <v>10423</v>
+        <v>22437</v>
       </c>
       <c r="AL38" s="11">
-        <v>22437</v>
+        <v>19668</v>
       </c>
       <c r="AM38" s="11">
-        <v>19668</v>
+        <v>15370</v>
       </c>
       <c r="AN38" s="11">
-        <v>15370</v>
+        <v>12765</v>
       </c>
       <c r="AO38" s="11">
-        <v>12765</v>
+        <v>10898</v>
       </c>
       <c r="AP38" s="11">
-        <v>10898</v>
+        <v>13579</v>
       </c>
       <c r="AQ38" s="11">
-        <v>13579</v>
+        <v>9928</v>
       </c>
       <c r="AR38" s="11">
-        <v>9928</v>
+        <v>11979</v>
       </c>
       <c r="AS38" s="11">
-        <v>11979</v>
+        <v>9617</v>
       </c>
       <c r="AT38" s="11">
-        <v>9617</v>
+        <v>9553</v>
       </c>
       <c r="AU38" s="11">
-        <v>9553</v>
+        <v>1529</v>
       </c>
       <c r="AV38" s="11">
-        <v>1529</v>
+        <v>11211</v>
       </c>
       <c r="AW38" s="11">
-        <v>11211</v>
+        <v>13159</v>
       </c>
       <c r="AX38" s="11">
-        <v>13159</v>
+        <v>6587</v>
       </c>
       <c r="AY38" s="11">
-        <v>6587</v>
+        <v>5800</v>
       </c>
       <c r="AZ38" s="11">
-        <v>5800</v>
+        <v>8431</v>
       </c>
       <c r="BA38" s="11">
-        <v>8431</v>
+        <v>6359</v>
       </c>
       <c r="BB38" s="11">
-        <v>6359</v>
+        <v>10896</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5248,92 +5248,92 @@
       <c r="Y39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="13" t="s">
-        <v>58</v>
+      <c r="Z39" s="13">
+        <v>2868</v>
       </c>
       <c r="AA39" s="13">
-        <v>2868</v>
+        <v>2396</v>
       </c>
       <c r="AB39" s="13">
+        <v>2340</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>3056</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>4129</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>3129</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>3152</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>3085</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>3132</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>1415</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>2136</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>2727</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>3723</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>2745</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>3453</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>3586</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>3102</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>3229</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>3088</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>2626</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>2974</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>504</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>2423</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>4156</v>
+      </c>
+      <c r="AX39" s="13">
         <v>2396</v>
       </c>
-      <c r="AC39" s="13">
-        <v>2340</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>3056</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>4129</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>3129</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>3152</v>
-      </c>
-      <c r="AH39" s="13">
-        <v>3085</v>
-      </c>
-      <c r="AI39" s="13">
-        <v>3132</v>
-      </c>
-      <c r="AJ39" s="13">
-        <v>1415</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>2136</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>2727</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>3723</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>2745</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>3453</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>3586</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>3229</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>3088</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>2626</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>2974</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>504</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>2423</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>4156</v>
-      </c>
       <c r="AY39" s="13">
-        <v>2396</v>
+        <v>1966</v>
       </c>
       <c r="AZ39" s="13">
-        <v>1966</v>
+        <v>2576</v>
       </c>
       <c r="BA39" s="13">
-        <v>2576</v>
+        <v>2155</v>
       </c>
       <c r="BB39" s="13">
-        <v>2155</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5407,92 +5407,92 @@
       <c r="Y40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z40" s="11" t="s">
-        <v>58</v>
+      <c r="Z40" s="11">
+        <v>206</v>
       </c>
       <c r="AA40" s="11">
+        <v>196</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>192</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>208</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>170</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>199</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>192</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>188</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>204</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>101</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>170</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>159</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>254</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>184</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>178</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>184</v>
+      </c>
+      <c r="AP40" s="11">
         <v>206</v>
       </c>
-      <c r="AB40" s="11">
-        <v>196</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>192</v>
-      </c>
-      <c r="AD40" s="11">
-        <v>208</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>170</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>199</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>192</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>188</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>204</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>101</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>170</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>159</v>
-      </c>
-      <c r="AM40" s="11">
-        <v>254</v>
-      </c>
-      <c r="AN40" s="11">
-        <v>184</v>
-      </c>
-      <c r="AO40" s="11">
-        <v>178</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>184</v>
-      </c>
       <c r="AQ40" s="11">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AR40" s="11">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AS40" s="11">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="AT40" s="11">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AU40" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="AV40" s="11">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AW40" s="11">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AX40" s="11">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="AY40" s="11">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AZ40" s="11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="BA40" s="11">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="BB40" s="11">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5566,92 +5566,92 @@
       <c r="Y41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="13" t="s">
-        <v>58</v>
+      <c r="Z41" s="13">
+        <v>208</v>
       </c>
       <c r="AA41" s="13">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="AB41" s="13">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AC41" s="13">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AD41" s="13">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AE41" s="13">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="AF41" s="13">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="AG41" s="13">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AH41" s="13">
+        <v>121</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>105</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>239</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>120</v>
+      </c>
+      <c r="AL41" s="13">
+        <v>180</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>121</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>145</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>157</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>183</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>108</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>225</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>139</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>173</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>44</v>
+      </c>
+      <c r="AV41" s="13">
         <v>127</v>
       </c>
-      <c r="AI41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AJ41" s="13">
-        <v>105</v>
-      </c>
-      <c r="AK41" s="13">
-        <v>239</v>
-      </c>
-      <c r="AL41" s="13">
-        <v>120</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>180</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>145</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>157</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>183</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>108</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>225</v>
-      </c>
-      <c r="AT41" s="13">
-        <v>139</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>173</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>44</v>
-      </c>
       <c r="AW41" s="13">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AX41" s="13">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="AY41" s="13">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AZ41" s="13">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BA41" s="13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB41" s="13">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5725,92 +5725,92 @@
       <c r="Y42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="11" t="s">
-        <v>58</v>
+      <c r="Z42" s="11">
+        <v>117</v>
       </c>
       <c r="AA42" s="11">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="AB42" s="11">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AC42" s="11">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AD42" s="11">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AE42" s="11">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="AF42" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AG42" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AH42" s="11">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AI42" s="11">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="AJ42" s="11">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="AK42" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL42" s="11">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="AM42" s="11">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="AN42" s="11">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="AO42" s="11">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="AP42" s="11">
+        <v>152</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>268</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>218</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>253</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>172</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>45</v>
+      </c>
+      <c r="AV42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="11">
         <v>210</v>
       </c>
-      <c r="AQ42" s="11">
-        <v>152</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>268</v>
-      </c>
-      <c r="AS42" s="11">
-        <v>218</v>
-      </c>
-      <c r="AT42" s="11">
-        <v>253</v>
-      </c>
-      <c r="AU42" s="11">
-        <v>172</v>
-      </c>
-      <c r="AV42" s="11">
-        <v>45</v>
-      </c>
-      <c r="AW42" s="11">
-        <v>0</v>
-      </c>
       <c r="AX42" s="11">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="AY42" s="11">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="AZ42" s="11">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="BA42" s="11">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="BB42" s="11">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5884,92 +5884,92 @@
       <c r="Y43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="13" t="s">
-        <v>58</v>
+      <c r="Z43" s="13">
+        <v>33</v>
       </c>
       <c r="AA43" s="13">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AB43" s="13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC43" s="13">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="AD43" s="13">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="AE43" s="13">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="AF43" s="13">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG43" s="13">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AH43" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI43" s="13">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="AJ43" s="13">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AK43" s="13">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AL43" s="13">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="AM43" s="13">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AN43" s="13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="AO43" s="13">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AP43" s="13">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AQ43" s="13">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AR43" s="13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AS43" s="13">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AT43" s="13">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AU43" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW43" s="13">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AX43" s="13">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY43" s="13">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AZ43" s="13">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="BA43" s="13">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BB43" s="13">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6043,92 +6043,92 @@
       <c r="Y44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="11" t="s">
-        <v>58</v>
+      <c r="Z44" s="11">
+        <v>49</v>
       </c>
       <c r="AA44" s="11">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AB44" s="11">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AC44" s="11">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="AD44" s="11">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AE44" s="11">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="AF44" s="11">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="AG44" s="11">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AH44" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI44" s="11">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="AJ44" s="11">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="AK44" s="11">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="AL44" s="11">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AM44" s="11">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AN44" s="11">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="AO44" s="11">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="AP44" s="11">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="AQ44" s="11">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AR44" s="11">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="AS44" s="11">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT44" s="11">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AU44" s="11">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AV44" s="11">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AW44" s="11">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="AX44" s="11">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="AY44" s="11">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="AZ44" s="11">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="BA44" s="11">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="BB44" s="11">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6201,91 +6201,91 @@
         <v>0</v>
       </c>
       <c r="Z45" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="AA45" s="15">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AB45" s="15">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AC45" s="15">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AD45" s="15">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AE45" s="15">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AF45" s="15">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AG45" s="15">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AH45" s="15">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AI45" s="15">
-        <v>19462</v>
+        <v>9187</v>
       </c>
       <c r="AJ45" s="15">
-        <v>9187</v>
+        <v>14124</v>
       </c>
       <c r="AK45" s="15">
-        <v>14124</v>
+        <v>26578</v>
       </c>
       <c r="AL45" s="15">
-        <v>26578</v>
+        <v>25026</v>
       </c>
       <c r="AM45" s="15">
-        <v>25026</v>
+        <v>19083</v>
       </c>
       <c r="AN45" s="15">
-        <v>19083</v>
+        <v>17394</v>
       </c>
       <c r="AO45" s="15">
-        <v>17394</v>
+        <v>15593</v>
       </c>
       <c r="AP45" s="15">
-        <v>15593</v>
+        <v>17790</v>
       </c>
       <c r="AQ45" s="15">
-        <v>17790</v>
+        <v>14436</v>
       </c>
       <c r="AR45" s="15">
-        <v>14436</v>
+        <v>16605</v>
       </c>
       <c r="AS45" s="15">
-        <v>16605</v>
+        <v>13529</v>
       </c>
       <c r="AT45" s="15">
-        <v>13529</v>
+        <v>13877</v>
       </c>
       <c r="AU45" s="15">
-        <v>13877</v>
+        <v>2306</v>
       </c>
       <c r="AV45" s="15">
-        <v>2306</v>
+        <v>14687</v>
       </c>
       <c r="AW45" s="15">
+        <v>19027</v>
+      </c>
+      <c r="AX45" s="15">
+        <v>10756</v>
+      </c>
+      <c r="AY45" s="15">
+        <v>9344</v>
+      </c>
+      <c r="AZ45" s="15">
+        <v>12320</v>
+      </c>
+      <c r="BA45" s="15">
+        <v>9714</v>
+      </c>
+      <c r="BB45" s="15">
         <v>14687</v>
-      </c>
-      <c r="AX45" s="15">
-        <v>19027</v>
-      </c>
-      <c r="AY45" s="15">
-        <v>10756</v>
-      </c>
-      <c r="AZ45" s="15">
-        <v>9344</v>
-      </c>
-      <c r="BA45" s="15">
-        <v>12320</v>
-      </c>
-      <c r="BB45" s="15">
-        <v>9714</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6443,14 +6443,14 @@
       <c r="AH47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI47" s="11" t="s">
-        <v>58</v>
+      <c r="AI47" s="11">
+        <v>0</v>
       </c>
       <c r="AJ47" s="11">
         <v>0</v>
       </c>
-      <c r="AK47" s="11">
-        <v>0</v>
+      <c r="AK47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL47" s="11" t="s">
         <v>58</v>
@@ -6467,8 +6467,8 @@
       <c r="AP47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ47" s="11" t="s">
-        <v>58</v>
+      <c r="AQ47" s="11">
+        <v>0</v>
       </c>
       <c r="AR47" s="11">
         <v>0</v>
@@ -6602,65 +6602,65 @@
       <c r="AH48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI48" s="13" t="s">
-        <v>58</v>
+      <c r="AI48" s="13">
+        <v>1187</v>
       </c>
       <c r="AJ48" s="13">
-        <v>1187</v>
+        <v>3233</v>
       </c>
       <c r="AK48" s="13">
-        <v>3233</v>
+        <v>225</v>
       </c>
       <c r="AL48" s="13">
-        <v>225</v>
+        <v>686</v>
       </c>
       <c r="AM48" s="13">
-        <v>686</v>
+        <v>1017</v>
       </c>
       <c r="AN48" s="13">
-        <v>1017</v>
+        <v>2907</v>
       </c>
       <c r="AO48" s="13">
-        <v>2907</v>
+        <v>886</v>
       </c>
       <c r="AP48" s="13">
-        <v>886</v>
+        <v>3204</v>
       </c>
       <c r="AQ48" s="13">
-        <v>3204</v>
+        <v>5547</v>
       </c>
       <c r="AR48" s="13">
-        <v>5547</v>
+        <v>1891</v>
       </c>
       <c r="AS48" s="13">
-        <v>1891</v>
+        <v>2328</v>
       </c>
       <c r="AT48" s="13">
-        <v>2328</v>
+        <v>4146</v>
       </c>
       <c r="AU48" s="13">
-        <v>4146</v>
+        <v>585</v>
       </c>
       <c r="AV48" s="13">
-        <v>585</v>
+        <v>1002</v>
       </c>
       <c r="AW48" s="13">
-        <v>1002</v>
+        <v>790</v>
       </c>
       <c r="AX48" s="13">
-        <v>790</v>
+        <v>2190</v>
       </c>
       <c r="AY48" s="13">
-        <v>2190</v>
+        <v>152</v>
       </c>
       <c r="AZ48" s="13">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="BA48" s="13">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="BB48" s="13">
-        <v>327</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6761,65 +6761,65 @@
       <c r="AH49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI49" s="11" t="s">
-        <v>58</v>
+      <c r="AI49" s="11">
+        <v>186</v>
       </c>
       <c r="AJ49" s="11">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AK49" s="11">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL49" s="11">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="AM49" s="11">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="AN49" s="11">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AO49" s="11">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AP49" s="11">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="AQ49" s="11">
-        <v>903</v>
+        <v>605</v>
       </c>
       <c r="AR49" s="11">
-        <v>605</v>
+        <v>1224</v>
       </c>
       <c r="AS49" s="11">
-        <v>1224</v>
+        <v>763</v>
       </c>
       <c r="AT49" s="11">
-        <v>763</v>
+        <v>1199</v>
       </c>
       <c r="AU49" s="11">
-        <v>1199</v>
+        <v>242</v>
       </c>
       <c r="AV49" s="11">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AX49" s="11">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="AY49" s="11">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="AZ49" s="11">
-        <v>368</v>
+        <v>661</v>
       </c>
       <c r="BA49" s="11">
-        <v>661</v>
+        <v>112</v>
       </c>
       <c r="BB49" s="11">
-        <v>112</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6920,56 +6920,56 @@
       <c r="AH50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI50" s="13" t="s">
-        <v>58</v>
+      <c r="AI50" s="13">
+        <v>4</v>
       </c>
       <c r="AJ50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="13">
+        <v>14</v>
+      </c>
+      <c r="AL50" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>23</v>
+      </c>
+      <c r="AN50" s="13">
+        <v>8</v>
+      </c>
+      <c r="AO50" s="13">
+        <v>15</v>
+      </c>
+      <c r="AP50" s="13">
+        <v>11</v>
+      </c>
+      <c r="AQ50" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR50" s="13">
+        <v>13</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>46</v>
+      </c>
+      <c r="AT50" s="13">
+        <v>62</v>
+      </c>
+      <c r="AU50" s="13">
         <v>4</v>
       </c>
-      <c r="AK50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="13">
-        <v>14</v>
-      </c>
-      <c r="AM50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AN50" s="13">
-        <v>23</v>
-      </c>
-      <c r="AO50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AP50" s="13">
-        <v>15</v>
-      </c>
-      <c r="AQ50" s="13">
-        <v>11</v>
-      </c>
-      <c r="AR50" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS50" s="13">
-        <v>13</v>
-      </c>
-      <c r="AT50" s="13">
-        <v>46</v>
-      </c>
-      <c r="AU50" s="13">
-        <v>62</v>
-      </c>
       <c r="AV50" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="13">
         <v>0</v>
       </c>
       <c r="AX50" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AY50" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="13">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="BB50" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7078,64 +7078,64 @@
         <v>0</v>
       </c>
       <c r="AI51" s="17">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="AJ51" s="17">
-        <v>1377</v>
+        <v>3646</v>
       </c>
       <c r="AK51" s="17">
-        <v>3646</v>
+        <v>654</v>
       </c>
       <c r="AL51" s="17">
-        <v>654</v>
+        <v>1019</v>
       </c>
       <c r="AM51" s="17">
-        <v>1019</v>
+        <v>1517</v>
       </c>
       <c r="AN51" s="17">
-        <v>1517</v>
+        <v>3408</v>
       </c>
       <c r="AO51" s="17">
-        <v>3408</v>
+        <v>1216</v>
       </c>
       <c r="AP51" s="17">
-        <v>1216</v>
+        <v>4118</v>
       </c>
       <c r="AQ51" s="17">
-        <v>4118</v>
+        <v>6154</v>
       </c>
       <c r="AR51" s="17">
-        <v>6154</v>
+        <v>3128</v>
       </c>
       <c r="AS51" s="17">
-        <v>3128</v>
+        <v>3137</v>
       </c>
       <c r="AT51" s="17">
-        <v>3137</v>
+        <v>5407</v>
       </c>
       <c r="AU51" s="17">
-        <v>5407</v>
+        <v>831</v>
       </c>
       <c r="AV51" s="17">
-        <v>831</v>
+        <v>1002</v>
       </c>
       <c r="AW51" s="17">
-        <v>1002</v>
+        <v>943</v>
       </c>
       <c r="AX51" s="17">
-        <v>943</v>
+        <v>2476</v>
       </c>
       <c r="AY51" s="17">
-        <v>2476</v>
+        <v>521</v>
       </c>
       <c r="AZ51" s="17">
-        <v>521</v>
+        <v>1111</v>
       </c>
       <c r="BA51" s="17">
-        <v>1111</v>
+        <v>440</v>
       </c>
       <c r="BB51" s="17">
-        <v>440</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7264,8 +7264,8 @@
       <c r="Y53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="17" t="s">
-        <v>58</v>
+      <c r="Z53" s="17">
+        <v>0</v>
       </c>
       <c r="AA53" s="17">
         <v>0</v>
@@ -7478,8 +7478,8 @@
       <c r="Y55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>58</v>
+      <c r="Z55" s="17">
+        <v>0</v>
       </c>
       <c r="AA55" s="17">
         <v>0</v>
@@ -7636,91 +7636,91 @@
         <v>0</v>
       </c>
       <c r="Z56" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="AA56" s="15">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AB56" s="15">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AC56" s="15">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AD56" s="15">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AE56" s="15">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AF56" s="15">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AG56" s="15">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AH56" s="15">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AI56" s="15">
-        <v>19462</v>
+        <v>10564</v>
       </c>
       <c r="AJ56" s="15">
-        <v>10564</v>
+        <v>17770</v>
       </c>
       <c r="AK56" s="15">
-        <v>17770</v>
+        <v>27232</v>
       </c>
       <c r="AL56" s="15">
-        <v>27232</v>
+        <v>26045</v>
       </c>
       <c r="AM56" s="15">
-        <v>26045</v>
+        <v>20600</v>
       </c>
       <c r="AN56" s="15">
-        <v>20600</v>
+        <v>20802</v>
       </c>
       <c r="AO56" s="15">
-        <v>20802</v>
+        <v>16809</v>
       </c>
       <c r="AP56" s="15">
-        <v>16809</v>
+        <v>21908</v>
       </c>
       <c r="AQ56" s="15">
-        <v>21908</v>
+        <v>20590</v>
       </c>
       <c r="AR56" s="15">
-        <v>20590</v>
+        <v>19733</v>
       </c>
       <c r="AS56" s="15">
-        <v>19733</v>
+        <v>16666</v>
       </c>
       <c r="AT56" s="15">
-        <v>16666</v>
+        <v>19284</v>
       </c>
       <c r="AU56" s="15">
-        <v>19284</v>
+        <v>3137</v>
       </c>
       <c r="AV56" s="15">
-        <v>3137</v>
+        <v>15689</v>
       </c>
       <c r="AW56" s="15">
-        <v>15689</v>
+        <v>19970</v>
       </c>
       <c r="AX56" s="15">
-        <v>19970</v>
+        <v>13232</v>
       </c>
       <c r="AY56" s="15">
-        <v>13232</v>
+        <v>9865</v>
       </c>
       <c r="AZ56" s="15">
-        <v>9865</v>
+        <v>13431</v>
       </c>
       <c r="BA56" s="15">
-        <v>13431</v>
+        <v>10154</v>
       </c>
       <c r="BB56" s="15">
-        <v>10154</v>
+        <v>18869</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8228,92 +8228,92 @@
       <c r="Y63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Z63" s="11">
+        <v>108663</v>
       </c>
       <c r="AA63" s="11">
-        <v>108663</v>
+        <v>94348</v>
       </c>
       <c r="AB63" s="11">
-        <v>94348</v>
+        <v>107444</v>
       </c>
       <c r="AC63" s="11">
-        <v>107444</v>
+        <v>190049</v>
       </c>
       <c r="AD63" s="11">
-        <v>190049</v>
+        <v>134759</v>
       </c>
       <c r="AE63" s="11">
-        <v>134759</v>
+        <v>137151</v>
       </c>
       <c r="AF63" s="11">
-        <v>137151</v>
+        <v>191996</v>
       </c>
       <c r="AG63" s="11">
-        <v>191996</v>
+        <v>246892</v>
       </c>
       <c r="AH63" s="11">
-        <v>246892</v>
+        <v>373913</v>
       </c>
       <c r="AI63" s="11">
-        <v>373913</v>
+        <v>98738</v>
       </c>
       <c r="AJ63" s="11">
-        <v>98738</v>
+        <v>279757</v>
       </c>
       <c r="AK63" s="11">
-        <v>279757</v>
+        <v>356211</v>
       </c>
       <c r="AL63" s="11">
-        <v>356211</v>
+        <v>296506</v>
       </c>
       <c r="AM63" s="11">
-        <v>296506</v>
+        <v>116349</v>
       </c>
       <c r="AN63" s="11">
-        <v>116349</v>
+        <v>58505</v>
       </c>
       <c r="AO63" s="11">
-        <v>58505</v>
+        <v>103229</v>
       </c>
       <c r="AP63" s="11">
-        <v>103229</v>
+        <v>100868</v>
       </c>
       <c r="AQ63" s="11">
-        <v>100868</v>
+        <v>101907</v>
       </c>
       <c r="AR63" s="11">
-        <v>101907</v>
+        <v>149477</v>
       </c>
       <c r="AS63" s="11">
-        <v>149477</v>
+        <v>121351</v>
       </c>
       <c r="AT63" s="11">
-        <v>121351</v>
+        <v>154285</v>
       </c>
       <c r="AU63" s="11">
-        <v>154285</v>
+        <v>71739</v>
       </c>
       <c r="AV63" s="11">
-        <v>71739</v>
+        <v>182398</v>
       </c>
       <c r="AW63" s="11">
-        <v>182398</v>
+        <v>388392</v>
       </c>
       <c r="AX63" s="11">
-        <v>388392</v>
+        <v>438788</v>
       </c>
       <c r="AY63" s="11">
-        <v>438788</v>
+        <v>465754</v>
       </c>
       <c r="AZ63" s="11">
-        <v>465754</v>
+        <v>249163</v>
       </c>
       <c r="BA63" s="11">
-        <v>249163</v>
+        <v>254591</v>
       </c>
       <c r="BB63" s="11">
-        <v>254591</v>
+        <v>358699</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8387,92 +8387,92 @@
       <c r="Y64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Z64" s="13">
+        <v>1111</v>
       </c>
       <c r="AA64" s="13">
-        <v>1111</v>
+        <v>483</v>
       </c>
       <c r="AB64" s="13">
-        <v>483</v>
+        <v>961</v>
       </c>
       <c r="AC64" s="13">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="AD64" s="13">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="AE64" s="13">
-        <v>807</v>
+        <v>986</v>
       </c>
       <c r="AF64" s="13">
-        <v>986</v>
+        <v>753</v>
       </c>
       <c r="AG64" s="13">
-        <v>753</v>
+        <v>621</v>
       </c>
       <c r="AH64" s="13">
-        <v>621</v>
+        <v>1690</v>
       </c>
       <c r="AI64" s="13">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="13">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="AK64" s="13">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="AL64" s="13">
-        <v>805</v>
+        <v>672</v>
       </c>
       <c r="AM64" s="13">
-        <v>672</v>
+        <v>893</v>
       </c>
       <c r="AN64" s="13">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="AO64" s="13">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AP64" s="13">
-        <v>829</v>
+        <v>1694</v>
       </c>
       <c r="AQ64" s="13">
-        <v>1694</v>
+        <v>926</v>
       </c>
       <c r="AR64" s="13">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="AS64" s="13">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="AT64" s="13">
-        <v>1009</v>
+        <v>2247</v>
       </c>
       <c r="AU64" s="13">
-        <v>2247</v>
+        <v>17</v>
       </c>
       <c r="AV64" s="13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AW64" s="13">
+        <v>44</v>
+      </c>
+      <c r="AX64" s="13">
         <v>2</v>
-      </c>
-      <c r="AX64" s="13">
-        <v>44</v>
       </c>
       <c r="AY64" s="13">
         <v>2</v>
       </c>
       <c r="AZ64" s="13">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="BA64" s="13">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="BB64" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8546,92 +8546,92 @@
       <c r="Y65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Z65" s="11">
+        <v>1007923</v>
       </c>
       <c r="AA65" s="11">
-        <v>1007923</v>
+        <v>1019172</v>
       </c>
       <c r="AB65" s="11">
-        <v>1019172</v>
+        <v>854376</v>
       </c>
       <c r="AC65" s="11">
-        <v>854376</v>
+        <v>1293664</v>
       </c>
       <c r="AD65" s="11">
-        <v>1293664</v>
+        <v>1656363</v>
       </c>
       <c r="AE65" s="11">
-        <v>1656363</v>
+        <v>835325</v>
       </c>
       <c r="AF65" s="11">
-        <v>835325</v>
+        <v>1285037</v>
       </c>
       <c r="AG65" s="11">
-        <v>1285037</v>
+        <v>984172</v>
       </c>
       <c r="AH65" s="11">
-        <v>984172</v>
+        <v>1222339</v>
       </c>
       <c r="AI65" s="11">
-        <v>1222339</v>
+        <v>566003</v>
       </c>
       <c r="AJ65" s="11">
-        <v>566003</v>
+        <v>888768</v>
       </c>
       <c r="AK65" s="11">
-        <v>888768</v>
+        <v>1980433</v>
       </c>
       <c r="AL65" s="11">
-        <v>1980433</v>
+        <v>1563890</v>
       </c>
       <c r="AM65" s="11">
-        <v>1563890</v>
+        <v>1208470</v>
       </c>
       <c r="AN65" s="11">
-        <v>1208470</v>
+        <v>996961</v>
       </c>
       <c r="AO65" s="11">
-        <v>996961</v>
+        <v>838674</v>
       </c>
       <c r="AP65" s="11">
-        <v>838674</v>
+        <v>1027046</v>
       </c>
       <c r="AQ65" s="11">
-        <v>1027046</v>
+        <v>758393</v>
       </c>
       <c r="AR65" s="11">
-        <v>758393</v>
+        <v>913473</v>
       </c>
       <c r="AS65" s="11">
-        <v>913473</v>
+        <v>764171</v>
       </c>
       <c r="AT65" s="11">
-        <v>764171</v>
+        <v>788459</v>
       </c>
       <c r="AU65" s="11">
-        <v>788459</v>
+        <v>142009</v>
       </c>
       <c r="AV65" s="11">
-        <v>142009</v>
+        <v>2786230</v>
       </c>
       <c r="AW65" s="11">
-        <v>2786230</v>
+        <v>3315731</v>
       </c>
       <c r="AX65" s="11">
-        <v>3315731</v>
+        <v>1663541</v>
       </c>
       <c r="AY65" s="11">
-        <v>1663541</v>
+        <v>1465062</v>
       </c>
       <c r="AZ65" s="11">
-        <v>1465062</v>
+        <v>2114315</v>
       </c>
       <c r="BA65" s="11">
-        <v>2114315</v>
+        <v>1583838</v>
       </c>
       <c r="BB65" s="11">
-        <v>1583838</v>
+        <v>2708027</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8705,92 +8705,92 @@
       <c r="Y66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
+      <c r="Z66" s="13">
+        <v>265065</v>
       </c>
       <c r="AA66" s="13">
-        <v>265065</v>
+        <v>220836</v>
       </c>
       <c r="AB66" s="13">
-        <v>220836</v>
+        <v>216962</v>
       </c>
       <c r="AC66" s="13">
-        <v>216962</v>
+        <v>292803</v>
       </c>
       <c r="AD66" s="13">
-        <v>292803</v>
+        <v>398130</v>
       </c>
       <c r="AE66" s="13">
-        <v>398130</v>
+        <v>314937</v>
       </c>
       <c r="AF66" s="13">
-        <v>314937</v>
+        <v>332294</v>
       </c>
       <c r="AG66" s="13">
-        <v>332294</v>
+        <v>307799</v>
       </c>
       <c r="AH66" s="13">
-        <v>307799</v>
+        <v>322048</v>
       </c>
       <c r="AI66" s="13">
-        <v>322048</v>
+        <v>149373</v>
       </c>
       <c r="AJ66" s="13">
-        <v>149373</v>
+        <v>229490</v>
       </c>
       <c r="AK66" s="13">
-        <v>229490</v>
+        <v>282099</v>
       </c>
       <c r="AL66" s="13">
-        <v>282099</v>
+        <v>377989</v>
       </c>
       <c r="AM66" s="13">
-        <v>377989</v>
+        <v>282479</v>
       </c>
       <c r="AN66" s="13">
-        <v>282479</v>
+        <v>342298</v>
       </c>
       <c r="AO66" s="13">
-        <v>342298</v>
+        <v>361616</v>
       </c>
       <c r="AP66" s="13">
-        <v>361616</v>
+        <v>317010</v>
       </c>
       <c r="AQ66" s="13">
-        <v>317010</v>
+        <v>320709</v>
       </c>
       <c r="AR66" s="13">
-        <v>320709</v>
+        <v>305179</v>
       </c>
       <c r="AS66" s="13">
-        <v>305179</v>
+        <v>276534</v>
       </c>
       <c r="AT66" s="13">
-        <v>276534</v>
+        <v>318270</v>
       </c>
       <c r="AU66" s="13">
-        <v>318270</v>
+        <v>57179</v>
       </c>
       <c r="AV66" s="13">
-        <v>57179</v>
+        <v>743627</v>
       </c>
       <c r="AW66" s="13">
-        <v>743627</v>
+        <v>1302328</v>
       </c>
       <c r="AX66" s="13">
-        <v>1302328</v>
+        <v>781302</v>
       </c>
       <c r="AY66" s="13">
-        <v>781302</v>
+        <v>629672</v>
       </c>
       <c r="AZ66" s="13">
-        <v>629672</v>
+        <v>817617</v>
       </c>
       <c r="BA66" s="13">
-        <v>817617</v>
+        <v>675159</v>
       </c>
       <c r="BB66" s="13">
-        <v>675159</v>
+        <v>715479</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8864,92 +8864,92 @@
       <c r="Y67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="11" t="s">
-        <v>58</v>
+      <c r="Z67" s="11">
+        <v>49323</v>
       </c>
       <c r="AA67" s="11">
-        <v>49323</v>
+        <v>47045</v>
       </c>
       <c r="AB67" s="11">
-        <v>47045</v>
+        <v>46193</v>
       </c>
       <c r="AC67" s="11">
-        <v>46193</v>
+        <v>50540</v>
       </c>
       <c r="AD67" s="11">
-        <v>50540</v>
+        <v>43750</v>
       </c>
       <c r="AE67" s="11">
-        <v>43750</v>
+        <v>61447</v>
       </c>
       <c r="AF67" s="11">
-        <v>61447</v>
+        <v>60196</v>
       </c>
       <c r="AG67" s="11">
-        <v>60196</v>
+        <v>56916</v>
       </c>
       <c r="AH67" s="11">
-        <v>56916</v>
+        <v>61798</v>
       </c>
       <c r="AI67" s="11">
-        <v>61798</v>
+        <v>31477</v>
       </c>
       <c r="AJ67" s="11">
-        <v>31477</v>
+        <v>53770</v>
       </c>
       <c r="AK67" s="11">
-        <v>53770</v>
+        <v>47809</v>
       </c>
       <c r="AL67" s="11">
-        <v>47809</v>
+        <v>72368</v>
       </c>
       <c r="AM67" s="11">
-        <v>72368</v>
+        <v>53171</v>
       </c>
       <c r="AN67" s="11">
-        <v>53171</v>
+        <v>52107</v>
       </c>
       <c r="AO67" s="11">
-        <v>52107</v>
+        <v>52967</v>
       </c>
       <c r="AP67" s="11">
-        <v>52967</v>
+        <v>60628</v>
       </c>
       <c r="AQ67" s="11">
-        <v>60628</v>
+        <v>51287</v>
       </c>
       <c r="AR67" s="11">
-        <v>51287</v>
+        <v>48078</v>
       </c>
       <c r="AS67" s="11">
-        <v>48078</v>
+        <v>32370</v>
       </c>
       <c r="AT67" s="11">
-        <v>32370</v>
+        <v>39513</v>
       </c>
       <c r="AU67" s="11">
-        <v>39513</v>
+        <v>6745</v>
       </c>
       <c r="AV67" s="11">
-        <v>6745</v>
+        <v>65975</v>
       </c>
       <c r="AW67" s="11">
-        <v>65975</v>
+        <v>110448</v>
       </c>
       <c r="AX67" s="11">
-        <v>110448</v>
+        <v>138226</v>
       </c>
       <c r="AY67" s="11">
-        <v>138226</v>
+        <v>99021</v>
       </c>
       <c r="AZ67" s="11">
-        <v>99021</v>
+        <v>87340</v>
       </c>
       <c r="BA67" s="11">
-        <v>87340</v>
+        <v>110786</v>
       </c>
       <c r="BB67" s="11">
-        <v>110786</v>
+        <v>116071</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9023,92 +9023,92 @@
       <c r="Y68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z68" s="13" t="s">
-        <v>58</v>
+      <c r="Z68" s="13">
+        <v>27484</v>
       </c>
       <c r="AA68" s="13">
-        <v>27484</v>
+        <v>18402</v>
       </c>
       <c r="AB68" s="13">
-        <v>18402</v>
+        <v>16690</v>
       </c>
       <c r="AC68" s="13">
-        <v>16690</v>
+        <v>24946</v>
       </c>
       <c r="AD68" s="13">
-        <v>24946</v>
+        <v>22849</v>
       </c>
       <c r="AE68" s="13">
-        <v>22849</v>
+        <v>27697</v>
       </c>
       <c r="AF68" s="13">
-        <v>27697</v>
+        <v>21504</v>
       </c>
       <c r="AG68" s="13">
-        <v>21504</v>
+        <v>21096</v>
       </c>
       <c r="AH68" s="13">
-        <v>21096</v>
+        <v>20534</v>
       </c>
       <c r="AI68" s="13">
-        <v>20534</v>
+        <v>17970</v>
       </c>
       <c r="AJ68" s="13">
-        <v>17970</v>
+        <v>34127</v>
       </c>
       <c r="AK68" s="13">
-        <v>34127</v>
+        <v>16978</v>
       </c>
       <c r="AL68" s="13">
-        <v>16978</v>
+        <v>31214</v>
       </c>
       <c r="AM68" s="13">
-        <v>31214</v>
+        <v>21035</v>
       </c>
       <c r="AN68" s="13">
-        <v>21035</v>
+        <v>24884</v>
       </c>
       <c r="AO68" s="13">
-        <v>24884</v>
+        <v>27480</v>
       </c>
       <c r="AP68" s="13">
-        <v>27480</v>
+        <v>31785</v>
       </c>
       <c r="AQ68" s="13">
-        <v>31785</v>
+        <v>18679</v>
       </c>
       <c r="AR68" s="13">
-        <v>18679</v>
+        <v>38368</v>
       </c>
       <c r="AS68" s="13">
-        <v>38368</v>
+        <v>24941</v>
       </c>
       <c r="AT68" s="13">
-        <v>24941</v>
+        <v>31023</v>
       </c>
       <c r="AU68" s="13">
-        <v>31023</v>
+        <v>8348</v>
       </c>
       <c r="AV68" s="13">
-        <v>8348</v>
+        <v>50463</v>
       </c>
       <c r="AW68" s="13">
-        <v>50463</v>
+        <v>68547</v>
       </c>
       <c r="AX68" s="13">
-        <v>68547</v>
+        <v>41742</v>
       </c>
       <c r="AY68" s="13">
-        <v>41742</v>
+        <v>39813</v>
       </c>
       <c r="AZ68" s="13">
-        <v>39813</v>
+        <v>42838</v>
       </c>
       <c r="BA68" s="13">
-        <v>42838</v>
+        <v>42030</v>
       </c>
       <c r="BB68" s="13">
-        <v>42030</v>
+        <v>66226</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9182,92 +9182,92 @@
       <c r="Y69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Z69" s="11">
+        <v>10408</v>
       </c>
       <c r="AA69" s="11">
-        <v>10408</v>
+        <v>7859</v>
       </c>
       <c r="AB69" s="11">
-        <v>7859</v>
+        <v>8833</v>
       </c>
       <c r="AC69" s="11">
-        <v>8833</v>
+        <v>14069</v>
       </c>
       <c r="AD69" s="11">
-        <v>14069</v>
+        <v>14195</v>
       </c>
       <c r="AE69" s="11">
-        <v>14195</v>
+        <v>18763</v>
       </c>
       <c r="AF69" s="11">
-        <v>18763</v>
+        <v>19911</v>
       </c>
       <c r="AG69" s="11">
-        <v>19911</v>
+        <v>18547</v>
       </c>
       <c r="AH69" s="11">
-        <v>18547</v>
+        <v>20908</v>
       </c>
       <c r="AI69" s="11">
-        <v>20908</v>
+        <v>11762</v>
       </c>
       <c r="AJ69" s="11">
-        <v>11762</v>
+        <v>19634</v>
       </c>
       <c r="AK69" s="11">
-        <v>19634</v>
+        <v>18274</v>
       </c>
       <c r="AL69" s="11">
-        <v>18274</v>
+        <v>23989</v>
       </c>
       <c r="AM69" s="11">
-        <v>23989</v>
+        <v>8317</v>
       </c>
       <c r="AN69" s="11">
-        <v>8317</v>
+        <v>24266</v>
       </c>
       <c r="AO69" s="11">
-        <v>24266</v>
+        <v>17751</v>
       </c>
       <c r="AP69" s="11">
-        <v>17751</v>
+        <v>12850</v>
       </c>
       <c r="AQ69" s="11">
-        <v>12850</v>
+        <v>22491</v>
       </c>
       <c r="AR69" s="11">
-        <v>22491</v>
+        <v>18410</v>
       </c>
       <c r="AS69" s="11">
-        <v>18410</v>
+        <v>21385</v>
       </c>
       <c r="AT69" s="11">
-        <v>21385</v>
+        <v>14727</v>
       </c>
       <c r="AU69" s="11">
-        <v>14727</v>
+        <v>3724</v>
       </c>
       <c r="AV69" s="11">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="11">
-        <v>0</v>
+        <v>48188</v>
       </c>
       <c r="AX69" s="11">
-        <v>48188</v>
+        <v>91031</v>
       </c>
       <c r="AY69" s="11">
-        <v>91031</v>
+        <v>69274</v>
       </c>
       <c r="AZ69" s="11">
-        <v>69274</v>
+        <v>66077</v>
       </c>
       <c r="BA69" s="11">
-        <v>66077</v>
+        <v>56991</v>
       </c>
       <c r="BB69" s="11">
-        <v>56991</v>
+        <v>69028</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9341,92 +9341,92 @@
       <c r="Y70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z70" s="13" t="s">
-        <v>58</v>
+      <c r="Z70" s="13">
+        <v>8316</v>
       </c>
       <c r="AA70" s="13">
-        <v>8316</v>
+        <v>4065</v>
       </c>
       <c r="AB70" s="13">
-        <v>4065</v>
+        <v>2267</v>
       </c>
       <c r="AC70" s="13">
-        <v>2267</v>
+        <v>22808</v>
       </c>
       <c r="AD70" s="13">
-        <v>22808</v>
+        <v>14798</v>
       </c>
       <c r="AE70" s="13">
-        <v>14798</v>
+        <v>20571</v>
       </c>
       <c r="AF70" s="13">
-        <v>20571</v>
+        <v>20717</v>
       </c>
       <c r="AG70" s="13">
-        <v>20717</v>
+        <v>29009</v>
       </c>
       <c r="AH70" s="13">
-        <v>29009</v>
+        <v>29418</v>
       </c>
       <c r="AI70" s="13">
-        <v>29418</v>
+        <v>12655</v>
       </c>
       <c r="AJ70" s="13">
-        <v>12655</v>
+        <v>16567</v>
       </c>
       <c r="AK70" s="13">
-        <v>16567</v>
+        <v>13430</v>
       </c>
       <c r="AL70" s="13">
-        <v>13430</v>
+        <v>29327</v>
       </c>
       <c r="AM70" s="13">
-        <v>29327</v>
+        <v>5865</v>
       </c>
       <c r="AN70" s="13">
-        <v>5865</v>
+        <v>23529</v>
       </c>
       <c r="AO70" s="13">
-        <v>23529</v>
+        <v>20592</v>
       </c>
       <c r="AP70" s="13">
-        <v>20592</v>
+        <v>11910</v>
       </c>
       <c r="AQ70" s="13">
-        <v>11910</v>
+        <v>5129</v>
       </c>
       <c r="AR70" s="13">
-        <v>5129</v>
+        <v>10487</v>
       </c>
       <c r="AS70" s="13">
-        <v>10487</v>
+        <v>8206</v>
       </c>
       <c r="AT70" s="13">
-        <v>8206</v>
+        <v>13577</v>
       </c>
       <c r="AU70" s="13">
-        <v>13577</v>
+        <v>-35</v>
       </c>
       <c r="AV70" s="13">
-        <v>-35</v>
+        <v>322</v>
       </c>
       <c r="AW70" s="13">
-        <v>322</v>
+        <v>40809</v>
       </c>
       <c r="AX70" s="13">
-        <v>40809</v>
+        <v>42542</v>
       </c>
       <c r="AY70" s="13">
-        <v>42542</v>
+        <v>19311</v>
       </c>
       <c r="AZ70" s="13">
-        <v>19311</v>
+        <v>28976</v>
       </c>
       <c r="BA70" s="13">
-        <v>28976</v>
+        <v>17690</v>
       </c>
       <c r="BB70" s="13">
-        <v>17690</v>
+        <v>20910</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9500,92 +9500,92 @@
       <c r="Y71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="11" t="s">
-        <v>58</v>
+      <c r="Z71" s="11">
+        <v>5167</v>
       </c>
       <c r="AA71" s="11">
-        <v>5167</v>
+        <v>6007</v>
       </c>
       <c r="AB71" s="11">
-        <v>6007</v>
+        <v>8693</v>
       </c>
       <c r="AC71" s="11">
-        <v>8693</v>
+        <v>23786</v>
       </c>
       <c r="AD71" s="11">
-        <v>23786</v>
+        <v>25057</v>
       </c>
       <c r="AE71" s="11">
-        <v>25057</v>
+        <v>37003</v>
       </c>
       <c r="AF71" s="11">
-        <v>37003</v>
+        <v>32383</v>
       </c>
       <c r="AG71" s="11">
-        <v>32383</v>
+        <v>28459</v>
       </c>
       <c r="AH71" s="11">
-        <v>28459</v>
+        <v>30165</v>
       </c>
       <c r="AI71" s="11">
-        <v>30165</v>
+        <v>37837</v>
       </c>
       <c r="AJ71" s="11">
-        <v>37837</v>
+        <v>36353</v>
       </c>
       <c r="AK71" s="11">
-        <v>36353</v>
+        <v>15787</v>
       </c>
       <c r="AL71" s="11">
-        <v>15787</v>
+        <v>29392</v>
       </c>
       <c r="AM71" s="11">
-        <v>29392</v>
+        <v>34864</v>
       </c>
       <c r="AN71" s="11">
-        <v>34864</v>
+        <v>38488</v>
       </c>
       <c r="AO71" s="11">
-        <v>38488</v>
+        <v>32693</v>
       </c>
       <c r="AP71" s="11">
-        <v>32693</v>
+        <v>37838</v>
       </c>
       <c r="AQ71" s="11">
-        <v>37838</v>
+        <v>38609</v>
       </c>
       <c r="AR71" s="11">
-        <v>38609</v>
+        <v>48351</v>
       </c>
       <c r="AS71" s="11">
-        <v>48351</v>
+        <v>43690</v>
       </c>
       <c r="AT71" s="11">
-        <v>43690</v>
+        <v>41390</v>
       </c>
       <c r="AU71" s="11">
-        <v>41390</v>
+        <v>1729</v>
       </c>
       <c r="AV71" s="11">
-        <v>1729</v>
+        <v>65314</v>
       </c>
       <c r="AW71" s="11">
-        <v>65314</v>
+        <v>98534</v>
       </c>
       <c r="AX71" s="11">
-        <v>98534</v>
+        <v>48013</v>
       </c>
       <c r="AY71" s="11">
-        <v>48013</v>
+        <v>70118</v>
       </c>
       <c r="AZ71" s="11">
-        <v>70118</v>
+        <v>80911</v>
       </c>
       <c r="BA71" s="11">
-        <v>80911</v>
+        <v>74330</v>
       </c>
       <c r="BB71" s="11">
-        <v>74330</v>
+        <v>90419</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9658,91 +9658,91 @@
         <v>0</v>
       </c>
       <c r="Z72" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="AA72" s="15">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AB72" s="15">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AC72" s="15">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AD72" s="15">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AE72" s="15">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AF72" s="15">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AG72" s="15">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AH72" s="15">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AI72" s="15">
-        <v>2082813</v>
+        <v>925815</v>
       </c>
       <c r="AJ72" s="15">
-        <v>925815</v>
+        <v>1559476</v>
       </c>
       <c r="AK72" s="15">
-        <v>1559476</v>
+        <v>2731826</v>
       </c>
       <c r="AL72" s="15">
-        <v>2731826</v>
+        <v>2425347</v>
       </c>
       <c r="AM72" s="15">
-        <v>2425347</v>
+        <v>1731443</v>
       </c>
       <c r="AN72" s="15">
-        <v>1731443</v>
+        <v>1561877</v>
       </c>
       <c r="AO72" s="15">
-        <v>1561877</v>
+        <v>1455831</v>
       </c>
       <c r="AP72" s="15">
-        <v>1455831</v>
+        <v>1601629</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1601629</v>
+        <v>1318130</v>
       </c>
       <c r="AR72" s="15">
-        <v>1318130</v>
+        <v>1532763</v>
       </c>
       <c r="AS72" s="15">
-        <v>1532763</v>
+        <v>1293657</v>
       </c>
       <c r="AT72" s="15">
-        <v>1293657</v>
+        <v>1403491</v>
       </c>
       <c r="AU72" s="15">
-        <v>1403491</v>
+        <v>291455</v>
       </c>
       <c r="AV72" s="15">
-        <v>291455</v>
+        <v>3894331</v>
       </c>
       <c r="AW72" s="15">
-        <v>3894331</v>
+        <v>5373021</v>
       </c>
       <c r="AX72" s="15">
-        <v>5373021</v>
+        <v>3245187</v>
       </c>
       <c r="AY72" s="15">
-        <v>3245187</v>
+        <v>2858027</v>
       </c>
       <c r="AZ72" s="15">
-        <v>2858027</v>
+        <v>3488102</v>
       </c>
       <c r="BA72" s="15">
-        <v>3488102</v>
+        <v>2815425</v>
       </c>
       <c r="BB72" s="15">
-        <v>2815425</v>
+        <v>4144863</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9900,8 +9900,8 @@
       <c r="AH74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI74" s="11" t="s">
-        <v>58</v>
+      <c r="AI74" s="11">
+        <v>0</v>
       </c>
       <c r="AJ74" s="11">
         <v>0</v>
@@ -10059,65 +10059,65 @@
       <c r="AH75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI75" s="13" t="s">
-        <v>58</v>
+      <c r="AI75" s="13">
+        <v>116620</v>
       </c>
       <c r="AJ75" s="13">
-        <v>116620</v>
+        <v>309568</v>
       </c>
       <c r="AK75" s="13">
-        <v>309568</v>
+        <v>21173</v>
       </c>
       <c r="AL75" s="13">
-        <v>21173</v>
+        <v>66694</v>
       </c>
       <c r="AM75" s="13">
-        <v>66694</v>
+        <v>99832</v>
       </c>
       <c r="AN75" s="13">
-        <v>99832</v>
+        <v>341273</v>
       </c>
       <c r="AO75" s="13">
-        <v>341273</v>
+        <v>97524</v>
       </c>
       <c r="AP75" s="13">
-        <v>97524</v>
+        <v>302812</v>
       </c>
       <c r="AQ75" s="13">
-        <v>302812</v>
+        <v>520476</v>
       </c>
       <c r="AR75" s="13">
-        <v>520476</v>
+        <v>183036</v>
       </c>
       <c r="AS75" s="13">
-        <v>183036</v>
+        <v>210854</v>
       </c>
       <c r="AT75" s="13">
-        <v>210854</v>
+        <v>368803</v>
       </c>
       <c r="AU75" s="13">
-        <v>368803</v>
+        <v>50271</v>
       </c>
       <c r="AV75" s="13">
-        <v>50271</v>
+        <v>87798</v>
       </c>
       <c r="AW75" s="13">
-        <v>87798</v>
+        <v>85431</v>
       </c>
       <c r="AX75" s="13">
-        <v>85431</v>
+        <v>210620</v>
       </c>
       <c r="AY75" s="13">
-        <v>210620</v>
+        <v>29453</v>
       </c>
       <c r="AZ75" s="13">
-        <v>29453</v>
+        <v>86442</v>
       </c>
       <c r="BA75" s="13">
-        <v>86442</v>
+        <v>60226</v>
       </c>
       <c r="BB75" s="13">
-        <v>60226</v>
+        <v>262478</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10218,65 +10218,65 @@
       <c r="AH76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI76" s="11" t="s">
-        <v>58</v>
+      <c r="AI76" s="11">
+        <v>18758</v>
       </c>
       <c r="AJ76" s="11">
-        <v>18758</v>
+        <v>40047</v>
       </c>
       <c r="AK76" s="11">
-        <v>40047</v>
+        <v>38955</v>
       </c>
       <c r="AL76" s="11">
-        <v>38955</v>
+        <v>32052</v>
       </c>
       <c r="AM76" s="11">
-        <v>32052</v>
+        <v>46364</v>
       </c>
       <c r="AN76" s="11">
-        <v>46364</v>
+        <v>54176</v>
       </c>
       <c r="AO76" s="11">
-        <v>54176</v>
+        <v>38711</v>
       </c>
       <c r="AP76" s="11">
-        <v>38711</v>
+        <v>94801</v>
       </c>
       <c r="AQ76" s="11">
-        <v>94801</v>
+        <v>57500</v>
       </c>
       <c r="AR76" s="11">
-        <v>57500</v>
+        <v>124393</v>
       </c>
       <c r="AS76" s="11">
-        <v>124393</v>
+        <v>76660</v>
       </c>
       <c r="AT76" s="11">
-        <v>76660</v>
+        <v>111746</v>
       </c>
       <c r="AU76" s="11">
-        <v>111746</v>
+        <v>21156</v>
       </c>
       <c r="AV76" s="11">
-        <v>21156</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="11">
-        <v>0</v>
+        <v>17497</v>
       </c>
       <c r="AX76" s="11">
-        <v>17497</v>
+        <v>25520</v>
       </c>
       <c r="AY76" s="11">
-        <v>25520</v>
+        <v>46649</v>
       </c>
       <c r="AZ76" s="11">
-        <v>46649</v>
+        <v>119878</v>
       </c>
       <c r="BA76" s="11">
-        <v>119878</v>
+        <v>21157</v>
       </c>
       <c r="BB76" s="11">
-        <v>21157</v>
+        <v>446434</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10377,65 +10377,65 @@
       <c r="AH77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI77" s="13" t="s">
-        <v>58</v>
+      <c r="AI77" s="13">
+        <v>943</v>
       </c>
       <c r="AJ77" s="13">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="13">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="AL77" s="13">
-        <v>4324</v>
+        <v>2050</v>
       </c>
       <c r="AM77" s="13">
-        <v>2050</v>
+        <v>6310</v>
       </c>
       <c r="AN77" s="13">
-        <v>6310</v>
+        <v>2026</v>
       </c>
       <c r="AO77" s="13">
-        <v>2026</v>
+        <v>3966</v>
       </c>
       <c r="AP77" s="13">
-        <v>3966</v>
+        <v>1146</v>
       </c>
       <c r="AQ77" s="13">
-        <v>1146</v>
+        <v>168</v>
       </c>
       <c r="AR77" s="13">
-        <v>168</v>
+        <v>4244</v>
       </c>
       <c r="AS77" s="13">
-        <v>4244</v>
+        <v>13410</v>
       </c>
       <c r="AT77" s="13">
-        <v>13410</v>
+        <v>17769</v>
       </c>
       <c r="AU77" s="13">
-        <v>17769</v>
+        <v>308</v>
       </c>
       <c r="AV77" s="13">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="13">
         <v>0</v>
       </c>
       <c r="AX77" s="13">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AY77" s="13">
-        <v>1920</v>
+        <v>54</v>
       </c>
       <c r="AZ77" s="13">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="BA77" s="13">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="BB77" s="13">
-        <v>282</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10535,64 +10535,64 @@
         <v>0</v>
       </c>
       <c r="AI78" s="17">
-        <v>0</v>
+        <v>136321</v>
       </c>
       <c r="AJ78" s="17">
-        <v>136321</v>
+        <v>349615</v>
       </c>
       <c r="AK78" s="17">
-        <v>349615</v>
+        <v>64452</v>
       </c>
       <c r="AL78" s="17">
-        <v>64452</v>
+        <v>100796</v>
       </c>
       <c r="AM78" s="17">
-        <v>100796</v>
+        <v>152506</v>
       </c>
       <c r="AN78" s="17">
-        <v>152506</v>
+        <v>397475</v>
       </c>
       <c r="AO78" s="17">
-        <v>397475</v>
+        <v>140201</v>
       </c>
       <c r="AP78" s="17">
-        <v>140201</v>
+        <v>398759</v>
       </c>
       <c r="AQ78" s="17">
-        <v>398759</v>
+        <v>578144</v>
       </c>
       <c r="AR78" s="17">
-        <v>578144</v>
+        <v>311673</v>
       </c>
       <c r="AS78" s="17">
-        <v>311673</v>
+        <v>300924</v>
       </c>
       <c r="AT78" s="17">
-        <v>300924</v>
+        <v>498318</v>
       </c>
       <c r="AU78" s="17">
-        <v>498318</v>
+        <v>71735</v>
       </c>
       <c r="AV78" s="17">
-        <v>71735</v>
+        <v>87798</v>
       </c>
       <c r="AW78" s="17">
-        <v>87798</v>
+        <v>102928</v>
       </c>
       <c r="AX78" s="17">
-        <v>102928</v>
+        <v>238060</v>
       </c>
       <c r="AY78" s="17">
-        <v>238060</v>
+        <v>76156</v>
       </c>
       <c r="AZ78" s="17">
-        <v>76156</v>
+        <v>206540</v>
       </c>
       <c r="BA78" s="17">
-        <v>206540</v>
+        <v>81665</v>
       </c>
       <c r="BB78" s="17">
-        <v>81665</v>
+        <v>709546</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10723,8 +10723,8 @@
       <c r="Y80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="17" t="s">
-        <v>58</v>
+      <c r="Z80" s="17">
+        <v>0</v>
       </c>
       <c r="AA80" s="17">
         <v>0</v>
@@ -10939,8 +10939,8 @@
       <c r="Y82" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="17" t="s">
-        <v>58</v>
+      <c r="Z82" s="17">
+        <v>0</v>
       </c>
       <c r="AA82" s="17">
         <v>0</v>
@@ -11155,8 +11155,8 @@
       <c r="Y84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="11" t="s">
-        <v>58</v>
+      <c r="Z84" s="11">
+        <v>0</v>
       </c>
       <c r="AA84" s="11">
         <v>0</v>
@@ -11313,91 +11313,91 @@
         <v>0</v>
       </c>
       <c r="Z85" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="AA85" s="15">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AB85" s="15">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AC85" s="15">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AD85" s="15">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AE85" s="15">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AF85" s="15">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AG85" s="15">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AH85" s="15">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AI85" s="15">
-        <v>2082813</v>
+        <v>1062136</v>
       </c>
       <c r="AJ85" s="15">
-        <v>1062136</v>
+        <v>1909091</v>
       </c>
       <c r="AK85" s="15">
-        <v>1909091</v>
+        <v>2796278</v>
       </c>
       <c r="AL85" s="15">
-        <v>2796278</v>
+        <v>2526143</v>
       </c>
       <c r="AM85" s="15">
-        <v>2526143</v>
+        <v>1883949</v>
       </c>
       <c r="AN85" s="15">
-        <v>1883949</v>
+        <v>1959352</v>
       </c>
       <c r="AO85" s="15">
-        <v>1959352</v>
+        <v>1596032</v>
       </c>
       <c r="AP85" s="15">
-        <v>1596032</v>
+        <v>2000388</v>
       </c>
       <c r="AQ85" s="15">
-        <v>2000388</v>
+        <v>1896274</v>
       </c>
       <c r="AR85" s="15">
-        <v>1896274</v>
+        <v>1844436</v>
       </c>
       <c r="AS85" s="15">
-        <v>1844436</v>
+        <v>1594581</v>
       </c>
       <c r="AT85" s="15">
-        <v>1594581</v>
+        <v>1901809</v>
       </c>
       <c r="AU85" s="15">
-        <v>1901809</v>
+        <v>363190</v>
       </c>
       <c r="AV85" s="15">
-        <v>363190</v>
+        <v>3982129</v>
       </c>
       <c r="AW85" s="15">
-        <v>3982129</v>
+        <v>5475949</v>
       </c>
       <c r="AX85" s="15">
-        <v>5475949</v>
+        <v>3483247</v>
       </c>
       <c r="AY85" s="15">
-        <v>3483247</v>
+        <v>2934183</v>
       </c>
       <c r="AZ85" s="15">
-        <v>2934183</v>
+        <v>3694642</v>
       </c>
       <c r="BA85" s="15">
-        <v>3694642</v>
+        <v>2897090</v>
       </c>
       <c r="BB85" s="15">
-        <v>2897090</v>
+        <v>4854409</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11905,92 +11905,92 @@
       <c r="Y92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z92" s="11" t="s">
-        <v>58</v>
+      <c r="Z92" s="11">
+        <v>139669666</v>
       </c>
       <c r="AA92" s="11">
-        <v>139669666</v>
+        <v>162949914</v>
       </c>
       <c r="AB92" s="11">
-        <v>162949914</v>
+        <v>180275168</v>
       </c>
       <c r="AC92" s="11">
-        <v>180275168</v>
+        <v>184334627</v>
       </c>
       <c r="AD92" s="11">
-        <v>184334627</v>
+        <v>274458248</v>
       </c>
       <c r="AE92" s="11">
-        <v>274458248</v>
+        <v>305458797</v>
       </c>
       <c r="AF92" s="11">
-        <v>305458797</v>
+        <v>359543071</v>
       </c>
       <c r="AG92" s="11">
-        <v>359543071</v>
+        <v>396295345</v>
       </c>
       <c r="AH92" s="11">
-        <v>396295345</v>
+        <v>446196897</v>
       </c>
       <c r="AI92" s="11">
-        <v>446196897</v>
+        <v>476995169</v>
       </c>
       <c r="AJ92" s="11">
-        <v>476995169</v>
+        <v>535932950</v>
       </c>
       <c r="AK92" s="11">
-        <v>535932950</v>
+        <v>516247826</v>
       </c>
       <c r="AL92" s="11">
-        <v>516247826</v>
+        <v>545047794</v>
       </c>
       <c r="AM92" s="11">
-        <v>545047794</v>
+        <v>471048583</v>
       </c>
       <c r="AN92" s="11">
-        <v>471048583</v>
+        <v>392651007</v>
       </c>
       <c r="AO92" s="11">
-        <v>392651007</v>
+        <v>518738693</v>
       </c>
       <c r="AP92" s="11">
-        <v>518738693</v>
+        <v>522632124</v>
       </c>
       <c r="AQ92" s="11">
-        <v>522632124</v>
+        <v>275424324</v>
       </c>
       <c r="AR92" s="11">
-        <v>275424324</v>
+        <v>312060543</v>
       </c>
       <c r="AS92" s="11">
-        <v>312060543</v>
+        <v>304902010</v>
       </c>
       <c r="AT92" s="11">
-        <v>304902010</v>
+        <v>319430642</v>
       </c>
       <c r="AU92" s="11">
-        <v>319430642</v>
+        <v>491363014</v>
       </c>
       <c r="AV92" s="11">
-        <v>491363014</v>
+        <v>286339089</v>
       </c>
       <c r="AW92" s="11">
-        <v>286339089</v>
+        <v>466256903</v>
       </c>
       <c r="AX92" s="11">
-        <v>466256903</v>
+        <v>495805650</v>
       </c>
       <c r="AY92" s="11">
-        <v>495805650</v>
+        <v>577858561</v>
       </c>
       <c r="AZ92" s="11">
-        <v>577858561</v>
+        <v>485697856</v>
       </c>
       <c r="BA92" s="11">
-        <v>485697856</v>
+        <v>578615909</v>
       </c>
       <c r="BB92" s="11">
-        <v>578615909</v>
+        <v>589965461</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12064,72 +12064,72 @@
       <c r="Y93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="13" t="s">
-        <v>58</v>
+      <c r="Z93" s="13">
+        <v>158714286</v>
       </c>
       <c r="AA93" s="13">
-        <v>158714286</v>
+        <v>161000000</v>
       </c>
       <c r="AB93" s="13">
-        <v>161000000</v>
+        <v>120125000</v>
       </c>
       <c r="AC93" s="13">
-        <v>120125000</v>
+        <v>145800000</v>
       </c>
       <c r="AD93" s="13">
-        <v>145800000</v>
+        <v>115285714</v>
       </c>
       <c r="AE93" s="13">
-        <v>115285714</v>
+        <v>164333333</v>
       </c>
       <c r="AF93" s="13">
-        <v>164333333</v>
+        <v>150600000</v>
       </c>
       <c r="AG93" s="13">
-        <v>150600000</v>
+        <v>103500000</v>
       </c>
       <c r="AH93" s="13">
-        <v>103500000</v>
-      </c>
-      <c r="AI93" s="13">
         <v>130000000</v>
       </c>
-      <c r="AJ93" s="13" t="s">
-        <v>58</v>
+      <c r="AI93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ93" s="13">
+        <v>168333333</v>
       </c>
       <c r="AK93" s="13">
-        <v>168333333</v>
+        <v>134166667</v>
       </c>
       <c r="AL93" s="13">
-        <v>134166667</v>
+        <v>112000000</v>
       </c>
       <c r="AM93" s="13">
-        <v>112000000</v>
+        <v>127571429</v>
       </c>
       <c r="AN93" s="13">
-        <v>127571429</v>
+        <v>139833333</v>
       </c>
       <c r="AO93" s="13">
-        <v>139833333</v>
+        <v>118428571</v>
       </c>
       <c r="AP93" s="13">
-        <v>118428571</v>
+        <v>130307692</v>
       </c>
       <c r="AQ93" s="13">
-        <v>130307692</v>
+        <v>132285714</v>
       </c>
       <c r="AR93" s="13">
-        <v>132285714</v>
+        <v>117500000</v>
       </c>
       <c r="AS93" s="13">
-        <v>117500000</v>
+        <v>144142857</v>
       </c>
       <c r="AT93" s="13">
-        <v>144142857</v>
-      </c>
-      <c r="AU93" s="13">
         <v>149800000</v>
       </c>
+      <c r="AU93" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV93" s="13" t="s">
         <v>58</v>
       </c>
@@ -12142,11 +12142,11 @@
       <c r="AY93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA93" s="13">
+      <c r="AZ93" s="13">
         <v>432500000</v>
+      </c>
+      <c r="BA93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB93" s="13" t="s">
         <v>58</v>
@@ -12223,92 +12223,92 @@
       <c r="Y94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="11" t="s">
-        <v>58</v>
+      <c r="Z94" s="11">
+        <v>75989370</v>
       </c>
       <c r="AA94" s="11">
-        <v>75989370</v>
+        <v>73676860</v>
       </c>
       <c r="AB94" s="11">
-        <v>73676860</v>
+        <v>75776142</v>
       </c>
       <c r="AC94" s="11">
-        <v>75776142</v>
+        <v>76223427</v>
       </c>
       <c r="AD94" s="11">
-        <v>76223427</v>
+        <v>81686788</v>
       </c>
       <c r="AE94" s="11">
-        <v>81686788</v>
+        <v>85106979</v>
       </c>
       <c r="AF94" s="11">
-        <v>85106979</v>
+        <v>87650024</v>
       </c>
       <c r="AG94" s="11">
-        <v>87650024</v>
+        <v>80676449</v>
       </c>
       <c r="AH94" s="11">
-        <v>80676449</v>
+        <v>84275993</v>
       </c>
       <c r="AI94" s="11">
-        <v>84275993</v>
+        <v>83076912</v>
       </c>
       <c r="AJ94" s="11">
-        <v>83076912</v>
+        <v>85269884</v>
       </c>
       <c r="AK94" s="11">
-        <v>85269884</v>
+        <v>88266390</v>
       </c>
       <c r="AL94" s="11">
-        <v>88266390</v>
+        <v>79514440</v>
       </c>
       <c r="AM94" s="11">
-        <v>79514440</v>
+        <v>78625244</v>
       </c>
       <c r="AN94" s="11">
-        <v>78625244</v>
+        <v>78101136</v>
       </c>
       <c r="AO94" s="11">
-        <v>78101136</v>
+        <v>76956689</v>
       </c>
       <c r="AP94" s="11">
-        <v>76956689</v>
+        <v>75634877</v>
       </c>
       <c r="AQ94" s="11">
-        <v>75634877</v>
+        <v>76389303</v>
       </c>
       <c r="AR94" s="11">
-        <v>76389303</v>
+        <v>76256198</v>
       </c>
       <c r="AS94" s="11">
-        <v>76256198</v>
+        <v>79460435</v>
       </c>
       <c r="AT94" s="11">
-        <v>79460435</v>
+        <v>82535225</v>
       </c>
       <c r="AU94" s="11">
-        <v>82535225</v>
+        <v>92877044</v>
       </c>
       <c r="AV94" s="11">
-        <v>92877044</v>
+        <v>248526447</v>
       </c>
       <c r="AW94" s="11">
-        <v>248526447</v>
+        <v>251974390</v>
       </c>
       <c r="AX94" s="11">
-        <v>251974390</v>
+        <v>252549112</v>
       </c>
       <c r="AY94" s="11">
-        <v>252549112</v>
+        <v>252596897</v>
       </c>
       <c r="AZ94" s="11">
-        <v>252596897</v>
+        <v>250778674</v>
       </c>
       <c r="BA94" s="11">
-        <v>250778674</v>
+        <v>249070294</v>
       </c>
       <c r="BB94" s="11">
-        <v>249070294</v>
+        <v>248534049</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12382,92 +12382,92 @@
       <c r="Y95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="13" t="s">
-        <v>58</v>
+      <c r="Z95" s="13">
+        <v>92421548</v>
       </c>
       <c r="AA95" s="13">
-        <v>92421548</v>
+        <v>92168614</v>
       </c>
       <c r="AB95" s="13">
-        <v>92168614</v>
+        <v>92718803</v>
       </c>
       <c r="AC95" s="13">
-        <v>92718803</v>
+        <v>95812500</v>
       </c>
       <c r="AD95" s="13">
-        <v>95812500</v>
+        <v>96422863</v>
       </c>
       <c r="AE95" s="13">
-        <v>96422863</v>
+        <v>100651007</v>
       </c>
       <c r="AF95" s="13">
-        <v>100651007</v>
+        <v>105423223</v>
       </c>
       <c r="AG95" s="13">
-        <v>105423223</v>
+        <v>99772771</v>
       </c>
       <c r="AH95" s="13">
-        <v>99772771</v>
+        <v>102825032</v>
       </c>
       <c r="AI95" s="13">
-        <v>102825032</v>
+        <v>105563958</v>
       </c>
       <c r="AJ95" s="13">
-        <v>105563958</v>
+        <v>107439139</v>
       </c>
       <c r="AK95" s="13">
-        <v>107439139</v>
+        <v>103446645</v>
       </c>
       <c r="AL95" s="13">
-        <v>103446645</v>
+        <v>101528069</v>
       </c>
       <c r="AM95" s="13">
-        <v>101528069</v>
+        <v>102906740</v>
       </c>
       <c r="AN95" s="13">
-        <v>102906740</v>
+        <v>99130611</v>
       </c>
       <c r="AO95" s="13">
-        <v>99130611</v>
+        <v>100841049</v>
       </c>
       <c r="AP95" s="13">
-        <v>100841049</v>
+        <v>102195358</v>
       </c>
       <c r="AQ95" s="13">
-        <v>102195358</v>
+        <v>99321462</v>
       </c>
       <c r="AR95" s="13">
-        <v>99321462</v>
+        <v>98827396</v>
       </c>
       <c r="AS95" s="13">
-        <v>98827396</v>
+        <v>105306169</v>
       </c>
       <c r="AT95" s="13">
-        <v>105306169</v>
+        <v>107017485</v>
       </c>
       <c r="AU95" s="13">
-        <v>107017485</v>
+        <v>113450397</v>
       </c>
       <c r="AV95" s="13">
-        <v>113450397</v>
+        <v>306903426</v>
       </c>
       <c r="AW95" s="13">
-        <v>306903426</v>
+        <v>313360924</v>
       </c>
       <c r="AX95" s="13">
-        <v>313360924</v>
+        <v>326085977</v>
       </c>
       <c r="AY95" s="13">
-        <v>326085977</v>
+        <v>320280773</v>
       </c>
       <c r="AZ95" s="13">
-        <v>320280773</v>
+        <v>317397904</v>
       </c>
       <c r="BA95" s="13">
-        <v>317397904</v>
+        <v>313298840</v>
       </c>
       <c r="BB95" s="13">
-        <v>313298840</v>
+        <v>317990667</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12541,92 +12541,92 @@
       <c r="Y96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="11" t="s">
-        <v>58</v>
+      <c r="Z96" s="11">
+        <v>239432039</v>
       </c>
       <c r="AA96" s="11">
-        <v>239432039</v>
+        <v>240025510</v>
       </c>
       <c r="AB96" s="11">
-        <v>240025510</v>
+        <v>240588542</v>
       </c>
       <c r="AC96" s="11">
-        <v>240588542</v>
+        <v>242980769</v>
       </c>
       <c r="AD96" s="11">
-        <v>242980769</v>
+        <v>257352941</v>
       </c>
       <c r="AE96" s="11">
-        <v>257352941</v>
+        <v>308778894</v>
       </c>
       <c r="AF96" s="11">
-        <v>308778894</v>
+        <v>313520833</v>
       </c>
       <c r="AG96" s="11">
-        <v>313520833</v>
+        <v>302744681</v>
       </c>
       <c r="AH96" s="11">
-        <v>302744681</v>
+        <v>302931373</v>
       </c>
       <c r="AI96" s="11">
-        <v>302931373</v>
+        <v>311653465</v>
       </c>
       <c r="AJ96" s="11">
-        <v>311653465</v>
+        <v>316294118</v>
       </c>
       <c r="AK96" s="11">
-        <v>316294118</v>
+        <v>300685535</v>
       </c>
       <c r="AL96" s="11">
-        <v>300685535</v>
+        <v>284913386</v>
       </c>
       <c r="AM96" s="11">
-        <v>284913386</v>
+        <v>288972826</v>
       </c>
       <c r="AN96" s="11">
-        <v>288972826</v>
+        <v>292735955</v>
       </c>
       <c r="AO96" s="11">
-        <v>292735955</v>
+        <v>287864130</v>
       </c>
       <c r="AP96" s="11">
-        <v>287864130</v>
+        <v>294310680</v>
       </c>
       <c r="AQ96" s="11">
-        <v>294310680</v>
+        <v>286519553</v>
       </c>
       <c r="AR96" s="11">
-        <v>286519553</v>
+        <v>286178571</v>
       </c>
       <c r="AS96" s="11">
-        <v>286178571</v>
+        <v>305377358</v>
       </c>
       <c r="AT96" s="11">
-        <v>305377358</v>
+        <v>311125984</v>
       </c>
       <c r="AU96" s="11">
-        <v>311125984</v>
+        <v>355000000</v>
       </c>
       <c r="AV96" s="11">
-        <v>355000000</v>
+        <v>709408602</v>
       </c>
       <c r="AW96" s="11">
-        <v>709408602</v>
+        <v>731443709</v>
       </c>
       <c r="AX96" s="11">
-        <v>731443709</v>
+        <v>727505263</v>
       </c>
       <c r="AY96" s="11">
-        <v>727505263</v>
+        <v>728095588</v>
       </c>
       <c r="AZ96" s="11">
-        <v>728095588</v>
+        <v>727833333</v>
       </c>
       <c r="BA96" s="11">
-        <v>727833333</v>
+        <v>724091503</v>
       </c>
       <c r="BB96" s="11">
-        <v>724091503</v>
+        <v>720937888</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12700,92 +12700,92 @@
       <c r="Y97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="13" t="s">
-        <v>58</v>
+      <c r="Z97" s="13">
+        <v>132134615</v>
       </c>
       <c r="AA97" s="13">
-        <v>132134615</v>
+        <v>147216000</v>
       </c>
       <c r="AB97" s="13">
-        <v>147216000</v>
+        <v>160480769</v>
       </c>
       <c r="AC97" s="13">
-        <v>160480769</v>
+        <v>166306667</v>
       </c>
       <c r="AD97" s="13">
-        <v>166306667</v>
+        <v>174419847</v>
       </c>
       <c r="AE97" s="13">
-        <v>174419847</v>
+        <v>177544872</v>
       </c>
       <c r="AF97" s="13">
-        <v>177544872</v>
+        <v>174829268</v>
       </c>
       <c r="AG97" s="13">
-        <v>174829268</v>
+        <v>166110236</v>
       </c>
       <c r="AH97" s="13">
-        <v>166110236</v>
+        <v>169702479</v>
       </c>
       <c r="AI97" s="13">
-        <v>169702479</v>
+        <v>171142857</v>
       </c>
       <c r="AJ97" s="13">
-        <v>171142857</v>
+        <v>142790795</v>
       </c>
       <c r="AK97" s="13">
-        <v>142790795</v>
+        <v>141483333</v>
       </c>
       <c r="AL97" s="13">
-        <v>141483333</v>
+        <v>173411111</v>
       </c>
       <c r="AM97" s="13">
-        <v>173411111</v>
+        <v>173842975</v>
       </c>
       <c r="AN97" s="13">
-        <v>173842975</v>
+        <v>171613793</v>
       </c>
       <c r="AO97" s="13">
-        <v>171613793</v>
+        <v>175031847</v>
       </c>
       <c r="AP97" s="13">
-        <v>175031847</v>
+        <v>173688525</v>
       </c>
       <c r="AQ97" s="13">
-        <v>173688525</v>
+        <v>172953704</v>
       </c>
       <c r="AR97" s="13">
-        <v>172953704</v>
+        <v>170524444</v>
       </c>
       <c r="AS97" s="13">
-        <v>170524444</v>
+        <v>179431655</v>
       </c>
       <c r="AT97" s="13">
-        <v>179431655</v>
+        <v>179323699</v>
       </c>
       <c r="AU97" s="13">
-        <v>179323699</v>
+        <v>189727273</v>
       </c>
       <c r="AV97" s="13">
-        <v>189727273</v>
+        <v>397346457</v>
       </c>
       <c r="AW97" s="13">
-        <v>397346457</v>
+        <v>415436364</v>
       </c>
       <c r="AX97" s="13">
-        <v>415436364</v>
+        <v>425938776</v>
       </c>
       <c r="AY97" s="13">
-        <v>425938776</v>
+        <v>432750000</v>
       </c>
       <c r="AZ97" s="13">
-        <v>432750000</v>
+        <v>424138614</v>
       </c>
       <c r="BA97" s="13">
-        <v>424138614</v>
+        <v>420300000</v>
       </c>
       <c r="BB97" s="13">
-        <v>420300000</v>
+        <v>416515723</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12859,92 +12859,92 @@
       <c r="Y98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z98" s="11" t="s">
-        <v>58</v>
+      <c r="Z98" s="11">
+        <v>88957265</v>
       </c>
       <c r="AA98" s="11">
-        <v>88957265</v>
+        <v>88303371</v>
       </c>
       <c r="AB98" s="11">
-        <v>88303371</v>
+        <v>92010417</v>
       </c>
       <c r="AC98" s="11">
-        <v>92010417</v>
+        <v>88484277</v>
       </c>
       <c r="AD98" s="11">
-        <v>88484277</v>
+        <v>92777778</v>
       </c>
       <c r="AE98" s="11">
-        <v>92777778</v>
+        <v>87269767</v>
       </c>
       <c r="AF98" s="11">
-        <v>87269767</v>
+        <v>88493333</v>
       </c>
       <c r="AG98" s="11">
-        <v>88493333</v>
+        <v>84689498</v>
       </c>
       <c r="AH98" s="11">
-        <v>84689498</v>
+        <v>83967871</v>
       </c>
       <c r="AI98" s="11">
-        <v>83967871</v>
+        <v>87125926</v>
       </c>
       <c r="AJ98" s="11">
-        <v>87125926</v>
+        <v>88044843</v>
       </c>
       <c r="AK98" s="11">
-        <v>88044843</v>
+        <v>82687783</v>
       </c>
       <c r="AL98" s="11">
-        <v>82687783</v>
+        <v>84171930</v>
       </c>
       <c r="AM98" s="11">
-        <v>84171930</v>
+        <v>85742268</v>
       </c>
       <c r="AN98" s="11">
-        <v>85742268</v>
+        <v>84846154</v>
       </c>
       <c r="AO98" s="11">
-        <v>84846154</v>
+        <v>84528571</v>
       </c>
       <c r="AP98" s="11">
-        <v>84528571</v>
+        <v>84539474</v>
       </c>
       <c r="AQ98" s="11">
-        <v>84539474</v>
+        <v>83921642</v>
       </c>
       <c r="AR98" s="11">
-        <v>83921642</v>
+        <v>84449541</v>
       </c>
       <c r="AS98" s="11">
-        <v>84449541</v>
+        <v>84525692</v>
       </c>
       <c r="AT98" s="11">
-        <v>84525692</v>
+        <v>85622093</v>
       </c>
       <c r="AU98" s="11">
-        <v>85622093</v>
-      </c>
-      <c r="AV98" s="11">
         <v>82755556</v>
       </c>
-      <c r="AW98" s="11" t="s">
-        <v>58</v>
+      <c r="AV98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW98" s="11">
+        <v>229466667</v>
       </c>
       <c r="AX98" s="11">
-        <v>229466667</v>
+        <v>228721106</v>
       </c>
       <c r="AY98" s="11">
-        <v>228721106</v>
+        <v>229384106</v>
       </c>
       <c r="AZ98" s="11">
-        <v>229384106</v>
+        <v>228640138</v>
       </c>
       <c r="BA98" s="11">
-        <v>228640138</v>
+        <v>227055777</v>
       </c>
       <c r="BB98" s="11">
-        <v>227055777</v>
+        <v>226321311</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13018,92 +13018,92 @@
       <c r="Y99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="13" t="s">
-        <v>58</v>
+      <c r="Z99" s="13">
+        <v>252000000</v>
       </c>
       <c r="AA99" s="13">
-        <v>252000000</v>
+        <v>193571429</v>
       </c>
       <c r="AB99" s="13">
-        <v>193571429</v>
+        <v>174384615</v>
       </c>
       <c r="AC99" s="13">
-        <v>174384615</v>
+        <v>250637363</v>
       </c>
       <c r="AD99" s="13">
-        <v>250637363</v>
+        <v>274037037</v>
       </c>
       <c r="AE99" s="13">
-        <v>274037037</v>
+        <v>247843373</v>
       </c>
       <c r="AF99" s="13">
-        <v>247843373</v>
+        <v>252646341</v>
       </c>
       <c r="AG99" s="13">
-        <v>252646341</v>
+        <v>247940171</v>
       </c>
       <c r="AH99" s="13">
-        <v>247940171</v>
+        <v>247210084</v>
       </c>
       <c r="AI99" s="13">
-        <v>247210084</v>
+        <v>238773585</v>
       </c>
       <c r="AJ99" s="13">
-        <v>238773585</v>
+        <v>243632353</v>
       </c>
       <c r="AK99" s="13">
-        <v>243632353</v>
+        <v>231551724</v>
       </c>
       <c r="AL99" s="13">
-        <v>231551724</v>
+        <v>266609091</v>
       </c>
       <c r="AM99" s="13">
-        <v>266609091</v>
+        <v>266590909</v>
       </c>
       <c r="AN99" s="13">
-        <v>266590909</v>
+        <v>270448276</v>
       </c>
       <c r="AO99" s="13">
-        <v>270448276</v>
+        <v>270947368</v>
       </c>
       <c r="AP99" s="13">
-        <v>270947368</v>
+        <v>258913043</v>
       </c>
       <c r="AQ99" s="13">
-        <v>258913043</v>
+        <v>269947368</v>
       </c>
       <c r="AR99" s="13">
-        <v>269947368</v>
+        <v>262175000</v>
       </c>
       <c r="AS99" s="13">
-        <v>262175000</v>
+        <v>256437500</v>
       </c>
       <c r="AT99" s="13">
-        <v>256437500</v>
-      </c>
-      <c r="AU99" s="13">
         <v>266215686</v>
       </c>
-      <c r="AV99" s="13" t="s">
-        <v>58</v>
+      <c r="AU99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV99" s="13">
+        <v>322000000</v>
       </c>
       <c r="AW99" s="13">
-        <v>322000000</v>
+        <v>703603448</v>
       </c>
       <c r="AX99" s="13">
-        <v>703603448</v>
+        <v>709033333</v>
       </c>
       <c r="AY99" s="13">
-        <v>709033333</v>
+        <v>715222222</v>
       </c>
       <c r="AZ99" s="13">
-        <v>715222222</v>
+        <v>706731707</v>
       </c>
       <c r="BA99" s="13">
-        <v>706731707</v>
+        <v>680384615</v>
       </c>
       <c r="BB99" s="13">
-        <v>680384615</v>
+        <v>697000000</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13177,92 +13177,92 @@
       <c r="Y100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z100" s="11" t="s">
-        <v>58</v>
+      <c r="Z100" s="11">
+        <v>105448980</v>
       </c>
       <c r="AA100" s="11">
-        <v>105448980</v>
+        <v>92415385</v>
       </c>
       <c r="AB100" s="11">
-        <v>92415385</v>
+        <v>101081395</v>
       </c>
       <c r="AC100" s="11">
-        <v>101081395</v>
+        <v>109110092</v>
       </c>
       <c r="AD100" s="11">
-        <v>109110092</v>
+        <v>119889952</v>
       </c>
       <c r="AE100" s="11">
-        <v>119889952</v>
+        <v>117469841</v>
       </c>
       <c r="AF100" s="11">
-        <v>117469841</v>
+        <v>108667785</v>
       </c>
       <c r="AG100" s="11">
-        <v>108667785</v>
+        <v>100561837</v>
       </c>
       <c r="AH100" s="11">
-        <v>100561837</v>
+        <v>106968085</v>
       </c>
       <c r="AI100" s="11">
-        <v>106968085</v>
+        <v>105689944</v>
       </c>
       <c r="AJ100" s="11">
-        <v>105689944</v>
+        <v>107872404</v>
       </c>
       <c r="AK100" s="11">
-        <v>107872404</v>
+        <v>98668750</v>
       </c>
       <c r="AL100" s="11">
-        <v>98668750</v>
+        <v>114812500</v>
       </c>
       <c r="AM100" s="11">
-        <v>114812500</v>
+        <v>120220690</v>
       </c>
       <c r="AN100" s="11">
-        <v>120220690</v>
+        <v>118424615</v>
       </c>
       <c r="AO100" s="11">
-        <v>118424615</v>
+        <v>118452899</v>
       </c>
       <c r="AP100" s="11">
-        <v>118452899</v>
+        <v>119740506</v>
       </c>
       <c r="AQ100" s="11">
-        <v>119740506</v>
+        <v>117710366</v>
       </c>
       <c r="AR100" s="11">
-        <v>117710366</v>
+        <v>120877500</v>
       </c>
       <c r="AS100" s="11">
-        <v>120877500</v>
+        <v>124472934</v>
       </c>
       <c r="AT100" s="11">
-        <v>124472934</v>
+        <v>125805471</v>
       </c>
       <c r="AU100" s="11">
-        <v>125805471</v>
+        <v>91000000</v>
       </c>
       <c r="AV100" s="11">
-        <v>91000000</v>
+        <v>334943590</v>
       </c>
       <c r="AW100" s="11">
-        <v>334943590</v>
+        <v>334013559</v>
       </c>
       <c r="AX100" s="11">
-        <v>334013559</v>
+        <v>338119718</v>
       </c>
       <c r="AY100" s="11">
-        <v>338119718</v>
+        <v>326130233</v>
       </c>
       <c r="AZ100" s="11">
-        <v>326130233</v>
+        <v>327574899</v>
       </c>
       <c r="BA100" s="11">
-        <v>327574899</v>
+        <v>323173913</v>
       </c>
       <c r="BB100" s="11">
-        <v>323173913</v>
+        <v>325248201</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13420,65 +13420,65 @@
       <c r="AH102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI102" s="11" t="s">
-        <v>58</v>
+      <c r="AI102" s="11">
+        <v>98247683</v>
       </c>
       <c r="AJ102" s="11">
-        <v>98247683</v>
+        <v>95752552</v>
       </c>
       <c r="AK102" s="11">
-        <v>95752552</v>
+        <v>94102222</v>
       </c>
       <c r="AL102" s="11">
-        <v>94102222</v>
+        <v>97221574</v>
       </c>
       <c r="AM102" s="11">
-        <v>97221574</v>
+        <v>98163225</v>
       </c>
       <c r="AN102" s="11">
-        <v>98163225</v>
+        <v>117396973</v>
       </c>
       <c r="AO102" s="11">
-        <v>117396973</v>
+        <v>110072235</v>
       </c>
       <c r="AP102" s="11">
-        <v>110072235</v>
+        <v>94510612</v>
       </c>
       <c r="AQ102" s="11">
-        <v>94510612</v>
+        <v>93830178</v>
       </c>
       <c r="AR102" s="11">
-        <v>93830178</v>
+        <v>96793231</v>
       </c>
       <c r="AS102" s="11">
-        <v>96793231</v>
+        <v>90573024</v>
       </c>
       <c r="AT102" s="11">
-        <v>90573024</v>
+        <v>88953932</v>
       </c>
       <c r="AU102" s="11">
-        <v>88953932</v>
+        <v>85933333</v>
       </c>
       <c r="AV102" s="11">
-        <v>85933333</v>
+        <v>87622754</v>
       </c>
       <c r="AW102" s="11">
-        <v>87622754</v>
+        <v>108140506</v>
       </c>
       <c r="AX102" s="11">
-        <v>108140506</v>
+        <v>96173516</v>
       </c>
       <c r="AY102" s="11">
-        <v>96173516</v>
+        <v>193769737</v>
       </c>
       <c r="AZ102" s="11">
-        <v>193769737</v>
+        <v>192521158</v>
       </c>
       <c r="BA102" s="11">
-        <v>192521158</v>
+        <v>184177370</v>
       </c>
       <c r="BB102" s="11">
-        <v>184177370</v>
+        <v>172569362</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13579,65 +13579,65 @@
       <c r="AH103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI103" s="13" t="s">
-        <v>58</v>
+      <c r="AI103" s="13">
+        <v>100849462</v>
       </c>
       <c r="AJ103" s="13">
-        <v>100849462</v>
+        <v>96966102</v>
       </c>
       <c r="AK103" s="13">
-        <v>96966102</v>
+        <v>93867470</v>
       </c>
       <c r="AL103" s="13">
-        <v>93867470</v>
+        <v>98621538</v>
       </c>
       <c r="AM103" s="13">
-        <v>98621538</v>
+        <v>97199161</v>
       </c>
       <c r="AN103" s="13">
-        <v>97199161</v>
+        <v>109890467</v>
       </c>
       <c r="AO103" s="13">
-        <v>109890467</v>
+        <v>122892063</v>
       </c>
       <c r="AP103" s="13">
-        <v>122892063</v>
+        <v>104984496</v>
       </c>
       <c r="AQ103" s="13">
-        <v>104984496</v>
+        <v>95041322</v>
       </c>
       <c r="AR103" s="13">
-        <v>95041322</v>
+        <v>101628268</v>
       </c>
       <c r="AS103" s="13">
-        <v>101628268</v>
+        <v>100471822</v>
       </c>
       <c r="AT103" s="13">
-        <v>100471822</v>
+        <v>93199333</v>
       </c>
       <c r="AU103" s="13">
-        <v>93199333</v>
-      </c>
-      <c r="AV103" s="13">
         <v>87421488</v>
       </c>
-      <c r="AW103" s="13" t="s">
-        <v>58</v>
+      <c r="AV103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW103" s="13">
+        <v>114359477</v>
       </c>
       <c r="AX103" s="13">
-        <v>114359477</v>
+        <v>95939850</v>
       </c>
       <c r="AY103" s="13">
-        <v>95939850</v>
+        <v>126763587</v>
       </c>
       <c r="AZ103" s="13">
-        <v>126763587</v>
+        <v>181358548</v>
       </c>
       <c r="BA103" s="13">
-        <v>181358548</v>
+        <v>188901786</v>
       </c>
       <c r="BB103" s="13">
-        <v>188901786</v>
+        <v>167895449</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -13738,65 +13738,65 @@
       <c r="AH104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ104" s="11">
+      <c r="AI104" s="11">
         <v>235750000</v>
       </c>
-      <c r="AK104" s="11" t="s">
-        <v>58</v>
+      <c r="AJ104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK104" s="11">
+        <v>308857143</v>
       </c>
       <c r="AL104" s="11">
-        <v>308857143</v>
+        <v>256250000</v>
       </c>
       <c r="AM104" s="11">
-        <v>256250000</v>
+        <v>274347826</v>
       </c>
       <c r="AN104" s="11">
-        <v>274347826</v>
+        <v>253250000</v>
       </c>
       <c r="AO104" s="11">
-        <v>253250000</v>
+        <v>264400000</v>
       </c>
       <c r="AP104" s="11">
-        <v>264400000</v>
+        <v>104181818</v>
       </c>
       <c r="AQ104" s="11">
-        <v>104181818</v>
+        <v>84000000</v>
       </c>
       <c r="AR104" s="11">
-        <v>84000000</v>
+        <v>326461538</v>
       </c>
       <c r="AS104" s="11">
-        <v>326461538</v>
+        <v>291521739</v>
       </c>
       <c r="AT104" s="11">
-        <v>291521739</v>
+        <v>286596774</v>
       </c>
       <c r="AU104" s="11">
-        <v>286596774</v>
-      </c>
-      <c r="AV104" s="11">
         <v>77000000</v>
       </c>
+      <c r="AV104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX104" s="11" t="s">
-        <v>58</v>
+      <c r="AX104" s="11">
+        <v>96000000</v>
       </c>
       <c r="AY104" s="11">
-        <v>96000000</v>
+        <v>54000000</v>
       </c>
       <c r="AZ104" s="11">
-        <v>54000000</v>
+        <v>220000000</v>
       </c>
       <c r="BA104" s="11">
-        <v>220000000</v>
+        <v>282000000</v>
       </c>
       <c r="BB104" s="11">
-        <v>282000000</v>
+        <v>317000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297C82D-CA28-4B71-9085-8C800DAFAA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7CFBBF-7A30-4DEC-AF0C-B6115FC6F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غزر-صنعتی زر ماکارون</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1525,95 +1525,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>731</v>
       </c>
       <c r="Z11" s="11">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="AA11" s="11">
-        <v>723</v>
+        <v>618</v>
       </c>
       <c r="AB11" s="11">
-        <v>618</v>
+        <v>1158</v>
       </c>
       <c r="AC11" s="11">
-        <v>1158</v>
+        <v>450</v>
       </c>
       <c r="AD11" s="11">
-        <v>450</v>
+        <v>298</v>
       </c>
       <c r="AE11" s="11">
-        <v>298</v>
+        <v>434</v>
       </c>
       <c r="AF11" s="11">
-        <v>434</v>
+        <v>679</v>
       </c>
       <c r="AG11" s="11">
-        <v>679</v>
+        <v>851</v>
       </c>
       <c r="AH11" s="11">
-        <v>851</v>
+        <v>300</v>
       </c>
       <c r="AI11" s="11">
-        <v>300</v>
+        <v>767</v>
       </c>
       <c r="AJ11" s="11">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="AK11" s="11">
-        <v>709</v>
+        <v>284</v>
       </c>
       <c r="AL11" s="11">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="AM11" s="11">
-        <v>181</v>
+        <v>570</v>
       </c>
       <c r="AN11" s="11">
-        <v>570</v>
+        <v>114</v>
       </c>
       <c r="AO11" s="11">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="AP11" s="11">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AQ11" s="11">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="AR11" s="11">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="AS11" s="11">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AT11" s="11">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="AU11" s="11">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="AV11" s="11">
-        <v>575</v>
+        <v>918</v>
       </c>
       <c r="AW11" s="11">
-        <v>918</v>
+        <v>747</v>
       </c>
       <c r="AX11" s="11">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="AY11" s="11">
-        <v>725</v>
+        <v>396</v>
       </c>
       <c r="AZ11" s="11">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="BA11" s="11">
-        <v>439</v>
+        <v>600</v>
       </c>
       <c r="BB11" s="11">
-        <v>600</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1684,95 +1684,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>11</v>
       </c>
       <c r="Z12" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="13">
         <v>12</v>
       </c>
       <c r="AB12" s="13">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>41</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="13">
         <v>12</v>
       </c>
-      <c r="AC12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>41</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="13">
+      <c r="AM12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AN12" s="13">
         <v>9</v>
       </c>
-      <c r="AK12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AM12" s="13">
+      <c r="AO12" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP12" s="13">
         <v>12</v>
       </c>
-      <c r="AN12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>9</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>13</v>
-      </c>
       <c r="AQ12" s="13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AR12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AS12" s="13">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AT12" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AU12" s="13">
         <v>3</v>
       </c>
       <c r="AV12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="13">
         <v>3</v>
       </c>
-      <c r="AW12" s="13">
-        <v>0</v>
-      </c>
       <c r="AX12" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="13">
         <v>2</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1843,95 +1843,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>16832</v>
       </c>
       <c r="Z13" s="11">
-        <v>16832</v>
+        <v>15223</v>
       </c>
       <c r="AA13" s="11">
-        <v>15223</v>
+        <v>14701</v>
       </c>
       <c r="AB13" s="11">
-        <v>14701</v>
+        <v>16461</v>
       </c>
       <c r="AC13" s="11">
-        <v>16461</v>
+        <v>20511</v>
       </c>
       <c r="AD13" s="11">
-        <v>20511</v>
+        <v>14290</v>
       </c>
       <c r="AE13" s="11">
-        <v>14290</v>
+        <v>13776</v>
       </c>
       <c r="AF13" s="11">
-        <v>13776</v>
+        <v>13012</v>
       </c>
       <c r="AG13" s="11">
-        <v>13012</v>
+        <v>15131</v>
       </c>
       <c r="AH13" s="11">
-        <v>15131</v>
+        <v>5265</v>
       </c>
       <c r="AI13" s="11">
-        <v>5265</v>
+        <v>13388</v>
       </c>
       <c r="AJ13" s="11">
-        <v>13388</v>
+        <v>19316</v>
       </c>
       <c r="AK13" s="11">
-        <v>19316</v>
+        <v>17826</v>
       </c>
       <c r="AL13" s="11">
-        <v>17826</v>
+        <v>18131</v>
       </c>
       <c r="AM13" s="11">
-        <v>18131</v>
+        <v>12233</v>
       </c>
       <c r="AN13" s="11">
-        <v>12233</v>
+        <v>11402</v>
       </c>
       <c r="AO13" s="11">
-        <v>11402</v>
+        <v>15418</v>
       </c>
       <c r="AP13" s="11">
-        <v>15418</v>
+        <v>12006</v>
       </c>
       <c r="AQ13" s="11">
-        <v>12006</v>
+        <v>12286</v>
       </c>
       <c r="AR13" s="11">
-        <v>12286</v>
+        <v>9342</v>
       </c>
       <c r="AS13" s="11">
-        <v>9342</v>
+        <v>10583</v>
       </c>
       <c r="AT13" s="11">
-        <v>10583</v>
+        <v>943</v>
       </c>
       <c r="AU13" s="11">
-        <v>943</v>
+        <v>11691</v>
       </c>
       <c r="AV13" s="11">
-        <v>11691</v>
+        <v>13437</v>
       </c>
       <c r="AW13" s="11">
-        <v>13437</v>
+        <v>7517</v>
       </c>
       <c r="AX13" s="11">
-        <v>7517</v>
+        <v>6414</v>
       </c>
       <c r="AY13" s="11">
-        <v>6414</v>
+        <v>6984</v>
       </c>
       <c r="AZ13" s="11">
-        <v>6984</v>
+        <v>5785</v>
       </c>
       <c r="BA13" s="11">
-        <v>5785</v>
+        <v>12055</v>
       </c>
       <c r="BB13" s="11">
-        <v>12055</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2002,95 +2002,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>3844</v>
       </c>
       <c r="Z14" s="13">
-        <v>3844</v>
+        <v>2602</v>
       </c>
       <c r="AA14" s="13">
-        <v>2602</v>
+        <v>3052</v>
       </c>
       <c r="AB14" s="13">
-        <v>3052</v>
+        <v>2912</v>
       </c>
       <c r="AC14" s="13">
-        <v>2912</v>
+        <v>4109</v>
       </c>
       <c r="AD14" s="13">
-        <v>4109</v>
+        <v>3265</v>
       </c>
       <c r="AE14" s="13">
-        <v>3265</v>
+        <v>3210</v>
       </c>
       <c r="AF14" s="13">
-        <v>3210</v>
+        <v>3268</v>
       </c>
       <c r="AG14" s="13">
-        <v>3268</v>
+        <v>3041</v>
       </c>
       <c r="AH14" s="13">
-        <v>3041</v>
+        <v>1139</v>
       </c>
       <c r="AI14" s="13">
-        <v>1139</v>
+        <v>2752</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2752</v>
+        <v>2340</v>
       </c>
       <c r="AK14" s="13">
-        <v>2340</v>
+        <v>2840</v>
       </c>
       <c r="AL14" s="13">
-        <v>2840</v>
+        <v>2910</v>
       </c>
       <c r="AM14" s="13">
-        <v>2910</v>
+        <v>3269</v>
       </c>
       <c r="AN14" s="13">
-        <v>3269</v>
+        <v>4102</v>
       </c>
       <c r="AO14" s="13">
-        <v>4102</v>
+        <v>3082</v>
       </c>
       <c r="AP14" s="13">
-        <v>3082</v>
+        <v>3793</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3793</v>
+        <v>2875</v>
       </c>
       <c r="AR14" s="13">
-        <v>2875</v>
+        <v>2964</v>
       </c>
       <c r="AS14" s="13">
-        <v>2964</v>
+        <v>3135</v>
       </c>
       <c r="AT14" s="13">
-        <v>3135</v>
+        <v>53</v>
       </c>
       <c r="AU14" s="13">
-        <v>53</v>
+        <v>2604</v>
       </c>
       <c r="AV14" s="13">
-        <v>2604</v>
+        <v>4234</v>
       </c>
       <c r="AW14" s="13">
-        <v>4234</v>
+        <v>2562</v>
       </c>
       <c r="AX14" s="13">
-        <v>2562</v>
+        <v>2111</v>
       </c>
       <c r="AY14" s="13">
-        <v>2111</v>
+        <v>2404</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2404</v>
+        <v>2003</v>
       </c>
       <c r="BA14" s="13">
-        <v>2003</v>
+        <v>1917</v>
       </c>
       <c r="BB14" s="13">
-        <v>1917</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2161,95 +2161,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>234</v>
       </c>
       <c r="Z15" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AA15" s="11">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AB15" s="11">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AC15" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AD15" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AE15" s="11">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AF15" s="11">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AG15" s="11">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AH15" s="11">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="AI15" s="11">
+        <v>217</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>205</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>197</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>211</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>224</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>201</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>169</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>127</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>156</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
         <v>118</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>217</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>205</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>200</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>197</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>211</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>224</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>201</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>127</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>156</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>0</v>
-      </c>
       <c r="AV15" s="11">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="AW15" s="11">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AX15" s="11">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="AY15" s="11">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AZ15" s="11">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="BA15" s="11">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="BB15" s="11">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2320,95 +2320,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>318</v>
       </c>
       <c r="Z16" s="13">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="AA16" s="13">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AB16" s="13">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AC16" s="13">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="AD16" s="13">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="AE16" s="13">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AF16" s="13">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AG16" s="13">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="AH16" s="13">
+        <v>133</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>327</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>127</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>165</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>179</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>151</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>226</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>232</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>230</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>109</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>178</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AX16" s="13">
         <v>68</v>
       </c>
-      <c r="AI16" s="13">
-        <v>133</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>327</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>146</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>127</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>186</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>165</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>179</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>151</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>226</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>232</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>230</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>109</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>178</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>186</v>
-      </c>
       <c r="AY16" s="13">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AZ16" s="13">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="BA16" s="13">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="BB16" s="13">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2479,95 +2479,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>196</v>
       </c>
       <c r="Z17" s="11">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="AA17" s="11">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AB17" s="11">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AC17" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AD17" s="11">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AE17" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF17" s="11">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AG17" s="11">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AH17" s="11">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="AI17" s="11">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AJ17" s="11">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="AK17" s="11">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="AL17" s="11">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AM17" s="11">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AN17" s="11">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="AO17" s="11">
+        <v>144</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>338</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>221</v>
+      </c>
+      <c r="AR17" s="11">
         <v>194</v>
       </c>
-      <c r="AP17" s="11">
-        <v>144</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>338</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>221</v>
-      </c>
       <c r="AS17" s="11">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AT17" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
         <v>0</v>
       </c>
       <c r="AV17" s="11">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AW17" s="11">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="AX17" s="11">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="AY17" s="11">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="AZ17" s="11">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="BA17" s="11">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="BB17" s="11">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2638,95 +2638,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>119</v>
       </c>
       <c r="Z18" s="13">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="AA18" s="13">
+        <v>46</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>86</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>141</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>116</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>40</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>38</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>82</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>84</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>29</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>17</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>44</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>49</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>66</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AX18" s="13">
         <v>50</v>
       </c>
-      <c r="AB18" s="13">
-        <v>46</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>86</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>25</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>61</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>141</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>116</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AK18" s="13">
+      <c r="AY18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AZ18" s="13">
         <v>40</v>
       </c>
-      <c r="AL18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>38</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>82</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>84</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>29</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>17</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>44</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>49</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>66</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>50</v>
-      </c>
-      <c r="AZ18" s="13">
+      <c r="BA18" s="13">
+        <v>8</v>
+      </c>
+      <c r="BB18" s="13">
         <v>23</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>40</v>
-      </c>
-      <c r="BB18" s="13">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2797,95 +2797,95 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AA19" s="11">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="AB19" s="11">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AC19" s="11">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="AD19" s="11">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="AE19" s="11">
-        <v>466</v>
+        <v>238</v>
       </c>
       <c r="AF19" s="11">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="AG19" s="11">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AH19" s="11">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="AI19" s="11">
-        <v>242</v>
+        <v>552</v>
       </c>
       <c r="AJ19" s="11">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="AK19" s="11">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="AL19" s="11">
+        <v>465</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>438</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>277</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>366</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>428</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>453</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>377</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>373</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>11</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>226</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>310</v>
+      </c>
+      <c r="AW19" s="11">
         <v>184</v>
       </c>
-      <c r="AM19" s="11">
-        <v>465</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>438</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>277</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>366</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>428</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>453</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>377</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>373</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>11</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>226</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>310</v>
-      </c>
       <c r="AX19" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AY19" s="11">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="AZ19" s="11">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="BA19" s="11">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="BB19" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2955,94 +2955,94 @@
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="Z20" s="15">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AA20" s="15">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AB20" s="15">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AC20" s="15">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AD20" s="15">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AE20" s="15">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AF20" s="15">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AG20" s="15">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AH20" s="15">
-        <v>20108</v>
+        <v>7346</v>
       </c>
       <c r="AI20" s="15">
-        <v>7346</v>
+        <v>18316</v>
       </c>
       <c r="AJ20" s="15">
-        <v>18316</v>
+        <v>23054</v>
       </c>
       <c r="AK20" s="15">
-        <v>23054</v>
+        <v>21705</v>
       </c>
       <c r="AL20" s="15">
-        <v>21705</v>
+        <v>22138</v>
       </c>
       <c r="AM20" s="15">
-        <v>22138</v>
+        <v>17288</v>
       </c>
       <c r="AN20" s="15">
-        <v>17288</v>
+        <v>16558</v>
       </c>
       <c r="AO20" s="15">
-        <v>16558</v>
+        <v>19743</v>
       </c>
       <c r="AP20" s="15">
-        <v>19743</v>
+        <v>17261</v>
       </c>
       <c r="AQ20" s="15">
-        <v>17261</v>
+        <v>16671</v>
       </c>
       <c r="AR20" s="15">
-        <v>16671</v>
+        <v>13788</v>
       </c>
       <c r="AS20" s="15">
-        <v>13788</v>
+        <v>15229</v>
       </c>
       <c r="AT20" s="15">
-        <v>15229</v>
+        <v>1163</v>
       </c>
       <c r="AU20" s="15">
-        <v>1163</v>
+        <v>15326</v>
       </c>
       <c r="AV20" s="15">
-        <v>15326</v>
+        <v>19559</v>
       </c>
       <c r="AW20" s="15">
-        <v>19559</v>
+        <v>11859</v>
       </c>
       <c r="AX20" s="15">
-        <v>11859</v>
+        <v>10097</v>
       </c>
       <c r="AY20" s="15">
-        <v>10097</v>
+        <v>10757</v>
       </c>
       <c r="AZ20" s="15">
-        <v>10757</v>
+        <v>9055</v>
       </c>
       <c r="BA20" s="15">
-        <v>9055</v>
+        <v>15247</v>
       </c>
       <c r="BB20" s="15">
-        <v>15247</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3197,14 +3197,14 @@
       <c r="AG22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="11" t="s">
-        <v>58</v>
+      <c r="AH22" s="11">
+        <v>0</v>
       </c>
       <c r="AI22" s="11">
         <v>0</v>
       </c>
-      <c r="AJ22" s="11">
-        <v>0</v>
+      <c r="AJ22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="11" t="s">
         <v>58</v>
@@ -3221,8 +3221,8 @@
       <c r="AO22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP22" s="11" t="s">
-        <v>58</v>
+      <c r="AP22" s="11">
+        <v>0</v>
       </c>
       <c r="AQ22" s="11">
         <v>0</v>
@@ -3356,68 +3356,68 @@
       <c r="AG23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH23" s="13" t="s">
-        <v>58</v>
+      <c r="AH23" s="13">
+        <v>1349</v>
       </c>
       <c r="AI23" s="13">
-        <v>1349</v>
+        <v>4198</v>
       </c>
       <c r="AJ23" s="13">
-        <v>4198</v>
+        <v>355</v>
       </c>
       <c r="AK23" s="13">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="AL23" s="13">
-        <v>524</v>
+        <v>1088</v>
       </c>
       <c r="AM23" s="13">
-        <v>1088</v>
+        <v>2991</v>
       </c>
       <c r="AN23" s="13">
-        <v>2991</v>
+        <v>797</v>
       </c>
       <c r="AO23" s="13">
-        <v>797</v>
+        <v>3403</v>
       </c>
       <c r="AP23" s="13">
-        <v>3403</v>
+        <v>5451</v>
       </c>
       <c r="AQ23" s="13">
-        <v>5451</v>
+        <v>2065</v>
       </c>
       <c r="AR23" s="13">
-        <v>2065</v>
+        <v>2035</v>
       </c>
       <c r="AS23" s="13">
-        <v>2035</v>
+        <v>4308</v>
       </c>
       <c r="AT23" s="13">
-        <v>4308</v>
+        <v>477</v>
       </c>
       <c r="AU23" s="13">
-        <v>477</v>
+        <v>969</v>
       </c>
       <c r="AV23" s="13">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="AW23" s="13">
-        <v>913</v>
+        <v>2068</v>
       </c>
       <c r="AX23" s="13">
-        <v>2068</v>
+        <v>181</v>
       </c>
       <c r="AY23" s="13">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="AZ23" s="13">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="BA23" s="13">
-        <v>429</v>
+        <v>1446</v>
       </c>
       <c r="BB23" s="13">
-        <v>1446</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3515,68 +3515,68 @@
       <c r="AG24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH24" s="11" t="s">
-        <v>58</v>
+      <c r="AH24" s="11">
+        <v>194</v>
       </c>
       <c r="AI24" s="11">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="AJ24" s="11">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AK24" s="11">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AL24" s="11">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="AM24" s="11">
-        <v>641</v>
+        <v>420</v>
       </c>
       <c r="AN24" s="11">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="AO24" s="11">
-        <v>304</v>
+        <v>982</v>
       </c>
       <c r="AP24" s="11">
-        <v>982</v>
+        <v>494</v>
       </c>
       <c r="AQ24" s="11">
-        <v>494</v>
+        <v>1338</v>
       </c>
       <c r="AR24" s="11">
-        <v>1338</v>
+        <v>771</v>
       </c>
       <c r="AS24" s="11">
-        <v>771</v>
+        <v>1063</v>
       </c>
       <c r="AT24" s="11">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="AU24" s="11">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW24" s="11">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="AX24" s="11">
-        <v>529</v>
+        <v>232</v>
       </c>
       <c r="AY24" s="11">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="AZ24" s="11">
-        <v>664</v>
+        <v>137</v>
       </c>
       <c r="BA24" s="11">
-        <v>137</v>
+        <v>2750</v>
       </c>
       <c r="BB24" s="11">
-        <v>2750</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3674,68 +3674,68 @@
       <c r="AG25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="13" t="s">
-        <v>58</v>
+      <c r="AH25" s="13">
+        <v>13</v>
       </c>
       <c r="AI25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>21</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN25" s="13">
         <v>13</v>
       </c>
-      <c r="AJ25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AK25" s="13">
+      <c r="AO25" s="13">
+        <v>12</v>
+      </c>
+      <c r="AP25" s="13">
+        <v>15</v>
+      </c>
+      <c r="AQ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="13">
+        <v>102</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>9</v>
+      </c>
+      <c r="AT25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="13">
+        <v>99</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>-79</v>
+      </c>
+      <c r="AX25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="13">
         <v>2</v>
       </c>
-      <c r="AL25" s="13">
-        <v>21</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>10</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>8</v>
-      </c>
-      <c r="AO25" s="13">
-        <v>13</v>
-      </c>
-      <c r="AP25" s="13">
+      <c r="BA25" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="13">
         <v>12</v>
-      </c>
-      <c r="AQ25" s="13">
-        <v>15</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>102</v>
-      </c>
-      <c r="AT25" s="13">
-        <v>9</v>
-      </c>
-      <c r="AU25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="13">
-        <v>99</v>
-      </c>
-      <c r="AX25" s="13">
-        <v>-79</v>
-      </c>
-      <c r="AY25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="13">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="13">
-        <v>2</v>
-      </c>
-      <c r="BB25" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3832,67 +3832,67 @@
         <v>0</v>
       </c>
       <c r="AH26" s="17">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="AI26" s="17">
-        <v>1556</v>
+        <v>4680</v>
       </c>
       <c r="AJ26" s="17">
-        <v>4680</v>
+        <v>839</v>
       </c>
       <c r="AK26" s="17">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="AL26" s="17">
-        <v>755</v>
+        <v>1739</v>
       </c>
       <c r="AM26" s="17">
-        <v>1739</v>
+        <v>3419</v>
       </c>
       <c r="AN26" s="17">
-        <v>3419</v>
+        <v>1114</v>
       </c>
       <c r="AO26" s="17">
-        <v>1114</v>
+        <v>4397</v>
       </c>
       <c r="AP26" s="17">
-        <v>4397</v>
+        <v>5960</v>
       </c>
       <c r="AQ26" s="17">
-        <v>5960</v>
+        <v>3403</v>
       </c>
       <c r="AR26" s="17">
-        <v>3403</v>
+        <v>2908</v>
       </c>
       <c r="AS26" s="17">
-        <v>2908</v>
+        <v>5380</v>
       </c>
       <c r="AT26" s="17">
-        <v>5380</v>
+        <v>707</v>
       </c>
       <c r="AU26" s="17">
-        <v>707</v>
+        <v>969</v>
       </c>
       <c r="AV26" s="17">
-        <v>969</v>
+        <v>1046</v>
       </c>
       <c r="AW26" s="17">
-        <v>1046</v>
+        <v>2518</v>
       </c>
       <c r="AX26" s="17">
-        <v>2518</v>
+        <v>413</v>
       </c>
       <c r="AY26" s="17">
-        <v>413</v>
+        <v>1108</v>
       </c>
       <c r="AZ26" s="17">
-        <v>1108</v>
+        <v>568</v>
       </c>
       <c r="BA26" s="17">
-        <v>568</v>
+        <v>4197</v>
       </c>
       <c r="BB26" s="17">
-        <v>4197</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4018,8 +4018,8 @@
       <c r="X28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="17" t="s">
-        <v>58</v>
+      <c r="Y28" s="17">
+        <v>0</v>
       </c>
       <c r="Z28" s="17">
         <v>0</v>
@@ -4176,94 +4176,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="Z29" s="15">
-        <v>22285</v>
+        <v>19154</v>
       </c>
       <c r="AA29" s="15">
-        <v>19154</v>
+        <v>19141</v>
       </c>
       <c r="AB29" s="15">
-        <v>19141</v>
+        <v>21411</v>
       </c>
       <c r="AC29" s="15">
-        <v>21411</v>
+        <v>25840</v>
       </c>
       <c r="AD29" s="15">
-        <v>25840</v>
+        <v>19052</v>
       </c>
       <c r="AE29" s="15">
-        <v>19052</v>
+        <v>18369</v>
       </c>
       <c r="AF29" s="15">
-        <v>18369</v>
+        <v>18065</v>
       </c>
       <c r="AG29" s="15">
-        <v>18065</v>
+        <v>20108</v>
       </c>
       <c r="AH29" s="15">
-        <v>20108</v>
+        <v>8902</v>
       </c>
       <c r="AI29" s="15">
-        <v>8902</v>
+        <v>22996</v>
       </c>
       <c r="AJ29" s="15">
-        <v>22996</v>
+        <v>23893</v>
       </c>
       <c r="AK29" s="15">
-        <v>23893</v>
+        <v>22460</v>
       </c>
       <c r="AL29" s="15">
-        <v>22460</v>
+        <v>23877</v>
       </c>
       <c r="AM29" s="15">
-        <v>23877</v>
+        <v>20707</v>
       </c>
       <c r="AN29" s="15">
-        <v>20707</v>
+        <v>17672</v>
       </c>
       <c r="AO29" s="15">
-        <v>17672</v>
+        <v>24140</v>
       </c>
       <c r="AP29" s="15">
-        <v>24140</v>
+        <v>23221</v>
       </c>
       <c r="AQ29" s="15">
-        <v>23221</v>
+        <v>20074</v>
       </c>
       <c r="AR29" s="15">
-        <v>20074</v>
+        <v>16696</v>
       </c>
       <c r="AS29" s="15">
-        <v>16696</v>
+        <v>20609</v>
       </c>
       <c r="AT29" s="15">
-        <v>20609</v>
+        <v>1870</v>
       </c>
       <c r="AU29" s="15">
-        <v>1870</v>
+        <v>16295</v>
       </c>
       <c r="AV29" s="15">
-        <v>16295</v>
+        <v>20605</v>
       </c>
       <c r="AW29" s="15">
-        <v>20605</v>
+        <v>14377</v>
       </c>
       <c r="AX29" s="15">
-        <v>14377</v>
+        <v>10510</v>
       </c>
       <c r="AY29" s="15">
-        <v>10510</v>
+        <v>11865</v>
       </c>
       <c r="AZ29" s="15">
-        <v>11865</v>
+        <v>9623</v>
       </c>
       <c r="BA29" s="15">
-        <v>9623</v>
+        <v>19444</v>
       </c>
       <c r="BB29" s="15">
-        <v>19444</v>
+        <v>13966</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4768,95 +4768,95 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>778</v>
       </c>
       <c r="Z36" s="11">
-        <v>778</v>
+        <v>579</v>
       </c>
       <c r="AA36" s="11">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="AB36" s="11">
-        <v>596</v>
+        <v>1031</v>
       </c>
       <c r="AC36" s="11">
-        <v>1031</v>
+        <v>491</v>
       </c>
       <c r="AD36" s="11">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="AE36" s="11">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="AF36" s="11">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="AG36" s="11">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="AH36" s="11">
-        <v>838</v>
+        <v>207</v>
       </c>
       <c r="AI36" s="11">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="AJ36" s="11">
-        <v>522</v>
+        <v>690</v>
       </c>
       <c r="AK36" s="11">
-        <v>690</v>
+        <v>544</v>
       </c>
       <c r="AL36" s="11">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="AM36" s="11">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="AN36" s="11">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="AO36" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AP36" s="11">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="AQ36" s="11">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="AR36" s="11">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="AS36" s="11">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="AT36" s="11">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="AU36" s="11">
-        <v>146</v>
+        <v>637</v>
       </c>
       <c r="AV36" s="11">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="AW36" s="11">
-        <v>833</v>
+        <v>885</v>
       </c>
       <c r="AX36" s="11">
-        <v>885</v>
+        <v>806</v>
       </c>
       <c r="AY36" s="11">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="AZ36" s="11">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="BA36" s="11">
-        <v>440</v>
+        <v>608</v>
       </c>
       <c r="BB36" s="11">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4927,38 +4927,38 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>7</v>
       </c>
       <c r="Z37" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="13">
         <v>7</v>
       </c>
-      <c r="AA37" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB37" s="13">
-        <v>8</v>
-      </c>
-      <c r="AC37" s="13">
+      <c r="AD37" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="13">
         <v>5</v>
       </c>
-      <c r="AD37" s="13">
-        <v>7</v>
-      </c>
-      <c r="AE37" s="13">
+      <c r="AF37" s="13">
         <v>6</v>
       </c>
-      <c r="AF37" s="13">
-        <v>5</v>
-      </c>
       <c r="AG37" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="13">
         <v>6</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>13</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>0</v>
       </c>
       <c r="AJ37" s="13">
         <v>6</v>
@@ -4967,31 +4967,31 @@
         <v>6</v>
       </c>
       <c r="AL37" s="13">
+        <v>7</v>
+      </c>
+      <c r="AM37" s="13">
         <v>6</v>
       </c>
-      <c r="AM37" s="13">
+      <c r="AN37" s="13">
         <v>7</v>
       </c>
-      <c r="AN37" s="13">
-        <v>6</v>
-      </c>
       <c r="AO37" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP37" s="13">
         <v>7</v>
       </c>
-      <c r="AP37" s="13">
-        <v>13</v>
-      </c>
       <c r="AQ37" s="13">
+        <v>8</v>
+      </c>
+      <c r="AR37" s="13">
         <v>7</v>
       </c>
-      <c r="AR37" s="13">
-        <v>8</v>
-      </c>
       <c r="AS37" s="13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AT37" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="13">
         <v>0</v>
@@ -5006,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="AY37" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ37" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="13">
         <v>0</v>
@@ -5086,95 +5086,95 @@
       <c r="X38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>58</v>
+      <c r="Y38" s="11">
+        <v>13264</v>
       </c>
       <c r="Z38" s="11">
-        <v>13264</v>
+        <v>13833</v>
       </c>
       <c r="AA38" s="11">
-        <v>13833</v>
+        <v>11275</v>
       </c>
       <c r="AB38" s="11">
-        <v>11275</v>
+        <v>16972</v>
       </c>
       <c r="AC38" s="11">
-        <v>16972</v>
+        <v>20277</v>
       </c>
       <c r="AD38" s="11">
-        <v>20277</v>
+        <v>9815</v>
       </c>
       <c r="AE38" s="11">
-        <v>9815</v>
+        <v>14661</v>
       </c>
       <c r="AF38" s="11">
-        <v>14661</v>
+        <v>12199</v>
       </c>
       <c r="AG38" s="11">
-        <v>12199</v>
+        <v>14504</v>
       </c>
       <c r="AH38" s="11">
-        <v>14504</v>
+        <v>6813</v>
       </c>
       <c r="AI38" s="11">
-        <v>6813</v>
+        <v>10423</v>
       </c>
       <c r="AJ38" s="11">
-        <v>10423</v>
+        <v>22437</v>
       </c>
       <c r="AK38" s="11">
-        <v>22437</v>
+        <v>19668</v>
       </c>
       <c r="AL38" s="11">
-        <v>19668</v>
+        <v>15370</v>
       </c>
       <c r="AM38" s="11">
-        <v>15370</v>
+        <v>12765</v>
       </c>
       <c r="AN38" s="11">
-        <v>12765</v>
+        <v>10898</v>
       </c>
       <c r="AO38" s="11">
-        <v>10898</v>
+        <v>13579</v>
       </c>
       <c r="AP38" s="11">
-        <v>13579</v>
+        <v>9928</v>
       </c>
       <c r="AQ38" s="11">
-        <v>9928</v>
+        <v>11979</v>
       </c>
       <c r="AR38" s="11">
-        <v>11979</v>
+        <v>9617</v>
       </c>
       <c r="AS38" s="11">
-        <v>9617</v>
+        <v>9553</v>
       </c>
       <c r="AT38" s="11">
-        <v>9553</v>
+        <v>1529</v>
       </c>
       <c r="AU38" s="11">
-        <v>1529</v>
+        <v>11211</v>
       </c>
       <c r="AV38" s="11">
-        <v>11211</v>
+        <v>13159</v>
       </c>
       <c r="AW38" s="11">
-        <v>13159</v>
+        <v>6587</v>
       </c>
       <c r="AX38" s="11">
-        <v>6587</v>
+        <v>5800</v>
       </c>
       <c r="AY38" s="11">
-        <v>5800</v>
+        <v>8431</v>
       </c>
       <c r="AZ38" s="11">
-        <v>8431</v>
+        <v>6359</v>
       </c>
       <c r="BA38" s="11">
-        <v>6359</v>
+        <v>10896</v>
       </c>
       <c r="BB38" s="11">
-        <v>10896</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5245,95 +5245,95 @@
       <c r="X39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
+      <c r="Y39" s="13">
+        <v>2868</v>
       </c>
       <c r="Z39" s="13">
-        <v>2868</v>
+        <v>2396</v>
       </c>
       <c r="AA39" s="13">
+        <v>2340</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>3056</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>4129</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>3129</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>3152</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>3085</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>3132</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>1415</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>2136</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>2727</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>3723</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>2745</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>3453</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>3586</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>3102</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>3229</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>3088</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>2626</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>2974</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>504</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>2423</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>4156</v>
+      </c>
+      <c r="AW39" s="13">
         <v>2396</v>
       </c>
-      <c r="AB39" s="13">
-        <v>2340</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>3056</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>4129</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>3129</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>3152</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>3085</v>
-      </c>
-      <c r="AH39" s="13">
-        <v>3132</v>
-      </c>
-      <c r="AI39" s="13">
-        <v>1415</v>
-      </c>
-      <c r="AJ39" s="13">
-        <v>2136</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>2727</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>3723</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>2745</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>3453</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>3586</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>3229</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>3088</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>2626</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>2974</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>504</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>2423</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>4156</v>
-      </c>
       <c r="AX39" s="13">
-        <v>2396</v>
+        <v>1966</v>
       </c>
       <c r="AY39" s="13">
-        <v>1966</v>
+        <v>2576</v>
       </c>
       <c r="AZ39" s="13">
-        <v>2576</v>
+        <v>2155</v>
       </c>
       <c r="BA39" s="13">
-        <v>2155</v>
+        <v>2250</v>
       </c>
       <c r="BB39" s="13">
-        <v>2250</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5404,95 +5404,95 @@
       <c r="X40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>58</v>
+      <c r="Y40" s="11">
+        <v>206</v>
       </c>
       <c r="Z40" s="11">
+        <v>196</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>192</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>208</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>170</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>199</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>192</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>188</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>204</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>101</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>170</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>159</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>254</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>184</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>178</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>184</v>
+      </c>
+      <c r="AO40" s="11">
         <v>206</v>
       </c>
-      <c r="AA40" s="11">
-        <v>196</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>192</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>208</v>
-      </c>
-      <c r="AD40" s="11">
-        <v>170</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>199</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>192</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>188</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>204</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>101</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>170</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>159</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>254</v>
-      </c>
-      <c r="AM40" s="11">
-        <v>184</v>
-      </c>
-      <c r="AN40" s="11">
-        <v>178</v>
-      </c>
-      <c r="AO40" s="11">
-        <v>184</v>
-      </c>
       <c r="AP40" s="11">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AQ40" s="11">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AR40" s="11">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="AS40" s="11">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AT40" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="AU40" s="11">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AV40" s="11">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="AW40" s="11">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="AX40" s="11">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AY40" s="11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AZ40" s="11">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="BA40" s="11">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BB40" s="11">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5563,95 +5563,95 @@
       <c r="X41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>58</v>
+      <c r="Y41" s="13">
+        <v>208</v>
       </c>
       <c r="Z41" s="13">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="AA41" s="13">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AB41" s="13">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AC41" s="13">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AD41" s="13">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="AE41" s="13">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="AF41" s="13">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AG41" s="13">
+        <v>121</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>105</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>239</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>120</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>180</v>
+      </c>
+      <c r="AL41" s="13">
+        <v>121</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>145</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>157</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>183</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>108</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>225</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>139</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>173</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>44</v>
+      </c>
+      <c r="AU41" s="13">
         <v>127</v>
       </c>
-      <c r="AH41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AI41" s="13">
-        <v>105</v>
-      </c>
-      <c r="AJ41" s="13">
-        <v>239</v>
-      </c>
-      <c r="AK41" s="13">
-        <v>120</v>
-      </c>
-      <c r="AL41" s="13">
-        <v>180</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>145</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>157</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>183</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>108</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>225</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>139</v>
-      </c>
-      <c r="AT41" s="13">
+      <c r="AV41" s="13">
+        <v>165</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>98</v>
+      </c>
+      <c r="AX41" s="13">
+        <v>92</v>
+      </c>
+      <c r="AY41" s="13">
+        <v>101</v>
+      </c>
+      <c r="AZ41" s="13">
+        <v>100</v>
+      </c>
+      <c r="BA41" s="13">
+        <v>159</v>
+      </c>
+      <c r="BB41" s="13">
         <v>173</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>44</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>127</v>
-      </c>
-      <c r="AW41" s="13">
-        <v>165</v>
-      </c>
-      <c r="AX41" s="13">
-        <v>98</v>
-      </c>
-      <c r="AY41" s="13">
-        <v>92</v>
-      </c>
-      <c r="AZ41" s="13">
-        <v>101</v>
-      </c>
-      <c r="BA41" s="13">
-        <v>100</v>
-      </c>
-      <c r="BB41" s="13">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5722,95 +5722,95 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>117</v>
       </c>
       <c r="Z42" s="11">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="AA42" s="11">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AB42" s="11">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AC42" s="11">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AD42" s="11">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="AE42" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AF42" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG42" s="11">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AH42" s="11">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="AI42" s="11">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="AJ42" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AK42" s="11">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="AL42" s="11">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="AM42" s="11">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="AN42" s="11">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="AO42" s="11">
+        <v>152</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>268</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>218</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>253</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>172</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>45</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="11">
         <v>210</v>
       </c>
-      <c r="AP42" s="11">
-        <v>152</v>
-      </c>
-      <c r="AQ42" s="11">
-        <v>268</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>218</v>
-      </c>
-      <c r="AS42" s="11">
-        <v>253</v>
-      </c>
-      <c r="AT42" s="11">
-        <v>172</v>
-      </c>
-      <c r="AU42" s="11">
-        <v>45</v>
-      </c>
-      <c r="AV42" s="11">
-        <v>0</v>
-      </c>
       <c r="AW42" s="11">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="AX42" s="11">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="AY42" s="11">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AZ42" s="11">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="BA42" s="11">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="BB42" s="11">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5881,95 +5881,95 @@
       <c r="X43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="13" t="s">
-        <v>58</v>
+      <c r="Y43" s="13">
+        <v>33</v>
       </c>
       <c r="Z43" s="13">
+        <v>21</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>13</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>91</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>54</v>
+      </c>
+      <c r="AD43" s="13">
+        <v>83</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>82</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>117</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>119</v>
+      </c>
+      <c r="AH43" s="13">
+        <v>53</v>
+      </c>
+      <c r="AI43" s="13">
+        <v>68</v>
+      </c>
+      <c r="AJ43" s="13">
+        <v>58</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>110</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>22</v>
+      </c>
+      <c r="AM43" s="13">
+        <v>87</v>
+      </c>
+      <c r="AN43" s="13">
+        <v>76</v>
+      </c>
+      <c r="AO43" s="13">
+        <v>46</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>19</v>
+      </c>
+      <c r="AQ43" s="13">
+        <v>40</v>
+      </c>
+      <c r="AR43" s="13">
+        <v>32</v>
+      </c>
+      <c r="AS43" s="13">
+        <v>51</v>
+      </c>
+      <c r="AT43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="13">
+        <v>58</v>
+      </c>
+      <c r="AW43" s="13">
+        <v>60</v>
+      </c>
+      <c r="AX43" s="13">
+        <v>27</v>
+      </c>
+      <c r="AY43" s="13">
+        <v>41</v>
+      </c>
+      <c r="AZ43" s="13">
+        <v>26</v>
+      </c>
+      <c r="BA43" s="13">
+        <v>30</v>
+      </c>
+      <c r="BB43" s="13">
         <v>33</v>
-      </c>
-      <c r="AA43" s="13">
-        <v>21</v>
-      </c>
-      <c r="AB43" s="13">
-        <v>13</v>
-      </c>
-      <c r="AC43" s="13">
-        <v>91</v>
-      </c>
-      <c r="AD43" s="13">
-        <v>54</v>
-      </c>
-      <c r="AE43" s="13">
-        <v>83</v>
-      </c>
-      <c r="AF43" s="13">
-        <v>82</v>
-      </c>
-      <c r="AG43" s="13">
-        <v>117</v>
-      </c>
-      <c r="AH43" s="13">
-        <v>119</v>
-      </c>
-      <c r="AI43" s="13">
-        <v>53</v>
-      </c>
-      <c r="AJ43" s="13">
-        <v>68</v>
-      </c>
-      <c r="AK43" s="13">
-        <v>58</v>
-      </c>
-      <c r="AL43" s="13">
-        <v>110</v>
-      </c>
-      <c r="AM43" s="13">
-        <v>22</v>
-      </c>
-      <c r="AN43" s="13">
-        <v>87</v>
-      </c>
-      <c r="AO43" s="13">
-        <v>76</v>
-      </c>
-      <c r="AP43" s="13">
-        <v>46</v>
-      </c>
-      <c r="AQ43" s="13">
-        <v>19</v>
-      </c>
-      <c r="AR43" s="13">
-        <v>40</v>
-      </c>
-      <c r="AS43" s="13">
-        <v>32</v>
-      </c>
-      <c r="AT43" s="13">
-        <v>51</v>
-      </c>
-      <c r="AU43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="13">
-        <v>1</v>
-      </c>
-      <c r="AW43" s="13">
-        <v>58</v>
-      </c>
-      <c r="AX43" s="13">
-        <v>60</v>
-      </c>
-      <c r="AY43" s="13">
-        <v>27</v>
-      </c>
-      <c r="AZ43" s="13">
-        <v>41</v>
-      </c>
-      <c r="BA43" s="13">
-        <v>26</v>
-      </c>
-      <c r="BB43" s="13">
-        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6040,95 +6040,95 @@
       <c r="X44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="Y44" s="11">
+        <v>49</v>
       </c>
       <c r="Z44" s="11">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="AA44" s="11">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AB44" s="11">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="AC44" s="11">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AD44" s="11">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="AE44" s="11">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="AF44" s="11">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AG44" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH44" s="11">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="AI44" s="11">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="AJ44" s="11">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="AK44" s="11">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AL44" s="11">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AM44" s="11">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="AN44" s="11">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="AO44" s="11">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="AP44" s="11">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AQ44" s="11">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="AR44" s="11">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AS44" s="11">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AT44" s="11">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AU44" s="11">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AV44" s="11">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="AW44" s="11">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="AX44" s="11">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="AY44" s="11">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AZ44" s="11">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="BA44" s="11">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="BB44" s="11">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6198,94 +6198,94 @@
         <v>0</v>
       </c>
       <c r="Y45" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="Z45" s="15">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AA45" s="15">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AB45" s="15">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AC45" s="15">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AD45" s="15">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AE45" s="15">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AF45" s="15">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AG45" s="15">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AH45" s="15">
-        <v>19462</v>
+        <v>9187</v>
       </c>
       <c r="AI45" s="15">
-        <v>9187</v>
+        <v>14124</v>
       </c>
       <c r="AJ45" s="15">
-        <v>14124</v>
+        <v>26578</v>
       </c>
       <c r="AK45" s="15">
-        <v>26578</v>
+        <v>25026</v>
       </c>
       <c r="AL45" s="15">
-        <v>25026</v>
+        <v>19083</v>
       </c>
       <c r="AM45" s="15">
-        <v>19083</v>
+        <v>17394</v>
       </c>
       <c r="AN45" s="15">
-        <v>17394</v>
+        <v>15593</v>
       </c>
       <c r="AO45" s="15">
-        <v>15593</v>
+        <v>17790</v>
       </c>
       <c r="AP45" s="15">
-        <v>17790</v>
+        <v>14436</v>
       </c>
       <c r="AQ45" s="15">
-        <v>14436</v>
+        <v>16605</v>
       </c>
       <c r="AR45" s="15">
-        <v>16605</v>
+        <v>13529</v>
       </c>
       <c r="AS45" s="15">
-        <v>13529</v>
+        <v>13877</v>
       </c>
       <c r="AT45" s="15">
-        <v>13877</v>
+        <v>2306</v>
       </c>
       <c r="AU45" s="15">
-        <v>2306</v>
+        <v>14687</v>
       </c>
       <c r="AV45" s="15">
+        <v>19027</v>
+      </c>
+      <c r="AW45" s="15">
+        <v>10756</v>
+      </c>
+      <c r="AX45" s="15">
+        <v>9344</v>
+      </c>
+      <c r="AY45" s="15">
+        <v>12320</v>
+      </c>
+      <c r="AZ45" s="15">
+        <v>9714</v>
+      </c>
+      <c r="BA45" s="15">
         <v>14687</v>
       </c>
-      <c r="AW45" s="15">
-        <v>19027</v>
-      </c>
-      <c r="AX45" s="15">
-        <v>10756</v>
-      </c>
-      <c r="AY45" s="15">
-        <v>9344</v>
-      </c>
-      <c r="AZ45" s="15">
-        <v>12320</v>
-      </c>
-      <c r="BA45" s="15">
-        <v>9714</v>
-      </c>
       <c r="BB45" s="15">
-        <v>14687</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6440,14 +6440,14 @@
       <c r="AG47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH47" s="11" t="s">
-        <v>58</v>
+      <c r="AH47" s="11">
+        <v>0</v>
       </c>
       <c r="AI47" s="11">
         <v>0</v>
       </c>
-      <c r="AJ47" s="11">
-        <v>0</v>
+      <c r="AJ47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK47" s="11" t="s">
         <v>58</v>
@@ -6464,8 +6464,8 @@
       <c r="AO47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP47" s="11" t="s">
-        <v>58</v>
+      <c r="AP47" s="11">
+        <v>0</v>
       </c>
       <c r="AQ47" s="11">
         <v>0</v>
@@ -6599,68 +6599,68 @@
       <c r="AG48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>58</v>
+      <c r="AH48" s="13">
+        <v>1187</v>
       </c>
       <c r="AI48" s="13">
-        <v>1187</v>
+        <v>3233</v>
       </c>
       <c r="AJ48" s="13">
-        <v>3233</v>
+        <v>225</v>
       </c>
       <c r="AK48" s="13">
-        <v>225</v>
+        <v>686</v>
       </c>
       <c r="AL48" s="13">
-        <v>686</v>
+        <v>1017</v>
       </c>
       <c r="AM48" s="13">
-        <v>1017</v>
+        <v>2907</v>
       </c>
       <c r="AN48" s="13">
-        <v>2907</v>
+        <v>886</v>
       </c>
       <c r="AO48" s="13">
-        <v>886</v>
+        <v>3204</v>
       </c>
       <c r="AP48" s="13">
-        <v>3204</v>
+        <v>5547</v>
       </c>
       <c r="AQ48" s="13">
-        <v>5547</v>
+        <v>1891</v>
       </c>
       <c r="AR48" s="13">
-        <v>1891</v>
+        <v>2328</v>
       </c>
       <c r="AS48" s="13">
-        <v>2328</v>
+        <v>4146</v>
       </c>
       <c r="AT48" s="13">
-        <v>4146</v>
+        <v>585</v>
       </c>
       <c r="AU48" s="13">
-        <v>585</v>
+        <v>1002</v>
       </c>
       <c r="AV48" s="13">
-        <v>1002</v>
+        <v>790</v>
       </c>
       <c r="AW48" s="13">
-        <v>790</v>
+        <v>2190</v>
       </c>
       <c r="AX48" s="13">
-        <v>2190</v>
+        <v>152</v>
       </c>
       <c r="AY48" s="13">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="AZ48" s="13">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="BA48" s="13">
-        <v>327</v>
+        <v>1521</v>
       </c>
       <c r="BB48" s="13">
-        <v>1521</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6758,68 +6758,68 @@
       <c r="AG49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH49" s="11" t="s">
-        <v>58</v>
+      <c r="AH49" s="11">
+        <v>186</v>
       </c>
       <c r="AI49" s="11">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AJ49" s="11">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK49" s="11">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="AL49" s="11">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="AM49" s="11">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AN49" s="11">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AO49" s="11">
-        <v>315</v>
+        <v>903</v>
       </c>
       <c r="AP49" s="11">
-        <v>903</v>
+        <v>605</v>
       </c>
       <c r="AQ49" s="11">
-        <v>605</v>
+        <v>1224</v>
       </c>
       <c r="AR49" s="11">
-        <v>1224</v>
+        <v>763</v>
       </c>
       <c r="AS49" s="11">
-        <v>763</v>
+        <v>1199</v>
       </c>
       <c r="AT49" s="11">
-        <v>1199</v>
+        <v>242</v>
       </c>
       <c r="AU49" s="11">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AW49" s="11">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="AX49" s="11">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="AY49" s="11">
-        <v>368</v>
+        <v>661</v>
       </c>
       <c r="AZ49" s="11">
-        <v>661</v>
+        <v>112</v>
       </c>
       <c r="BA49" s="11">
-        <v>112</v>
+        <v>2659</v>
       </c>
       <c r="BB49" s="11">
-        <v>2659</v>
+        <v>986</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6917,56 +6917,56 @@
       <c r="AG50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH50" s="13" t="s">
-        <v>58</v>
+      <c r="AH50" s="13">
+        <v>4</v>
       </c>
       <c r="AI50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="13">
+        <v>14</v>
+      </c>
+      <c r="AK50" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL50" s="13">
+        <v>23</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN50" s="13">
+        <v>15</v>
+      </c>
+      <c r="AO50" s="13">
+        <v>11</v>
+      </c>
+      <c r="AP50" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="13">
+        <v>13</v>
+      </c>
+      <c r="AR50" s="13">
+        <v>46</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>62</v>
+      </c>
+      <c r="AT50" s="13">
         <v>4</v>
       </c>
-      <c r="AJ50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="13">
-        <v>14</v>
-      </c>
-      <c r="AL50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM50" s="13">
-        <v>23</v>
-      </c>
-      <c r="AN50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AO50" s="13">
-        <v>15</v>
-      </c>
-      <c r="AP50" s="13">
-        <v>11</v>
-      </c>
-      <c r="AQ50" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR50" s="13">
-        <v>13</v>
-      </c>
-      <c r="AS50" s="13">
-        <v>46</v>
-      </c>
-      <c r="AT50" s="13">
-        <v>62</v>
-      </c>
       <c r="AU50" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="13">
         <v>0</v>
       </c>
       <c r="AW50" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX50" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="13">
         <v>1</v>
@@ -6975,10 +6975,10 @@
         <v>1</v>
       </c>
       <c r="BA50" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB50" s="13">
         <v>1</v>
-      </c>
-      <c r="BB50" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7075,67 +7075,67 @@
         <v>0</v>
       </c>
       <c r="AH51" s="17">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="AI51" s="17">
-        <v>1377</v>
+        <v>3646</v>
       </c>
       <c r="AJ51" s="17">
-        <v>3646</v>
+        <v>654</v>
       </c>
       <c r="AK51" s="17">
-        <v>654</v>
+        <v>1019</v>
       </c>
       <c r="AL51" s="17">
-        <v>1019</v>
+        <v>1517</v>
       </c>
       <c r="AM51" s="17">
-        <v>1517</v>
+        <v>3408</v>
       </c>
       <c r="AN51" s="17">
-        <v>3408</v>
+        <v>1216</v>
       </c>
       <c r="AO51" s="17">
-        <v>1216</v>
+        <v>4118</v>
       </c>
       <c r="AP51" s="17">
-        <v>4118</v>
+        <v>6154</v>
       </c>
       <c r="AQ51" s="17">
-        <v>6154</v>
+        <v>3128</v>
       </c>
       <c r="AR51" s="17">
-        <v>3128</v>
+        <v>3137</v>
       </c>
       <c r="AS51" s="17">
-        <v>3137</v>
+        <v>5407</v>
       </c>
       <c r="AT51" s="17">
-        <v>5407</v>
+        <v>831</v>
       </c>
       <c r="AU51" s="17">
-        <v>831</v>
+        <v>1002</v>
       </c>
       <c r="AV51" s="17">
-        <v>1002</v>
+        <v>943</v>
       </c>
       <c r="AW51" s="17">
-        <v>943</v>
+        <v>2476</v>
       </c>
       <c r="AX51" s="17">
-        <v>2476</v>
+        <v>521</v>
       </c>
       <c r="AY51" s="17">
-        <v>521</v>
+        <v>1111</v>
       </c>
       <c r="AZ51" s="17">
-        <v>1111</v>
+        <v>440</v>
       </c>
       <c r="BA51" s="17">
-        <v>440</v>
+        <v>4182</v>
       </c>
       <c r="BB51" s="17">
-        <v>4182</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7261,8 +7261,8 @@
       <c r="X53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="17" t="s">
-        <v>58</v>
+      <c r="Y53" s="17">
+        <v>0</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
@@ -7475,8 +7475,8 @@
       <c r="X55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="17" t="s">
-        <v>58</v>
+      <c r="Y55" s="17">
+        <v>0</v>
       </c>
       <c r="Z55" s="17">
         <v>0</v>
@@ -7633,94 +7633,94 @@
         <v>0</v>
       </c>
       <c r="Y56" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="Z56" s="15">
-        <v>17530</v>
+        <v>17307</v>
       </c>
       <c r="AA56" s="15">
-        <v>17307</v>
+        <v>14710</v>
       </c>
       <c r="AB56" s="15">
-        <v>14710</v>
+        <v>21890</v>
       </c>
       <c r="AC56" s="15">
-        <v>21890</v>
+        <v>25621</v>
       </c>
       <c r="AD56" s="15">
-        <v>25621</v>
+        <v>14367</v>
       </c>
       <c r="AE56" s="15">
-        <v>14367</v>
+        <v>19272</v>
       </c>
       <c r="AF56" s="15">
-        <v>19272</v>
+        <v>16847</v>
       </c>
       <c r="AG56" s="15">
-        <v>16847</v>
+        <v>19462</v>
       </c>
       <c r="AH56" s="15">
-        <v>19462</v>
+        <v>10564</v>
       </c>
       <c r="AI56" s="15">
-        <v>10564</v>
+        <v>17770</v>
       </c>
       <c r="AJ56" s="15">
-        <v>17770</v>
+        <v>27232</v>
       </c>
       <c r="AK56" s="15">
-        <v>27232</v>
+        <v>26045</v>
       </c>
       <c r="AL56" s="15">
-        <v>26045</v>
+        <v>20600</v>
       </c>
       <c r="AM56" s="15">
-        <v>20600</v>
+        <v>20802</v>
       </c>
       <c r="AN56" s="15">
-        <v>20802</v>
+        <v>16809</v>
       </c>
       <c r="AO56" s="15">
-        <v>16809</v>
+        <v>21908</v>
       </c>
       <c r="AP56" s="15">
-        <v>21908</v>
+        <v>20590</v>
       </c>
       <c r="AQ56" s="15">
-        <v>20590</v>
+        <v>19733</v>
       </c>
       <c r="AR56" s="15">
-        <v>19733</v>
+        <v>16666</v>
       </c>
       <c r="AS56" s="15">
-        <v>16666</v>
+        <v>19284</v>
       </c>
       <c r="AT56" s="15">
-        <v>19284</v>
+        <v>3137</v>
       </c>
       <c r="AU56" s="15">
-        <v>3137</v>
+        <v>15689</v>
       </c>
       <c r="AV56" s="15">
-        <v>15689</v>
+        <v>19970</v>
       </c>
       <c r="AW56" s="15">
-        <v>19970</v>
+        <v>13232</v>
       </c>
       <c r="AX56" s="15">
-        <v>13232</v>
+        <v>9865</v>
       </c>
       <c r="AY56" s="15">
-        <v>9865</v>
+        <v>13431</v>
       </c>
       <c r="AZ56" s="15">
-        <v>13431</v>
+        <v>10154</v>
       </c>
       <c r="BA56" s="15">
-        <v>10154</v>
+        <v>18869</v>
       </c>
       <c r="BB56" s="15">
-        <v>18869</v>
+        <v>14988</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8225,95 +8225,95 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>108663</v>
       </c>
       <c r="Z63" s="11">
-        <v>108663</v>
+        <v>94348</v>
       </c>
       <c r="AA63" s="11">
-        <v>94348</v>
+        <v>107444</v>
       </c>
       <c r="AB63" s="11">
-        <v>107444</v>
+        <v>190049</v>
       </c>
       <c r="AC63" s="11">
-        <v>190049</v>
+        <v>134759</v>
       </c>
       <c r="AD63" s="11">
-        <v>134759</v>
+        <v>137151</v>
       </c>
       <c r="AE63" s="11">
-        <v>137151</v>
+        <v>191996</v>
       </c>
       <c r="AF63" s="11">
-        <v>191996</v>
+        <v>246892</v>
       </c>
       <c r="AG63" s="11">
-        <v>246892</v>
+        <v>373913</v>
       </c>
       <c r="AH63" s="11">
-        <v>373913</v>
+        <v>98738</v>
       </c>
       <c r="AI63" s="11">
-        <v>98738</v>
+        <v>279757</v>
       </c>
       <c r="AJ63" s="11">
-        <v>279757</v>
+        <v>356211</v>
       </c>
       <c r="AK63" s="11">
-        <v>356211</v>
+        <v>296506</v>
       </c>
       <c r="AL63" s="11">
-        <v>296506</v>
+        <v>116349</v>
       </c>
       <c r="AM63" s="11">
-        <v>116349</v>
+        <v>58505</v>
       </c>
       <c r="AN63" s="11">
-        <v>58505</v>
+        <v>103229</v>
       </c>
       <c r="AO63" s="11">
-        <v>103229</v>
+        <v>100868</v>
       </c>
       <c r="AP63" s="11">
-        <v>100868</v>
+        <v>101907</v>
       </c>
       <c r="AQ63" s="11">
-        <v>101907</v>
+        <v>149477</v>
       </c>
       <c r="AR63" s="11">
-        <v>149477</v>
+        <v>121351</v>
       </c>
       <c r="AS63" s="11">
-        <v>121351</v>
+        <v>154285</v>
       </c>
       <c r="AT63" s="11">
-        <v>154285</v>
+        <v>71739</v>
       </c>
       <c r="AU63" s="11">
-        <v>71739</v>
+        <v>182398</v>
       </c>
       <c r="AV63" s="11">
-        <v>182398</v>
+        <v>388392</v>
       </c>
       <c r="AW63" s="11">
-        <v>388392</v>
+        <v>438788</v>
       </c>
       <c r="AX63" s="11">
-        <v>438788</v>
+        <v>465754</v>
       </c>
       <c r="AY63" s="11">
-        <v>465754</v>
+        <v>249163</v>
       </c>
       <c r="AZ63" s="11">
-        <v>249163</v>
+        <v>254591</v>
       </c>
       <c r="BA63" s="11">
-        <v>254591</v>
+        <v>358699</v>
       </c>
       <c r="BB63" s="11">
-        <v>358699</v>
+        <v>325998</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8384,95 +8384,95 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>1111</v>
       </c>
       <c r="Z64" s="13">
-        <v>1111</v>
+        <v>483</v>
       </c>
       <c r="AA64" s="13">
-        <v>483</v>
+        <v>961</v>
       </c>
       <c r="AB64" s="13">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="AC64" s="13">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="AD64" s="13">
-        <v>807</v>
+        <v>986</v>
       </c>
       <c r="AE64" s="13">
-        <v>986</v>
+        <v>753</v>
       </c>
       <c r="AF64" s="13">
-        <v>753</v>
+        <v>621</v>
       </c>
       <c r="AG64" s="13">
-        <v>621</v>
+        <v>1690</v>
       </c>
       <c r="AH64" s="13">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="AJ64" s="13">
-        <v>1010</v>
+        <v>805</v>
       </c>
       <c r="AK64" s="13">
-        <v>805</v>
+        <v>672</v>
       </c>
       <c r="AL64" s="13">
-        <v>672</v>
+        <v>893</v>
       </c>
       <c r="AM64" s="13">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="AN64" s="13">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AO64" s="13">
-        <v>829</v>
+        <v>1694</v>
       </c>
       <c r="AP64" s="13">
-        <v>1694</v>
+        <v>926</v>
       </c>
       <c r="AQ64" s="13">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="AR64" s="13">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="AS64" s="13">
-        <v>1009</v>
+        <v>2247</v>
       </c>
       <c r="AT64" s="13">
-        <v>2247</v>
+        <v>17</v>
       </c>
       <c r="AU64" s="13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AV64" s="13">
+        <v>44</v>
+      </c>
+      <c r="AW64" s="13">
         <v>2</v>
-      </c>
-      <c r="AW64" s="13">
-        <v>44</v>
       </c>
       <c r="AX64" s="13">
         <v>2</v>
       </c>
       <c r="AY64" s="13">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="AZ64" s="13">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="BA64" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB64" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8543,95 +8543,95 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>1007923</v>
       </c>
       <c r="Z65" s="11">
-        <v>1007923</v>
+        <v>1019172</v>
       </c>
       <c r="AA65" s="11">
-        <v>1019172</v>
+        <v>854376</v>
       </c>
       <c r="AB65" s="11">
-        <v>854376</v>
+        <v>1293664</v>
       </c>
       <c r="AC65" s="11">
-        <v>1293664</v>
+        <v>1656363</v>
       </c>
       <c r="AD65" s="11">
-        <v>1656363</v>
+        <v>835325</v>
       </c>
       <c r="AE65" s="11">
-        <v>835325</v>
+        <v>1285037</v>
       </c>
       <c r="AF65" s="11">
-        <v>1285037</v>
+        <v>984172</v>
       </c>
       <c r="AG65" s="11">
-        <v>984172</v>
+        <v>1222339</v>
       </c>
       <c r="AH65" s="11">
-        <v>1222339</v>
+        <v>566003</v>
       </c>
       <c r="AI65" s="11">
-        <v>566003</v>
+        <v>888768</v>
       </c>
       <c r="AJ65" s="11">
-        <v>888768</v>
+        <v>1980433</v>
       </c>
       <c r="AK65" s="11">
-        <v>1980433</v>
+        <v>1563890</v>
       </c>
       <c r="AL65" s="11">
-        <v>1563890</v>
+        <v>1208470</v>
       </c>
       <c r="AM65" s="11">
-        <v>1208470</v>
+        <v>996961</v>
       </c>
       <c r="AN65" s="11">
-        <v>996961</v>
+        <v>838674</v>
       </c>
       <c r="AO65" s="11">
-        <v>838674</v>
+        <v>1027046</v>
       </c>
       <c r="AP65" s="11">
-        <v>1027046</v>
+        <v>758393</v>
       </c>
       <c r="AQ65" s="11">
-        <v>758393</v>
+        <v>913473</v>
       </c>
       <c r="AR65" s="11">
-        <v>913473</v>
+        <v>764171</v>
       </c>
       <c r="AS65" s="11">
-        <v>764171</v>
+        <v>788459</v>
       </c>
       <c r="AT65" s="11">
-        <v>788459</v>
+        <v>142009</v>
       </c>
       <c r="AU65" s="11">
-        <v>142009</v>
+        <v>2786230</v>
       </c>
       <c r="AV65" s="11">
-        <v>2786230</v>
+        <v>3315731</v>
       </c>
       <c r="AW65" s="11">
-        <v>3315731</v>
+        <v>1663541</v>
       </c>
       <c r="AX65" s="11">
-        <v>1663541</v>
+        <v>1465062</v>
       </c>
       <c r="AY65" s="11">
-        <v>1465062</v>
+        <v>2114315</v>
       </c>
       <c r="AZ65" s="11">
-        <v>2114315</v>
+        <v>1583838</v>
       </c>
       <c r="BA65" s="11">
-        <v>1583838</v>
+        <v>2708027</v>
       </c>
       <c r="BB65" s="11">
-        <v>2708027</v>
+        <v>2106694</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8702,95 +8702,95 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>265065</v>
       </c>
       <c r="Z66" s="13">
-        <v>265065</v>
+        <v>220836</v>
       </c>
       <c r="AA66" s="13">
-        <v>220836</v>
+        <v>216962</v>
       </c>
       <c r="AB66" s="13">
-        <v>216962</v>
+        <v>292803</v>
       </c>
       <c r="AC66" s="13">
-        <v>292803</v>
+        <v>398130</v>
       </c>
       <c r="AD66" s="13">
-        <v>398130</v>
+        <v>314937</v>
       </c>
       <c r="AE66" s="13">
-        <v>314937</v>
+        <v>332294</v>
       </c>
       <c r="AF66" s="13">
-        <v>332294</v>
+        <v>307799</v>
       </c>
       <c r="AG66" s="13">
-        <v>307799</v>
+        <v>322048</v>
       </c>
       <c r="AH66" s="13">
-        <v>322048</v>
+        <v>149373</v>
       </c>
       <c r="AI66" s="13">
-        <v>149373</v>
+        <v>229490</v>
       </c>
       <c r="AJ66" s="13">
-        <v>229490</v>
+        <v>282099</v>
       </c>
       <c r="AK66" s="13">
-        <v>282099</v>
+        <v>377989</v>
       </c>
       <c r="AL66" s="13">
-        <v>377989</v>
+        <v>282479</v>
       </c>
       <c r="AM66" s="13">
-        <v>282479</v>
+        <v>342298</v>
       </c>
       <c r="AN66" s="13">
-        <v>342298</v>
+        <v>361616</v>
       </c>
       <c r="AO66" s="13">
-        <v>361616</v>
+        <v>317010</v>
       </c>
       <c r="AP66" s="13">
-        <v>317010</v>
+        <v>320709</v>
       </c>
       <c r="AQ66" s="13">
-        <v>320709</v>
+        <v>305179</v>
       </c>
       <c r="AR66" s="13">
-        <v>305179</v>
+        <v>276534</v>
       </c>
       <c r="AS66" s="13">
-        <v>276534</v>
+        <v>318270</v>
       </c>
       <c r="AT66" s="13">
-        <v>318270</v>
+        <v>57179</v>
       </c>
       <c r="AU66" s="13">
-        <v>57179</v>
+        <v>743627</v>
       </c>
       <c r="AV66" s="13">
-        <v>743627</v>
+        <v>1302328</v>
       </c>
       <c r="AW66" s="13">
-        <v>1302328</v>
+        <v>781302</v>
       </c>
       <c r="AX66" s="13">
-        <v>781302</v>
+        <v>629672</v>
       </c>
       <c r="AY66" s="13">
-        <v>629672</v>
+        <v>817617</v>
       </c>
       <c r="AZ66" s="13">
-        <v>817617</v>
+        <v>675159</v>
       </c>
       <c r="BA66" s="13">
-        <v>675159</v>
+        <v>715479</v>
       </c>
       <c r="BB66" s="13">
-        <v>715479</v>
+        <v>1099432</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8861,95 +8861,95 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>49323</v>
       </c>
       <c r="Z67" s="11">
-        <v>49323</v>
+        <v>47045</v>
       </c>
       <c r="AA67" s="11">
-        <v>47045</v>
+        <v>46193</v>
       </c>
       <c r="AB67" s="11">
-        <v>46193</v>
+        <v>50540</v>
       </c>
       <c r="AC67" s="11">
-        <v>50540</v>
+        <v>43750</v>
       </c>
       <c r="AD67" s="11">
-        <v>43750</v>
+        <v>61447</v>
       </c>
       <c r="AE67" s="11">
-        <v>61447</v>
+        <v>60196</v>
       </c>
       <c r="AF67" s="11">
-        <v>60196</v>
+        <v>56916</v>
       </c>
       <c r="AG67" s="11">
-        <v>56916</v>
+        <v>61798</v>
       </c>
       <c r="AH67" s="11">
-        <v>61798</v>
+        <v>31477</v>
       </c>
       <c r="AI67" s="11">
-        <v>31477</v>
+        <v>53770</v>
       </c>
       <c r="AJ67" s="11">
-        <v>53770</v>
+        <v>47809</v>
       </c>
       <c r="AK67" s="11">
-        <v>47809</v>
+        <v>72368</v>
       </c>
       <c r="AL67" s="11">
-        <v>72368</v>
+        <v>53171</v>
       </c>
       <c r="AM67" s="11">
-        <v>53171</v>
+        <v>52107</v>
       </c>
       <c r="AN67" s="11">
-        <v>52107</v>
+        <v>52967</v>
       </c>
       <c r="AO67" s="11">
-        <v>52967</v>
+        <v>60628</v>
       </c>
       <c r="AP67" s="11">
-        <v>60628</v>
+        <v>51287</v>
       </c>
       <c r="AQ67" s="11">
-        <v>51287</v>
+        <v>48078</v>
       </c>
       <c r="AR67" s="11">
-        <v>48078</v>
+        <v>32370</v>
       </c>
       <c r="AS67" s="11">
-        <v>32370</v>
+        <v>39513</v>
       </c>
       <c r="AT67" s="11">
-        <v>39513</v>
+        <v>6745</v>
       </c>
       <c r="AU67" s="11">
-        <v>6745</v>
+        <v>65975</v>
       </c>
       <c r="AV67" s="11">
-        <v>65975</v>
+        <v>110448</v>
       </c>
       <c r="AW67" s="11">
-        <v>110448</v>
+        <v>138226</v>
       </c>
       <c r="AX67" s="11">
-        <v>138226</v>
+        <v>99021</v>
       </c>
       <c r="AY67" s="11">
-        <v>99021</v>
+        <v>87340</v>
       </c>
       <c r="AZ67" s="11">
-        <v>87340</v>
+        <v>110786</v>
       </c>
       <c r="BA67" s="11">
-        <v>110786</v>
+        <v>116071</v>
       </c>
       <c r="BB67" s="11">
-        <v>116071</v>
+        <v>104077</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9020,95 +9020,95 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>27484</v>
       </c>
       <c r="Z68" s="13">
-        <v>27484</v>
+        <v>18402</v>
       </c>
       <c r="AA68" s="13">
-        <v>18402</v>
+        <v>16690</v>
       </c>
       <c r="AB68" s="13">
-        <v>16690</v>
+        <v>24946</v>
       </c>
       <c r="AC68" s="13">
-        <v>24946</v>
+        <v>22849</v>
       </c>
       <c r="AD68" s="13">
-        <v>22849</v>
+        <v>27697</v>
       </c>
       <c r="AE68" s="13">
-        <v>27697</v>
+        <v>21504</v>
       </c>
       <c r="AF68" s="13">
-        <v>21504</v>
+        <v>21096</v>
       </c>
       <c r="AG68" s="13">
-        <v>21096</v>
+        <v>20534</v>
       </c>
       <c r="AH68" s="13">
-        <v>20534</v>
+        <v>17970</v>
       </c>
       <c r="AI68" s="13">
-        <v>17970</v>
+        <v>34127</v>
       </c>
       <c r="AJ68" s="13">
-        <v>34127</v>
+        <v>16978</v>
       </c>
       <c r="AK68" s="13">
-        <v>16978</v>
+        <v>31214</v>
       </c>
       <c r="AL68" s="13">
-        <v>31214</v>
+        <v>21035</v>
       </c>
       <c r="AM68" s="13">
-        <v>21035</v>
+        <v>24884</v>
       </c>
       <c r="AN68" s="13">
-        <v>24884</v>
+        <v>27480</v>
       </c>
       <c r="AO68" s="13">
-        <v>27480</v>
+        <v>31785</v>
       </c>
       <c r="AP68" s="13">
-        <v>31785</v>
+        <v>18679</v>
       </c>
       <c r="AQ68" s="13">
-        <v>18679</v>
+        <v>38368</v>
       </c>
       <c r="AR68" s="13">
-        <v>38368</v>
+        <v>24941</v>
       </c>
       <c r="AS68" s="13">
-        <v>24941</v>
+        <v>31023</v>
       </c>
       <c r="AT68" s="13">
-        <v>31023</v>
+        <v>8348</v>
       </c>
       <c r="AU68" s="13">
-        <v>8348</v>
+        <v>50463</v>
       </c>
       <c r="AV68" s="13">
-        <v>50463</v>
+        <v>68547</v>
       </c>
       <c r="AW68" s="13">
-        <v>68547</v>
+        <v>41742</v>
       </c>
       <c r="AX68" s="13">
-        <v>41742</v>
+        <v>39813</v>
       </c>
       <c r="AY68" s="13">
-        <v>39813</v>
+        <v>42838</v>
       </c>
       <c r="AZ68" s="13">
-        <v>42838</v>
+        <v>42030</v>
       </c>
       <c r="BA68" s="13">
-        <v>42030</v>
+        <v>66226</v>
       </c>
       <c r="BB68" s="13">
-        <v>66226</v>
+        <v>71779</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9179,95 +9179,95 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>10408</v>
       </c>
       <c r="Z69" s="11">
-        <v>10408</v>
+        <v>7859</v>
       </c>
       <c r="AA69" s="11">
-        <v>7859</v>
+        <v>8833</v>
       </c>
       <c r="AB69" s="11">
-        <v>8833</v>
+        <v>14069</v>
       </c>
       <c r="AC69" s="11">
-        <v>14069</v>
+        <v>14195</v>
       </c>
       <c r="AD69" s="11">
-        <v>14195</v>
+        <v>18763</v>
       </c>
       <c r="AE69" s="11">
-        <v>18763</v>
+        <v>19911</v>
       </c>
       <c r="AF69" s="11">
-        <v>19911</v>
+        <v>18547</v>
       </c>
       <c r="AG69" s="11">
-        <v>18547</v>
+        <v>20908</v>
       </c>
       <c r="AH69" s="11">
-        <v>20908</v>
+        <v>11762</v>
       </c>
       <c r="AI69" s="11">
-        <v>11762</v>
+        <v>19634</v>
       </c>
       <c r="AJ69" s="11">
-        <v>19634</v>
+        <v>18274</v>
       </c>
       <c r="AK69" s="11">
-        <v>18274</v>
+        <v>23989</v>
       </c>
       <c r="AL69" s="11">
-        <v>23989</v>
+        <v>8317</v>
       </c>
       <c r="AM69" s="11">
-        <v>8317</v>
+        <v>24266</v>
       </c>
       <c r="AN69" s="11">
-        <v>24266</v>
+        <v>17751</v>
       </c>
       <c r="AO69" s="11">
-        <v>17751</v>
+        <v>12850</v>
       </c>
       <c r="AP69" s="11">
-        <v>12850</v>
+        <v>22491</v>
       </c>
       <c r="AQ69" s="11">
-        <v>22491</v>
+        <v>18410</v>
       </c>
       <c r="AR69" s="11">
-        <v>18410</v>
+        <v>21385</v>
       </c>
       <c r="AS69" s="11">
-        <v>21385</v>
+        <v>14727</v>
       </c>
       <c r="AT69" s="11">
-        <v>14727</v>
+        <v>3724</v>
       </c>
       <c r="AU69" s="11">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="11">
-        <v>0</v>
+        <v>48188</v>
       </c>
       <c r="AW69" s="11">
-        <v>48188</v>
+        <v>91031</v>
       </c>
       <c r="AX69" s="11">
-        <v>91031</v>
+        <v>69274</v>
       </c>
       <c r="AY69" s="11">
-        <v>69274</v>
+        <v>66077</v>
       </c>
       <c r="AZ69" s="11">
-        <v>66077</v>
+        <v>56991</v>
       </c>
       <c r="BA69" s="11">
-        <v>56991</v>
+        <v>69028</v>
       </c>
       <c r="BB69" s="11">
-        <v>69028</v>
+        <v>65946</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9338,95 +9338,95 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>8316</v>
       </c>
       <c r="Z70" s="13">
-        <v>8316</v>
+        <v>4065</v>
       </c>
       <c r="AA70" s="13">
-        <v>4065</v>
+        <v>2267</v>
       </c>
       <c r="AB70" s="13">
-        <v>2267</v>
+        <v>22808</v>
       </c>
       <c r="AC70" s="13">
-        <v>22808</v>
+        <v>14798</v>
       </c>
       <c r="AD70" s="13">
-        <v>14798</v>
+        <v>20571</v>
       </c>
       <c r="AE70" s="13">
-        <v>20571</v>
+        <v>20717</v>
       </c>
       <c r="AF70" s="13">
-        <v>20717</v>
+        <v>29009</v>
       </c>
       <c r="AG70" s="13">
-        <v>29009</v>
+        <v>29418</v>
       </c>
       <c r="AH70" s="13">
-        <v>29418</v>
+        <v>12655</v>
       </c>
       <c r="AI70" s="13">
-        <v>12655</v>
+        <v>16567</v>
       </c>
       <c r="AJ70" s="13">
-        <v>16567</v>
+        <v>13430</v>
       </c>
       <c r="AK70" s="13">
-        <v>13430</v>
+        <v>29327</v>
       </c>
       <c r="AL70" s="13">
-        <v>29327</v>
+        <v>5865</v>
       </c>
       <c r="AM70" s="13">
-        <v>5865</v>
+        <v>23529</v>
       </c>
       <c r="AN70" s="13">
-        <v>23529</v>
+        <v>20592</v>
       </c>
       <c r="AO70" s="13">
-        <v>20592</v>
+        <v>11910</v>
       </c>
       <c r="AP70" s="13">
-        <v>11910</v>
+        <v>5129</v>
       </c>
       <c r="AQ70" s="13">
-        <v>5129</v>
+        <v>10487</v>
       </c>
       <c r="AR70" s="13">
-        <v>10487</v>
+        <v>8206</v>
       </c>
       <c r="AS70" s="13">
-        <v>8206</v>
+        <v>13577</v>
       </c>
       <c r="AT70" s="13">
-        <v>13577</v>
+        <v>-35</v>
       </c>
       <c r="AU70" s="13">
-        <v>-35</v>
+        <v>322</v>
       </c>
       <c r="AV70" s="13">
-        <v>322</v>
+        <v>40809</v>
       </c>
       <c r="AW70" s="13">
-        <v>40809</v>
+        <v>42542</v>
       </c>
       <c r="AX70" s="13">
-        <v>42542</v>
+        <v>19311</v>
       </c>
       <c r="AY70" s="13">
-        <v>19311</v>
+        <v>28976</v>
       </c>
       <c r="AZ70" s="13">
-        <v>28976</v>
+        <v>17690</v>
       </c>
       <c r="BA70" s="13">
-        <v>17690</v>
+        <v>20910</v>
       </c>
       <c r="BB70" s="13">
-        <v>20910</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9497,95 +9497,95 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>5167</v>
       </c>
       <c r="Z71" s="11">
-        <v>5167</v>
+        <v>6007</v>
       </c>
       <c r="AA71" s="11">
-        <v>6007</v>
+        <v>8693</v>
       </c>
       <c r="AB71" s="11">
-        <v>8693</v>
+        <v>23786</v>
       </c>
       <c r="AC71" s="11">
-        <v>23786</v>
+        <v>25057</v>
       </c>
       <c r="AD71" s="11">
-        <v>25057</v>
+        <v>37003</v>
       </c>
       <c r="AE71" s="11">
-        <v>37003</v>
+        <v>32383</v>
       </c>
       <c r="AF71" s="11">
-        <v>32383</v>
+        <v>28459</v>
       </c>
       <c r="AG71" s="11">
-        <v>28459</v>
+        <v>30165</v>
       </c>
       <c r="AH71" s="11">
-        <v>30165</v>
+        <v>37837</v>
       </c>
       <c r="AI71" s="11">
-        <v>37837</v>
+        <v>36353</v>
       </c>
       <c r="AJ71" s="11">
-        <v>36353</v>
+        <v>15787</v>
       </c>
       <c r="AK71" s="11">
-        <v>15787</v>
+        <v>29392</v>
       </c>
       <c r="AL71" s="11">
-        <v>29392</v>
+        <v>34864</v>
       </c>
       <c r="AM71" s="11">
-        <v>34864</v>
+        <v>38488</v>
       </c>
       <c r="AN71" s="11">
-        <v>38488</v>
+        <v>32693</v>
       </c>
       <c r="AO71" s="11">
-        <v>32693</v>
+        <v>37838</v>
       </c>
       <c r="AP71" s="11">
-        <v>37838</v>
+        <v>38609</v>
       </c>
       <c r="AQ71" s="11">
-        <v>38609</v>
+        <v>48351</v>
       </c>
       <c r="AR71" s="11">
-        <v>48351</v>
+        <v>43690</v>
       </c>
       <c r="AS71" s="11">
-        <v>43690</v>
+        <v>41390</v>
       </c>
       <c r="AT71" s="11">
-        <v>41390</v>
+        <v>1729</v>
       </c>
       <c r="AU71" s="11">
-        <v>1729</v>
+        <v>65314</v>
       </c>
       <c r="AV71" s="11">
-        <v>65314</v>
+        <v>98534</v>
       </c>
       <c r="AW71" s="11">
-        <v>98534</v>
+        <v>48013</v>
       </c>
       <c r="AX71" s="11">
-        <v>48013</v>
+        <v>70118</v>
       </c>
       <c r="AY71" s="11">
-        <v>70118</v>
+        <v>80911</v>
       </c>
       <c r="AZ71" s="11">
-        <v>80911</v>
+        <v>74330</v>
       </c>
       <c r="BA71" s="11">
-        <v>74330</v>
+        <v>90419</v>
       </c>
       <c r="BB71" s="11">
-        <v>90419</v>
+        <v>98216</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9655,94 +9655,94 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="Z72" s="15">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AA72" s="15">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AB72" s="15">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AC72" s="15">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AD72" s="15">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AE72" s="15">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AF72" s="15">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AG72" s="15">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AH72" s="15">
-        <v>2082813</v>
+        <v>925815</v>
       </c>
       <c r="AI72" s="15">
-        <v>925815</v>
+        <v>1559476</v>
       </c>
       <c r="AJ72" s="15">
-        <v>1559476</v>
+        <v>2731826</v>
       </c>
       <c r="AK72" s="15">
-        <v>2731826</v>
+        <v>2425347</v>
       </c>
       <c r="AL72" s="15">
-        <v>2425347</v>
+        <v>1731443</v>
       </c>
       <c r="AM72" s="15">
-        <v>1731443</v>
+        <v>1561877</v>
       </c>
       <c r="AN72" s="15">
-        <v>1561877</v>
+        <v>1455831</v>
       </c>
       <c r="AO72" s="15">
-        <v>1455831</v>
+        <v>1601629</v>
       </c>
       <c r="AP72" s="15">
-        <v>1601629</v>
+        <v>1318130</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1318130</v>
+        <v>1532763</v>
       </c>
       <c r="AR72" s="15">
-        <v>1532763</v>
+        <v>1293657</v>
       </c>
       <c r="AS72" s="15">
-        <v>1293657</v>
+        <v>1403491</v>
       </c>
       <c r="AT72" s="15">
-        <v>1403491</v>
+        <v>291455</v>
       </c>
       <c r="AU72" s="15">
-        <v>291455</v>
+        <v>3894331</v>
       </c>
       <c r="AV72" s="15">
-        <v>3894331</v>
+        <v>5373021</v>
       </c>
       <c r="AW72" s="15">
-        <v>5373021</v>
+        <v>3245187</v>
       </c>
       <c r="AX72" s="15">
-        <v>3245187</v>
+        <v>2858027</v>
       </c>
       <c r="AY72" s="15">
-        <v>2858027</v>
+        <v>3488102</v>
       </c>
       <c r="AZ72" s="15">
-        <v>3488102</v>
+        <v>2815425</v>
       </c>
       <c r="BA72" s="15">
-        <v>2815425</v>
+        <v>4144863</v>
       </c>
       <c r="BB72" s="15">
-        <v>4144863</v>
+        <v>3894693</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9897,8 +9897,8 @@
       <c r="AG74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>58</v>
+      <c r="AH74" s="11">
+        <v>0</v>
       </c>
       <c r="AI74" s="11">
         <v>0</v>
@@ -10056,68 +10056,68 @@
       <c r="AG75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH75" s="13" t="s">
-        <v>58</v>
+      <c r="AH75" s="13">
+        <v>116620</v>
       </c>
       <c r="AI75" s="13">
-        <v>116620</v>
+        <v>309568</v>
       </c>
       <c r="AJ75" s="13">
-        <v>309568</v>
+        <v>21173</v>
       </c>
       <c r="AK75" s="13">
-        <v>21173</v>
+        <v>66694</v>
       </c>
       <c r="AL75" s="13">
-        <v>66694</v>
+        <v>99832</v>
       </c>
       <c r="AM75" s="13">
-        <v>99832</v>
+        <v>341273</v>
       </c>
       <c r="AN75" s="13">
-        <v>341273</v>
+        <v>97524</v>
       </c>
       <c r="AO75" s="13">
-        <v>97524</v>
+        <v>302812</v>
       </c>
       <c r="AP75" s="13">
-        <v>302812</v>
+        <v>520476</v>
       </c>
       <c r="AQ75" s="13">
-        <v>520476</v>
+        <v>183036</v>
       </c>
       <c r="AR75" s="13">
-        <v>183036</v>
+        <v>210854</v>
       </c>
       <c r="AS75" s="13">
-        <v>210854</v>
+        <v>368803</v>
       </c>
       <c r="AT75" s="13">
-        <v>368803</v>
+        <v>50271</v>
       </c>
       <c r="AU75" s="13">
-        <v>50271</v>
+        <v>87798</v>
       </c>
       <c r="AV75" s="13">
-        <v>87798</v>
+        <v>85431</v>
       </c>
       <c r="AW75" s="13">
-        <v>85431</v>
+        <v>210620</v>
       </c>
       <c r="AX75" s="13">
-        <v>210620</v>
+        <v>29453</v>
       </c>
       <c r="AY75" s="13">
-        <v>29453</v>
+        <v>86442</v>
       </c>
       <c r="AZ75" s="13">
-        <v>86442</v>
+        <v>60226</v>
       </c>
       <c r="BA75" s="13">
-        <v>60226</v>
+        <v>262478</v>
       </c>
       <c r="BB75" s="13">
-        <v>262478</v>
+        <v>72699</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10215,68 +10215,68 @@
       <c r="AG76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="11" t="s">
-        <v>58</v>
+      <c r="AH76" s="11">
+        <v>18758</v>
       </c>
       <c r="AI76" s="11">
-        <v>18758</v>
+        <v>40047</v>
       </c>
       <c r="AJ76" s="11">
-        <v>40047</v>
+        <v>38955</v>
       </c>
       <c r="AK76" s="11">
-        <v>38955</v>
+        <v>32052</v>
       </c>
       <c r="AL76" s="11">
-        <v>32052</v>
+        <v>46364</v>
       </c>
       <c r="AM76" s="11">
-        <v>46364</v>
+        <v>54176</v>
       </c>
       <c r="AN76" s="11">
-        <v>54176</v>
+        <v>38711</v>
       </c>
       <c r="AO76" s="11">
-        <v>38711</v>
+        <v>94801</v>
       </c>
       <c r="AP76" s="11">
-        <v>94801</v>
+        <v>57500</v>
       </c>
       <c r="AQ76" s="11">
-        <v>57500</v>
+        <v>124393</v>
       </c>
       <c r="AR76" s="11">
-        <v>124393</v>
+        <v>76660</v>
       </c>
       <c r="AS76" s="11">
-        <v>76660</v>
+        <v>111746</v>
       </c>
       <c r="AT76" s="11">
-        <v>111746</v>
+        <v>21156</v>
       </c>
       <c r="AU76" s="11">
-        <v>21156</v>
+        <v>0</v>
       </c>
       <c r="AV76" s="11">
-        <v>0</v>
+        <v>17497</v>
       </c>
       <c r="AW76" s="11">
-        <v>17497</v>
+        <v>25520</v>
       </c>
       <c r="AX76" s="11">
-        <v>25520</v>
+        <v>46649</v>
       </c>
       <c r="AY76" s="11">
-        <v>46649</v>
+        <v>119878</v>
       </c>
       <c r="AZ76" s="11">
-        <v>119878</v>
+        <v>21157</v>
       </c>
       <c r="BA76" s="11">
-        <v>21157</v>
+        <v>446434</v>
       </c>
       <c r="BB76" s="11">
-        <v>446434</v>
+        <v>166255</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10374,68 +10374,68 @@
       <c r="AG77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH77" s="13" t="s">
-        <v>58</v>
+      <c r="AH77" s="13">
+        <v>943</v>
       </c>
       <c r="AI77" s="13">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="13">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="AK77" s="13">
-        <v>4324</v>
+        <v>2050</v>
       </c>
       <c r="AL77" s="13">
-        <v>2050</v>
+        <v>6310</v>
       </c>
       <c r="AM77" s="13">
-        <v>6310</v>
+        <v>2026</v>
       </c>
       <c r="AN77" s="13">
-        <v>2026</v>
+        <v>3966</v>
       </c>
       <c r="AO77" s="13">
-        <v>3966</v>
+        <v>1146</v>
       </c>
       <c r="AP77" s="13">
-        <v>1146</v>
+        <v>168</v>
       </c>
       <c r="AQ77" s="13">
-        <v>168</v>
+        <v>4244</v>
       </c>
       <c r="AR77" s="13">
-        <v>4244</v>
+        <v>13410</v>
       </c>
       <c r="AS77" s="13">
-        <v>13410</v>
+        <v>17769</v>
       </c>
       <c r="AT77" s="13">
-        <v>17769</v>
+        <v>308</v>
       </c>
       <c r="AU77" s="13">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AV77" s="13">
         <v>0</v>
       </c>
       <c r="AW77" s="13">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AX77" s="13">
-        <v>1920</v>
+        <v>54</v>
       </c>
       <c r="AY77" s="13">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="AZ77" s="13">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="BA77" s="13">
-        <v>282</v>
+        <v>634</v>
       </c>
       <c r="BB77" s="13">
-        <v>634</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10532,67 +10532,67 @@
         <v>0</v>
       </c>
       <c r="AH78" s="17">
-        <v>0</v>
+        <v>136321</v>
       </c>
       <c r="AI78" s="17">
-        <v>136321</v>
+        <v>349615</v>
       </c>
       <c r="AJ78" s="17">
-        <v>349615</v>
+        <v>64452</v>
       </c>
       <c r="AK78" s="17">
-        <v>64452</v>
+        <v>100796</v>
       </c>
       <c r="AL78" s="17">
-        <v>100796</v>
+        <v>152506</v>
       </c>
       <c r="AM78" s="17">
-        <v>152506</v>
+        <v>397475</v>
       </c>
       <c r="AN78" s="17">
-        <v>397475</v>
+        <v>140201</v>
       </c>
       <c r="AO78" s="17">
-        <v>140201</v>
+        <v>398759</v>
       </c>
       <c r="AP78" s="17">
-        <v>398759</v>
+        <v>578144</v>
       </c>
       <c r="AQ78" s="17">
-        <v>578144</v>
+        <v>311673</v>
       </c>
       <c r="AR78" s="17">
-        <v>311673</v>
+        <v>300924</v>
       </c>
       <c r="AS78" s="17">
-        <v>300924</v>
+        <v>498318</v>
       </c>
       <c r="AT78" s="17">
-        <v>498318</v>
+        <v>71735</v>
       </c>
       <c r="AU78" s="17">
-        <v>71735</v>
+        <v>87798</v>
       </c>
       <c r="AV78" s="17">
-        <v>87798</v>
+        <v>102928</v>
       </c>
       <c r="AW78" s="17">
-        <v>102928</v>
+        <v>238060</v>
       </c>
       <c r="AX78" s="17">
-        <v>238060</v>
+        <v>76156</v>
       </c>
       <c r="AY78" s="17">
-        <v>76156</v>
+        <v>206540</v>
       </c>
       <c r="AZ78" s="17">
-        <v>206540</v>
+        <v>81665</v>
       </c>
       <c r="BA78" s="17">
-        <v>81665</v>
+        <v>709546</v>
       </c>
       <c r="BB78" s="17">
-        <v>709546</v>
+        <v>239347</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10720,8 +10720,8 @@
       <c r="X80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="17" t="s">
-        <v>58</v>
+      <c r="Y80" s="17">
+        <v>0</v>
       </c>
       <c r="Z80" s="17">
         <v>0</v>
@@ -10936,8 +10936,8 @@
       <c r="X82" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="17" t="s">
-        <v>58</v>
+      <c r="Y82" s="17">
+        <v>0</v>
       </c>
       <c r="Z82" s="17">
         <v>0</v>
@@ -11152,8 +11152,8 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>0</v>
       </c>
       <c r="Z84" s="11">
         <v>0</v>
@@ -11310,94 +11310,94 @@
         <v>0</v>
       </c>
       <c r="Y85" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="Z85" s="15">
-        <v>1483460</v>
+        <v>1418217</v>
       </c>
       <c r="AA85" s="15">
-        <v>1418217</v>
+        <v>1262419</v>
       </c>
       <c r="AB85" s="15">
-        <v>1262419</v>
+        <v>1913394</v>
       </c>
       <c r="AC85" s="15">
-        <v>1913394</v>
+        <v>2310708</v>
       </c>
       <c r="AD85" s="15">
-        <v>2310708</v>
+        <v>1453880</v>
       </c>
       <c r="AE85" s="15">
-        <v>1453880</v>
+        <v>1964791</v>
       </c>
       <c r="AF85" s="15">
-        <v>1964791</v>
+        <v>1693511</v>
       </c>
       <c r="AG85" s="15">
-        <v>1693511</v>
+        <v>2082813</v>
       </c>
       <c r="AH85" s="15">
-        <v>2082813</v>
+        <v>1062136</v>
       </c>
       <c r="AI85" s="15">
-        <v>1062136</v>
+        <v>1909091</v>
       </c>
       <c r="AJ85" s="15">
-        <v>1909091</v>
+        <v>2796278</v>
       </c>
       <c r="AK85" s="15">
-        <v>2796278</v>
+        <v>2526143</v>
       </c>
       <c r="AL85" s="15">
-        <v>2526143</v>
+        <v>1883949</v>
       </c>
       <c r="AM85" s="15">
-        <v>1883949</v>
+        <v>1959352</v>
       </c>
       <c r="AN85" s="15">
-        <v>1959352</v>
+        <v>1596032</v>
       </c>
       <c r="AO85" s="15">
-        <v>1596032</v>
+        <v>2000388</v>
       </c>
       <c r="AP85" s="15">
-        <v>2000388</v>
+        <v>1896274</v>
       </c>
       <c r="AQ85" s="15">
-        <v>1896274</v>
+        <v>1844436</v>
       </c>
       <c r="AR85" s="15">
-        <v>1844436</v>
+        <v>1594581</v>
       </c>
       <c r="AS85" s="15">
-        <v>1594581</v>
+        <v>1901809</v>
       </c>
       <c r="AT85" s="15">
-        <v>1901809</v>
+        <v>363190</v>
       </c>
       <c r="AU85" s="15">
-        <v>363190</v>
+        <v>3982129</v>
       </c>
       <c r="AV85" s="15">
-        <v>3982129</v>
+        <v>5475949</v>
       </c>
       <c r="AW85" s="15">
-        <v>5475949</v>
+        <v>3483247</v>
       </c>
       <c r="AX85" s="15">
-        <v>3483247</v>
+        <v>2934183</v>
       </c>
       <c r="AY85" s="15">
-        <v>2934183</v>
+        <v>3694642</v>
       </c>
       <c r="AZ85" s="15">
-        <v>3694642</v>
+        <v>2897090</v>
       </c>
       <c r="BA85" s="15">
-        <v>2897090</v>
+        <v>4854409</v>
       </c>
       <c r="BB85" s="15">
-        <v>4854409</v>
+        <v>4134040</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11902,95 +11902,95 @@
       <c r="X92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>58</v>
+      <c r="Y92" s="11">
+        <v>139669666</v>
       </c>
       <c r="Z92" s="11">
-        <v>139669666</v>
+        <v>162949914</v>
       </c>
       <c r="AA92" s="11">
-        <v>162949914</v>
+        <v>180275168</v>
       </c>
       <c r="AB92" s="11">
-        <v>180275168</v>
+        <v>184334627</v>
       </c>
       <c r="AC92" s="11">
-        <v>184334627</v>
+        <v>274458248</v>
       </c>
       <c r="AD92" s="11">
-        <v>274458248</v>
+        <v>305458797</v>
       </c>
       <c r="AE92" s="11">
-        <v>305458797</v>
+        <v>359543071</v>
       </c>
       <c r="AF92" s="11">
-        <v>359543071</v>
+        <v>396295345</v>
       </c>
       <c r="AG92" s="11">
-        <v>396295345</v>
+        <v>446196897</v>
       </c>
       <c r="AH92" s="11">
-        <v>446196897</v>
+        <v>476995169</v>
       </c>
       <c r="AI92" s="11">
-        <v>476995169</v>
+        <v>535932950</v>
       </c>
       <c r="AJ92" s="11">
-        <v>535932950</v>
+        <v>516247826</v>
       </c>
       <c r="AK92" s="11">
-        <v>516247826</v>
+        <v>545047794</v>
       </c>
       <c r="AL92" s="11">
-        <v>545047794</v>
+        <v>471048583</v>
       </c>
       <c r="AM92" s="11">
-        <v>471048583</v>
+        <v>392651007</v>
       </c>
       <c r="AN92" s="11">
-        <v>392651007</v>
+        <v>518738693</v>
       </c>
       <c r="AO92" s="11">
-        <v>518738693</v>
+        <v>522632124</v>
       </c>
       <c r="AP92" s="11">
-        <v>522632124</v>
+        <v>275424324</v>
       </c>
       <c r="AQ92" s="11">
-        <v>275424324</v>
+        <v>312060543</v>
       </c>
       <c r="AR92" s="11">
-        <v>312060543</v>
+        <v>304902010</v>
       </c>
       <c r="AS92" s="11">
-        <v>304902010</v>
+        <v>319430642</v>
       </c>
       <c r="AT92" s="11">
-        <v>319430642</v>
+        <v>491363014</v>
       </c>
       <c r="AU92" s="11">
-        <v>491363014</v>
+        <v>286339089</v>
       </c>
       <c r="AV92" s="11">
-        <v>286339089</v>
+        <v>466256903</v>
       </c>
       <c r="AW92" s="11">
-        <v>466256903</v>
+        <v>495805650</v>
       </c>
       <c r="AX92" s="11">
-        <v>495805650</v>
+        <v>577858561</v>
       </c>
       <c r="AY92" s="11">
-        <v>577858561</v>
+        <v>485697856</v>
       </c>
       <c r="AZ92" s="11">
-        <v>485697856</v>
+        <v>578615909</v>
       </c>
       <c r="BA92" s="11">
-        <v>578615909</v>
+        <v>589965461</v>
       </c>
       <c r="BB92" s="11">
-        <v>589965461</v>
+        <v>558215753</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12061,72 +12061,72 @@
       <c r="X93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="13" t="s">
-        <v>58</v>
+      <c r="Y93" s="13">
+        <v>158714286</v>
       </c>
       <c r="Z93" s="13">
-        <v>158714286</v>
+        <v>161000000</v>
       </c>
       <c r="AA93" s="13">
-        <v>161000000</v>
+        <v>120125000</v>
       </c>
       <c r="AB93" s="13">
-        <v>120125000</v>
+        <v>145800000</v>
       </c>
       <c r="AC93" s="13">
-        <v>145800000</v>
+        <v>115285714</v>
       </c>
       <c r="AD93" s="13">
-        <v>115285714</v>
+        <v>164333333</v>
       </c>
       <c r="AE93" s="13">
-        <v>164333333</v>
+        <v>150600000</v>
       </c>
       <c r="AF93" s="13">
-        <v>150600000</v>
+        <v>103500000</v>
       </c>
       <c r="AG93" s="13">
-        <v>103500000</v>
-      </c>
-      <c r="AH93" s="13">
         <v>130000000</v>
       </c>
-      <c r="AI93" s="13" t="s">
-        <v>58</v>
+      <c r="AH93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI93" s="13">
+        <v>168333333</v>
       </c>
       <c r="AJ93" s="13">
-        <v>168333333</v>
+        <v>134166667</v>
       </c>
       <c r="AK93" s="13">
-        <v>134166667</v>
+        <v>112000000</v>
       </c>
       <c r="AL93" s="13">
-        <v>112000000</v>
+        <v>127571429</v>
       </c>
       <c r="AM93" s="13">
-        <v>127571429</v>
+        <v>139833333</v>
       </c>
       <c r="AN93" s="13">
-        <v>139833333</v>
+        <v>118428571</v>
       </c>
       <c r="AO93" s="13">
-        <v>118428571</v>
+        <v>130307692</v>
       </c>
       <c r="AP93" s="13">
-        <v>130307692</v>
+        <v>132285714</v>
       </c>
       <c r="AQ93" s="13">
-        <v>132285714</v>
+        <v>117500000</v>
       </c>
       <c r="AR93" s="13">
-        <v>117500000</v>
+        <v>144142857</v>
       </c>
       <c r="AS93" s="13">
-        <v>144142857</v>
-      </c>
-      <c r="AT93" s="13">
         <v>149800000</v>
       </c>
+      <c r="AT93" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU93" s="13" t="s">
         <v>58</v>
       </c>
@@ -12139,11 +12139,11 @@
       <c r="AX93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ93" s="13">
+      <c r="AY93" s="13">
         <v>432500000</v>
+      </c>
+      <c r="AZ93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA93" s="13" t="s">
         <v>58</v>
@@ -12220,95 +12220,95 @@
       <c r="X94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="11" t="s">
-        <v>58</v>
+      <c r="Y94" s="11">
+        <v>75989370</v>
       </c>
       <c r="Z94" s="11">
-        <v>75989370</v>
+        <v>73676860</v>
       </c>
       <c r="AA94" s="11">
-        <v>73676860</v>
+        <v>75776142</v>
       </c>
       <c r="AB94" s="11">
-        <v>75776142</v>
+        <v>76223427</v>
       </c>
       <c r="AC94" s="11">
-        <v>76223427</v>
+        <v>81686788</v>
       </c>
       <c r="AD94" s="11">
-        <v>81686788</v>
+        <v>85106979</v>
       </c>
       <c r="AE94" s="11">
-        <v>85106979</v>
+        <v>87650024</v>
       </c>
       <c r="AF94" s="11">
-        <v>87650024</v>
+        <v>80676449</v>
       </c>
       <c r="AG94" s="11">
-        <v>80676449</v>
+        <v>84275993</v>
       </c>
       <c r="AH94" s="11">
-        <v>84275993</v>
+        <v>83076912</v>
       </c>
       <c r="AI94" s="11">
-        <v>83076912</v>
+        <v>85269884</v>
       </c>
       <c r="AJ94" s="11">
-        <v>85269884</v>
+        <v>88266390</v>
       </c>
       <c r="AK94" s="11">
-        <v>88266390</v>
+        <v>79514440</v>
       </c>
       <c r="AL94" s="11">
-        <v>79514440</v>
+        <v>78625244</v>
       </c>
       <c r="AM94" s="11">
-        <v>78625244</v>
+        <v>78101136</v>
       </c>
       <c r="AN94" s="11">
-        <v>78101136</v>
+        <v>76956689</v>
       </c>
       <c r="AO94" s="11">
-        <v>76956689</v>
+        <v>75634877</v>
       </c>
       <c r="AP94" s="11">
-        <v>75634877</v>
+        <v>76389303</v>
       </c>
       <c r="AQ94" s="11">
-        <v>76389303</v>
+        <v>76256198</v>
       </c>
       <c r="AR94" s="11">
-        <v>76256198</v>
+        <v>79460435</v>
       </c>
       <c r="AS94" s="11">
-        <v>79460435</v>
+        <v>82535225</v>
       </c>
       <c r="AT94" s="11">
-        <v>82535225</v>
+        <v>92877044</v>
       </c>
       <c r="AU94" s="11">
-        <v>92877044</v>
+        <v>248526447</v>
       </c>
       <c r="AV94" s="11">
-        <v>248526447</v>
+        <v>251974390</v>
       </c>
       <c r="AW94" s="11">
-        <v>251974390</v>
+        <v>252549112</v>
       </c>
       <c r="AX94" s="11">
-        <v>252549112</v>
+        <v>252596897</v>
       </c>
       <c r="AY94" s="11">
-        <v>252596897</v>
+        <v>250778674</v>
       </c>
       <c r="AZ94" s="11">
-        <v>250778674</v>
+        <v>249070294</v>
       </c>
       <c r="BA94" s="11">
-        <v>249070294</v>
+        <v>248534049</v>
       </c>
       <c r="BB94" s="11">
-        <v>248534049</v>
+        <v>248225993</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12379,95 +12379,95 @@
       <c r="X95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="13" t="s">
-        <v>58</v>
+      <c r="Y95" s="13">
+        <v>92421548</v>
       </c>
       <c r="Z95" s="13">
-        <v>92421548</v>
+        <v>92168614</v>
       </c>
       <c r="AA95" s="13">
-        <v>92168614</v>
+        <v>92718803</v>
       </c>
       <c r="AB95" s="13">
-        <v>92718803</v>
+        <v>95812500</v>
       </c>
       <c r="AC95" s="13">
-        <v>95812500</v>
+        <v>96422863</v>
       </c>
       <c r="AD95" s="13">
-        <v>96422863</v>
+        <v>100651007</v>
       </c>
       <c r="AE95" s="13">
-        <v>100651007</v>
+        <v>105423223</v>
       </c>
       <c r="AF95" s="13">
-        <v>105423223</v>
+        <v>99772771</v>
       </c>
       <c r="AG95" s="13">
-        <v>99772771</v>
+        <v>102825032</v>
       </c>
       <c r="AH95" s="13">
-        <v>102825032</v>
+        <v>105563958</v>
       </c>
       <c r="AI95" s="13">
-        <v>105563958</v>
+        <v>107439139</v>
       </c>
       <c r="AJ95" s="13">
-        <v>107439139</v>
+        <v>103446645</v>
       </c>
       <c r="AK95" s="13">
-        <v>103446645</v>
+        <v>101528069</v>
       </c>
       <c r="AL95" s="13">
-        <v>101528069</v>
+        <v>102906740</v>
       </c>
       <c r="AM95" s="13">
-        <v>102906740</v>
+        <v>99130611</v>
       </c>
       <c r="AN95" s="13">
-        <v>99130611</v>
+        <v>100841049</v>
       </c>
       <c r="AO95" s="13">
-        <v>100841049</v>
+        <v>102195358</v>
       </c>
       <c r="AP95" s="13">
-        <v>102195358</v>
+        <v>99321462</v>
       </c>
       <c r="AQ95" s="13">
-        <v>99321462</v>
+        <v>98827396</v>
       </c>
       <c r="AR95" s="13">
-        <v>98827396</v>
+        <v>105306169</v>
       </c>
       <c r="AS95" s="13">
-        <v>105306169</v>
+        <v>107017485</v>
       </c>
       <c r="AT95" s="13">
-        <v>107017485</v>
+        <v>113450397</v>
       </c>
       <c r="AU95" s="13">
-        <v>113450397</v>
+        <v>306903426</v>
       </c>
       <c r="AV95" s="13">
-        <v>306903426</v>
+        <v>313360924</v>
       </c>
       <c r="AW95" s="13">
-        <v>313360924</v>
+        <v>326085977</v>
       </c>
       <c r="AX95" s="13">
-        <v>326085977</v>
+        <v>320280773</v>
       </c>
       <c r="AY95" s="13">
-        <v>320280773</v>
+        <v>317397904</v>
       </c>
       <c r="AZ95" s="13">
-        <v>317397904</v>
+        <v>313298840</v>
       </c>
       <c r="BA95" s="13">
-        <v>313298840</v>
+        <v>317990667</v>
       </c>
       <c r="BB95" s="13">
-        <v>317990667</v>
+        <v>309786419</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12538,95 +12538,95 @@
       <c r="X96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="11" t="s">
-        <v>58</v>
+      <c r="Y96" s="11">
+        <v>239432039</v>
       </c>
       <c r="Z96" s="11">
-        <v>239432039</v>
+        <v>240025510</v>
       </c>
       <c r="AA96" s="11">
-        <v>240025510</v>
+        <v>240588542</v>
       </c>
       <c r="AB96" s="11">
-        <v>240588542</v>
+        <v>242980769</v>
       </c>
       <c r="AC96" s="11">
-        <v>242980769</v>
+        <v>257352941</v>
       </c>
       <c r="AD96" s="11">
-        <v>257352941</v>
+        <v>308778894</v>
       </c>
       <c r="AE96" s="11">
-        <v>308778894</v>
+        <v>313520833</v>
       </c>
       <c r="AF96" s="11">
-        <v>313520833</v>
+        <v>302744681</v>
       </c>
       <c r="AG96" s="11">
-        <v>302744681</v>
+        <v>302931373</v>
       </c>
       <c r="AH96" s="11">
-        <v>302931373</v>
+        <v>311653465</v>
       </c>
       <c r="AI96" s="11">
-        <v>311653465</v>
+        <v>316294118</v>
       </c>
       <c r="AJ96" s="11">
-        <v>316294118</v>
+        <v>300685535</v>
       </c>
       <c r="AK96" s="11">
-        <v>300685535</v>
+        <v>284913386</v>
       </c>
       <c r="AL96" s="11">
-        <v>284913386</v>
+        <v>288972826</v>
       </c>
       <c r="AM96" s="11">
-        <v>288972826</v>
+        <v>292735955</v>
       </c>
       <c r="AN96" s="11">
-        <v>292735955</v>
+        <v>287864130</v>
       </c>
       <c r="AO96" s="11">
-        <v>287864130</v>
+        <v>294310680</v>
       </c>
       <c r="AP96" s="11">
-        <v>294310680</v>
+        <v>286519553</v>
       </c>
       <c r="AQ96" s="11">
-        <v>286519553</v>
+        <v>286178571</v>
       </c>
       <c r="AR96" s="11">
-        <v>286178571</v>
+        <v>305377358</v>
       </c>
       <c r="AS96" s="11">
-        <v>305377358</v>
+        <v>311125984</v>
       </c>
       <c r="AT96" s="11">
-        <v>311125984</v>
+        <v>355000000</v>
       </c>
       <c r="AU96" s="11">
-        <v>355000000</v>
+        <v>709408602</v>
       </c>
       <c r="AV96" s="11">
-        <v>709408602</v>
+        <v>731443709</v>
       </c>
       <c r="AW96" s="11">
-        <v>731443709</v>
+        <v>727505263</v>
       </c>
       <c r="AX96" s="11">
-        <v>727505263</v>
+        <v>728095588</v>
       </c>
       <c r="AY96" s="11">
-        <v>728095588</v>
+        <v>727833333</v>
       </c>
       <c r="AZ96" s="11">
-        <v>727833333</v>
+        <v>724091503</v>
       </c>
       <c r="BA96" s="11">
-        <v>724091503</v>
+        <v>720937888</v>
       </c>
       <c r="BB96" s="11">
-        <v>720937888</v>
+        <v>717772414</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12697,95 +12697,95 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>132134615</v>
       </c>
       <c r="Z97" s="13">
-        <v>132134615</v>
+        <v>147216000</v>
       </c>
       <c r="AA97" s="13">
-        <v>147216000</v>
+        <v>160480769</v>
       </c>
       <c r="AB97" s="13">
-        <v>160480769</v>
+        <v>166306667</v>
       </c>
       <c r="AC97" s="13">
-        <v>166306667</v>
+        <v>174419847</v>
       </c>
       <c r="AD97" s="13">
-        <v>174419847</v>
+        <v>177544872</v>
       </c>
       <c r="AE97" s="13">
-        <v>177544872</v>
+        <v>174829268</v>
       </c>
       <c r="AF97" s="13">
-        <v>174829268</v>
+        <v>166110236</v>
       </c>
       <c r="AG97" s="13">
-        <v>166110236</v>
+        <v>169702479</v>
       </c>
       <c r="AH97" s="13">
-        <v>169702479</v>
+        <v>171142857</v>
       </c>
       <c r="AI97" s="13">
-        <v>171142857</v>
+        <v>142790795</v>
       </c>
       <c r="AJ97" s="13">
-        <v>142790795</v>
+        <v>141483333</v>
       </c>
       <c r="AK97" s="13">
-        <v>141483333</v>
+        <v>173411111</v>
       </c>
       <c r="AL97" s="13">
-        <v>173411111</v>
+        <v>173842975</v>
       </c>
       <c r="AM97" s="13">
-        <v>173842975</v>
+        <v>171613793</v>
       </c>
       <c r="AN97" s="13">
-        <v>171613793</v>
+        <v>175031847</v>
       </c>
       <c r="AO97" s="13">
-        <v>175031847</v>
+        <v>173688525</v>
       </c>
       <c r="AP97" s="13">
-        <v>173688525</v>
+        <v>172953704</v>
       </c>
       <c r="AQ97" s="13">
-        <v>172953704</v>
+        <v>170524444</v>
       </c>
       <c r="AR97" s="13">
-        <v>170524444</v>
+        <v>179431655</v>
       </c>
       <c r="AS97" s="13">
-        <v>179431655</v>
+        <v>179323699</v>
       </c>
       <c r="AT97" s="13">
-        <v>179323699</v>
+        <v>189727273</v>
       </c>
       <c r="AU97" s="13">
-        <v>189727273</v>
+        <v>397346457</v>
       </c>
       <c r="AV97" s="13">
-        <v>397346457</v>
+        <v>415436364</v>
       </c>
       <c r="AW97" s="13">
-        <v>415436364</v>
+        <v>425938776</v>
       </c>
       <c r="AX97" s="13">
-        <v>425938776</v>
+        <v>432750000</v>
       </c>
       <c r="AY97" s="13">
-        <v>432750000</v>
+        <v>424138614</v>
       </c>
       <c r="AZ97" s="13">
-        <v>424138614</v>
+        <v>420300000</v>
       </c>
       <c r="BA97" s="13">
-        <v>420300000</v>
+        <v>416515723</v>
       </c>
       <c r="BB97" s="13">
-        <v>416515723</v>
+        <v>414907514</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12856,95 +12856,95 @@
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>58</v>
+      <c r="Y98" s="11">
+        <v>88957265</v>
       </c>
       <c r="Z98" s="11">
-        <v>88957265</v>
+        <v>88303371</v>
       </c>
       <c r="AA98" s="11">
-        <v>88303371</v>
+        <v>92010417</v>
       </c>
       <c r="AB98" s="11">
-        <v>92010417</v>
+        <v>88484277</v>
       </c>
       <c r="AC98" s="11">
-        <v>88484277</v>
+        <v>92777778</v>
       </c>
       <c r="AD98" s="11">
-        <v>92777778</v>
+        <v>87269767</v>
       </c>
       <c r="AE98" s="11">
-        <v>87269767</v>
+        <v>88493333</v>
       </c>
       <c r="AF98" s="11">
-        <v>88493333</v>
+        <v>84689498</v>
       </c>
       <c r="AG98" s="11">
-        <v>84689498</v>
+        <v>83967871</v>
       </c>
       <c r="AH98" s="11">
-        <v>83967871</v>
+        <v>87125926</v>
       </c>
       <c r="AI98" s="11">
-        <v>87125926</v>
+        <v>88044843</v>
       </c>
       <c r="AJ98" s="11">
-        <v>88044843</v>
+        <v>82687783</v>
       </c>
       <c r="AK98" s="11">
-        <v>82687783</v>
+        <v>84171930</v>
       </c>
       <c r="AL98" s="11">
-        <v>84171930</v>
+        <v>85742268</v>
       </c>
       <c r="AM98" s="11">
-        <v>85742268</v>
+        <v>84846154</v>
       </c>
       <c r="AN98" s="11">
-        <v>84846154</v>
+        <v>84528571</v>
       </c>
       <c r="AO98" s="11">
-        <v>84528571</v>
+        <v>84539474</v>
       </c>
       <c r="AP98" s="11">
-        <v>84539474</v>
+        <v>83921642</v>
       </c>
       <c r="AQ98" s="11">
-        <v>83921642</v>
+        <v>84449541</v>
       </c>
       <c r="AR98" s="11">
-        <v>84449541</v>
+        <v>84525692</v>
       </c>
       <c r="AS98" s="11">
-        <v>84525692</v>
+        <v>85622093</v>
       </c>
       <c r="AT98" s="11">
-        <v>85622093</v>
-      </c>
-      <c r="AU98" s="11">
         <v>82755556</v>
       </c>
-      <c r="AV98" s="11" t="s">
-        <v>58</v>
+      <c r="AU98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV98" s="11">
+        <v>229466667</v>
       </c>
       <c r="AW98" s="11">
-        <v>229466667</v>
+        <v>228721106</v>
       </c>
       <c r="AX98" s="11">
-        <v>228721106</v>
+        <v>229384106</v>
       </c>
       <c r="AY98" s="11">
-        <v>229384106</v>
+        <v>228640138</v>
       </c>
       <c r="AZ98" s="11">
-        <v>228640138</v>
+        <v>227055777</v>
       </c>
       <c r="BA98" s="11">
-        <v>227055777</v>
+        <v>226321311</v>
       </c>
       <c r="BB98" s="11">
-        <v>226321311</v>
+        <v>226618557</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13015,95 +13015,95 @@
       <c r="X99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="13" t="s">
-        <v>58</v>
+      <c r="Y99" s="13">
+        <v>252000000</v>
       </c>
       <c r="Z99" s="13">
-        <v>252000000</v>
+        <v>193571429</v>
       </c>
       <c r="AA99" s="13">
-        <v>193571429</v>
+        <v>174384615</v>
       </c>
       <c r="AB99" s="13">
-        <v>174384615</v>
+        <v>250637363</v>
       </c>
       <c r="AC99" s="13">
-        <v>250637363</v>
+        <v>274037037</v>
       </c>
       <c r="AD99" s="13">
-        <v>274037037</v>
+        <v>247843373</v>
       </c>
       <c r="AE99" s="13">
-        <v>247843373</v>
+        <v>252646341</v>
       </c>
       <c r="AF99" s="13">
-        <v>252646341</v>
+        <v>247940171</v>
       </c>
       <c r="AG99" s="13">
-        <v>247940171</v>
+        <v>247210084</v>
       </c>
       <c r="AH99" s="13">
-        <v>247210084</v>
+        <v>238773585</v>
       </c>
       <c r="AI99" s="13">
-        <v>238773585</v>
+        <v>243632353</v>
       </c>
       <c r="AJ99" s="13">
-        <v>243632353</v>
+        <v>231551724</v>
       </c>
       <c r="AK99" s="13">
-        <v>231551724</v>
+        <v>266609091</v>
       </c>
       <c r="AL99" s="13">
-        <v>266609091</v>
+        <v>266590909</v>
       </c>
       <c r="AM99" s="13">
-        <v>266590909</v>
+        <v>270448276</v>
       </c>
       <c r="AN99" s="13">
-        <v>270448276</v>
+        <v>270947368</v>
       </c>
       <c r="AO99" s="13">
-        <v>270947368</v>
+        <v>258913043</v>
       </c>
       <c r="AP99" s="13">
-        <v>258913043</v>
+        <v>269947368</v>
       </c>
       <c r="AQ99" s="13">
-        <v>269947368</v>
+        <v>262175000</v>
       </c>
       <c r="AR99" s="13">
-        <v>262175000</v>
+        <v>256437500</v>
       </c>
       <c r="AS99" s="13">
-        <v>256437500</v>
-      </c>
-      <c r="AT99" s="13">
         <v>266215686</v>
       </c>
-      <c r="AU99" s="13" t="s">
-        <v>58</v>
+      <c r="AT99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU99" s="13">
+        <v>322000000</v>
       </c>
       <c r="AV99" s="13">
-        <v>322000000</v>
+        <v>703603448</v>
       </c>
       <c r="AW99" s="13">
-        <v>703603448</v>
+        <v>709033333</v>
       </c>
       <c r="AX99" s="13">
-        <v>709033333</v>
+        <v>715222222</v>
       </c>
       <c r="AY99" s="13">
-        <v>715222222</v>
+        <v>706731707</v>
       </c>
       <c r="AZ99" s="13">
-        <v>706731707</v>
+        <v>680384615</v>
       </c>
       <c r="BA99" s="13">
-        <v>680384615</v>
+        <v>697000000</v>
       </c>
       <c r="BB99" s="13">
-        <v>697000000</v>
+        <v>683333333</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13174,95 +13174,95 @@
       <c r="X100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>58</v>
+      <c r="Y100" s="11">
+        <v>105448980</v>
       </c>
       <c r="Z100" s="11">
-        <v>105448980</v>
+        <v>92415385</v>
       </c>
       <c r="AA100" s="11">
-        <v>92415385</v>
+        <v>101081395</v>
       </c>
       <c r="AB100" s="11">
-        <v>101081395</v>
+        <v>109110092</v>
       </c>
       <c r="AC100" s="11">
-        <v>109110092</v>
+        <v>119889952</v>
       </c>
       <c r="AD100" s="11">
-        <v>119889952</v>
+        <v>117469841</v>
       </c>
       <c r="AE100" s="11">
-        <v>117469841</v>
+        <v>108667785</v>
       </c>
       <c r="AF100" s="11">
-        <v>108667785</v>
+        <v>100561837</v>
       </c>
       <c r="AG100" s="11">
-        <v>100561837</v>
+        <v>106968085</v>
       </c>
       <c r="AH100" s="11">
-        <v>106968085</v>
+        <v>105689944</v>
       </c>
       <c r="AI100" s="11">
-        <v>105689944</v>
+        <v>107872404</v>
       </c>
       <c r="AJ100" s="11">
-        <v>107872404</v>
+        <v>98668750</v>
       </c>
       <c r="AK100" s="11">
-        <v>98668750</v>
+        <v>114812500</v>
       </c>
       <c r="AL100" s="11">
-        <v>114812500</v>
+        <v>120220690</v>
       </c>
       <c r="AM100" s="11">
-        <v>120220690</v>
+        <v>118424615</v>
       </c>
       <c r="AN100" s="11">
-        <v>118424615</v>
+        <v>118452899</v>
       </c>
       <c r="AO100" s="11">
-        <v>118452899</v>
+        <v>119740506</v>
       </c>
       <c r="AP100" s="11">
-        <v>119740506</v>
+        <v>117710366</v>
       </c>
       <c r="AQ100" s="11">
-        <v>117710366</v>
+        <v>120877500</v>
       </c>
       <c r="AR100" s="11">
-        <v>120877500</v>
+        <v>124472934</v>
       </c>
       <c r="AS100" s="11">
-        <v>124472934</v>
+        <v>125805471</v>
       </c>
       <c r="AT100" s="11">
-        <v>125805471</v>
+        <v>91000000</v>
       </c>
       <c r="AU100" s="11">
-        <v>91000000</v>
+        <v>334943590</v>
       </c>
       <c r="AV100" s="11">
-        <v>334943590</v>
+        <v>334013559</v>
       </c>
       <c r="AW100" s="11">
-        <v>334013559</v>
+        <v>338119718</v>
       </c>
       <c r="AX100" s="11">
-        <v>338119718</v>
+        <v>326130233</v>
       </c>
       <c r="AY100" s="11">
-        <v>326130233</v>
+        <v>327574899</v>
       </c>
       <c r="AZ100" s="11">
-        <v>327574899</v>
+        <v>323173913</v>
       </c>
       <c r="BA100" s="11">
-        <v>323173913</v>
+        <v>325248201</v>
       </c>
       <c r="BB100" s="11">
-        <v>325248201</v>
+        <v>318883117</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13417,68 +13417,68 @@
       <c r="AG102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH102" s="11" t="s">
-        <v>58</v>
+      <c r="AH102" s="11">
+        <v>98247683</v>
       </c>
       <c r="AI102" s="11">
-        <v>98247683</v>
+        <v>95752552</v>
       </c>
       <c r="AJ102" s="11">
-        <v>95752552</v>
+        <v>94102222</v>
       </c>
       <c r="AK102" s="11">
-        <v>94102222</v>
+        <v>97221574</v>
       </c>
       <c r="AL102" s="11">
-        <v>97221574</v>
+        <v>98163225</v>
       </c>
       <c r="AM102" s="11">
-        <v>98163225</v>
+        <v>117396973</v>
       </c>
       <c r="AN102" s="11">
-        <v>117396973</v>
+        <v>110072235</v>
       </c>
       <c r="AO102" s="11">
-        <v>110072235</v>
+        <v>94510612</v>
       </c>
       <c r="AP102" s="11">
-        <v>94510612</v>
+        <v>93830178</v>
       </c>
       <c r="AQ102" s="11">
-        <v>93830178</v>
+        <v>96793231</v>
       </c>
       <c r="AR102" s="11">
-        <v>96793231</v>
+        <v>90573024</v>
       </c>
       <c r="AS102" s="11">
-        <v>90573024</v>
+        <v>88953932</v>
       </c>
       <c r="AT102" s="11">
-        <v>88953932</v>
+        <v>85933333</v>
       </c>
       <c r="AU102" s="11">
-        <v>85933333</v>
+        <v>87622754</v>
       </c>
       <c r="AV102" s="11">
-        <v>87622754</v>
+        <v>108140506</v>
       </c>
       <c r="AW102" s="11">
-        <v>108140506</v>
+        <v>96173516</v>
       </c>
       <c r="AX102" s="11">
-        <v>96173516</v>
+        <v>193769737</v>
       </c>
       <c r="AY102" s="11">
-        <v>193769737</v>
+        <v>192521158</v>
       </c>
       <c r="AZ102" s="11">
-        <v>192521158</v>
+        <v>184177370</v>
       </c>
       <c r="BA102" s="11">
-        <v>184177370</v>
+        <v>172569362</v>
       </c>
       <c r="BB102" s="11">
-        <v>172569362</v>
+        <v>168675174</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13576,68 +13576,68 @@
       <c r="AG103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH103" s="13" t="s">
-        <v>58</v>
+      <c r="AH103" s="13">
+        <v>100849462</v>
       </c>
       <c r="AI103" s="13">
-        <v>100849462</v>
+        <v>96966102</v>
       </c>
       <c r="AJ103" s="13">
-        <v>96966102</v>
+        <v>93867470</v>
       </c>
       <c r="AK103" s="13">
-        <v>93867470</v>
+        <v>98621538</v>
       </c>
       <c r="AL103" s="13">
-        <v>98621538</v>
+        <v>97199161</v>
       </c>
       <c r="AM103" s="13">
-        <v>97199161</v>
+        <v>109890467</v>
       </c>
       <c r="AN103" s="13">
-        <v>109890467</v>
+        <v>122892063</v>
       </c>
       <c r="AO103" s="13">
-        <v>122892063</v>
+        <v>104984496</v>
       </c>
       <c r="AP103" s="13">
-        <v>104984496</v>
+        <v>95041322</v>
       </c>
       <c r="AQ103" s="13">
-        <v>95041322</v>
+        <v>101628268</v>
       </c>
       <c r="AR103" s="13">
-        <v>101628268</v>
+        <v>100471822</v>
       </c>
       <c r="AS103" s="13">
-        <v>100471822</v>
+        <v>93199333</v>
       </c>
       <c r="AT103" s="13">
-        <v>93199333</v>
-      </c>
-      <c r="AU103" s="13">
         <v>87421488</v>
       </c>
-      <c r="AV103" s="13" t="s">
-        <v>58</v>
+      <c r="AU103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV103" s="13">
+        <v>114359477</v>
       </c>
       <c r="AW103" s="13">
-        <v>114359477</v>
+        <v>95939850</v>
       </c>
       <c r="AX103" s="13">
-        <v>95939850</v>
+        <v>126763587</v>
       </c>
       <c r="AY103" s="13">
-        <v>126763587</v>
+        <v>181358548</v>
       </c>
       <c r="AZ103" s="13">
-        <v>181358548</v>
+        <v>188901786</v>
       </c>
       <c r="BA103" s="13">
-        <v>188901786</v>
+        <v>167895449</v>
       </c>
       <c r="BB103" s="13">
-        <v>167895449</v>
+        <v>168615619</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -13735,68 +13735,68 @@
       <c r="AG104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI104" s="11">
+      <c r="AH104" s="11">
         <v>235750000</v>
       </c>
-      <c r="AJ104" s="11" t="s">
-        <v>58</v>
+      <c r="AI104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ104" s="11">
+        <v>308857143</v>
       </c>
       <c r="AK104" s="11">
-        <v>308857143</v>
+        <v>256250000</v>
       </c>
       <c r="AL104" s="11">
-        <v>256250000</v>
+        <v>274347826</v>
       </c>
       <c r="AM104" s="11">
-        <v>274347826</v>
+        <v>253250000</v>
       </c>
       <c r="AN104" s="11">
-        <v>253250000</v>
+        <v>264400000</v>
       </c>
       <c r="AO104" s="11">
-        <v>264400000</v>
+        <v>104181818</v>
       </c>
       <c r="AP104" s="11">
-        <v>104181818</v>
+        <v>84000000</v>
       </c>
       <c r="AQ104" s="11">
-        <v>84000000</v>
+        <v>326461538</v>
       </c>
       <c r="AR104" s="11">
-        <v>326461538</v>
+        <v>291521739</v>
       </c>
       <c r="AS104" s="11">
-        <v>291521739</v>
+        <v>286596774</v>
       </c>
       <c r="AT104" s="11">
-        <v>286596774</v>
-      </c>
-      <c r="AU104" s="11">
         <v>77000000</v>
       </c>
+      <c r="AU104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW104" s="11" t="s">
-        <v>58</v>
+      <c r="AW104" s="11">
+        <v>96000000</v>
       </c>
       <c r="AX104" s="11">
-        <v>96000000</v>
+        <v>54000000</v>
       </c>
       <c r="AY104" s="11">
-        <v>54000000</v>
+        <v>220000000</v>
       </c>
       <c r="AZ104" s="11">
-        <v>220000000</v>
+        <v>282000000</v>
       </c>
       <c r="BA104" s="11">
-        <v>282000000</v>
+        <v>317000000</v>
       </c>
       <c r="BB104" s="11">
-        <v>317000000</v>
+        <v>393000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghezar/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7CFBBF-7A30-4DEC-AF0C-B6115FC6F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7A67E-5B8C-468A-9AD9-31462E97630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -790,12 +790,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -850,7 +850,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1019,7 +1019,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1519,104 +1519,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>731</v>
+      </c>
+      <c r="X11" s="11">
+        <v>723</v>
       </c>
       <c r="Y11" s="11">
-        <v>731</v>
+        <v>618</v>
       </c>
       <c r="Z11" s="11">
-        <v>723</v>
+        <v>1158</v>
       </c>
       <c r="AA11" s="11">
-        <v>618</v>
+        <v>450</v>
       </c>
       <c r="AB11" s="11">
-        <v>1158</v>
+        <v>298</v>
       </c>
       <c r="AC11" s="11">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AD11" s="11">
-        <v>298</v>
+        <v>679</v>
       </c>
       <c r="AE11" s="11">
-        <v>434</v>
+        <v>851</v>
       </c>
       <c r="AF11" s="11">
-        <v>679</v>
+        <v>300</v>
       </c>
       <c r="AG11" s="11">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="AH11" s="11">
-        <v>300</v>
+        <v>709</v>
       </c>
       <c r="AI11" s="11">
-        <v>767</v>
+        <v>284</v>
       </c>
       <c r="AJ11" s="11">
-        <v>709</v>
+        <v>181</v>
       </c>
       <c r="AK11" s="11">
-        <v>284</v>
+        <v>570</v>
       </c>
       <c r="AL11" s="11">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="AM11" s="11">
-        <v>570</v>
+        <v>288</v>
       </c>
       <c r="AN11" s="11">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="AO11" s="11">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="AP11" s="11">
-        <v>315</v>
+        <v>478</v>
       </c>
       <c r="AQ11" s="11">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="AR11" s="11">
-        <v>478</v>
+        <v>153</v>
       </c>
       <c r="AS11" s="11">
-        <v>464</v>
+        <v>575</v>
       </c>
       <c r="AT11" s="11">
-        <v>153</v>
+        <v>918</v>
       </c>
       <c r="AU11" s="11">
-        <v>575</v>
+        <v>747</v>
       </c>
       <c r="AV11" s="11">
-        <v>918</v>
+        <v>725</v>
       </c>
       <c r="AW11" s="11">
-        <v>747</v>
+        <v>396</v>
       </c>
       <c r="AX11" s="11">
+        <v>439</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>600</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>565</v>
+      </c>
+      <c r="BA11" s="11">
         <v>725</v>
       </c>
-      <c r="AY11" s="11">
-        <v>396</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>439</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>600</v>
-      </c>
       <c r="BB11" s="11">
-        <v>565</v>
+        <v>811</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1678,104 +1678,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>11</v>
+      </c>
+      <c r="X12" s="13">
+        <v>12</v>
       </c>
       <c r="Y12" s="13">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AC12" s="13">
         <v>11</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="AD12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>41</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>11</v>
+      </c>
+      <c r="AJ12" s="13">
         <v>12</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AK12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>13</v>
+      </c>
+      <c r="AN12" s="13">
         <v>12</v>
       </c>
-      <c r="AB12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>41</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>9</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>9</v>
-      </c>
       <c r="AO12" s="13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AP12" s="13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AQ12" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR12" s="13">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AS12" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AT12" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="13">
         <v>3</v>
       </c>
       <c r="AV12" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB12" s="13">
         <v>5</v>
       </c>
-      <c r="AY12" s="13">
-        <v>2</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>2</v>
-      </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1837,104 +1837,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>16832</v>
+      </c>
+      <c r="X13" s="11">
+        <v>15223</v>
       </c>
       <c r="Y13" s="11">
-        <v>16832</v>
+        <v>14701</v>
       </c>
       <c r="Z13" s="11">
-        <v>15223</v>
+        <v>16461</v>
       </c>
       <c r="AA13" s="11">
-        <v>14701</v>
+        <v>20511</v>
       </c>
       <c r="AB13" s="11">
-        <v>16461</v>
+        <v>14290</v>
       </c>
       <c r="AC13" s="11">
-        <v>20511</v>
+        <v>13776</v>
       </c>
       <c r="AD13" s="11">
-        <v>14290</v>
+        <v>13012</v>
       </c>
       <c r="AE13" s="11">
-        <v>13776</v>
+        <v>15131</v>
       </c>
       <c r="AF13" s="11">
-        <v>13012</v>
+        <v>5265</v>
       </c>
       <c r="AG13" s="11">
-        <v>15131</v>
+        <v>13388</v>
       </c>
       <c r="AH13" s="11">
-        <v>5265</v>
+        <v>19316</v>
       </c>
       <c r="AI13" s="11">
-        <v>13388</v>
+        <v>17826</v>
       </c>
       <c r="AJ13" s="11">
-        <v>19316</v>
+        <v>18131</v>
       </c>
       <c r="AK13" s="11">
-        <v>17826</v>
+        <v>12233</v>
       </c>
       <c r="AL13" s="11">
-        <v>18131</v>
+        <v>11402</v>
       </c>
       <c r="AM13" s="11">
-        <v>12233</v>
+        <v>15418</v>
       </c>
       <c r="AN13" s="11">
-        <v>11402</v>
+        <v>12006</v>
       </c>
       <c r="AO13" s="11">
-        <v>15418</v>
+        <v>12286</v>
       </c>
       <c r="AP13" s="11">
-        <v>12006</v>
+        <v>9342</v>
       </c>
       <c r="AQ13" s="11">
-        <v>12286</v>
+        <v>10583</v>
       </c>
       <c r="AR13" s="11">
-        <v>9342</v>
+        <v>943</v>
       </c>
       <c r="AS13" s="11">
-        <v>10583</v>
+        <v>11691</v>
       </c>
       <c r="AT13" s="11">
-        <v>943</v>
+        <v>13437</v>
       </c>
       <c r="AU13" s="11">
-        <v>11691</v>
+        <v>7517</v>
       </c>
       <c r="AV13" s="11">
-        <v>13437</v>
+        <v>6414</v>
       </c>
       <c r="AW13" s="11">
-        <v>7517</v>
+        <v>6984</v>
       </c>
       <c r="AX13" s="11">
-        <v>6414</v>
+        <v>5785</v>
       </c>
       <c r="AY13" s="11">
-        <v>6984</v>
+        <v>12055</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5785</v>
+        <v>7457</v>
       </c>
       <c r="BA13" s="11">
-        <v>12055</v>
+        <v>8327</v>
       </c>
       <c r="BB13" s="11">
-        <v>7457</v>
+        <v>14880</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1996,104 +1996,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>3844</v>
+      </c>
+      <c r="X14" s="13">
+        <v>2602</v>
       </c>
       <c r="Y14" s="13">
-        <v>3844</v>
+        <v>3052</v>
       </c>
       <c r="Z14" s="13">
-        <v>2602</v>
+        <v>2912</v>
       </c>
       <c r="AA14" s="13">
-        <v>3052</v>
+        <v>4109</v>
       </c>
       <c r="AB14" s="13">
-        <v>2912</v>
+        <v>3265</v>
       </c>
       <c r="AC14" s="13">
-        <v>4109</v>
+        <v>3210</v>
       </c>
       <c r="AD14" s="13">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="AE14" s="13">
-        <v>3210</v>
+        <v>3041</v>
       </c>
       <c r="AF14" s="13">
-        <v>3268</v>
+        <v>1139</v>
       </c>
       <c r="AG14" s="13">
-        <v>3041</v>
+        <v>2752</v>
       </c>
       <c r="AH14" s="13">
-        <v>1139</v>
+        <v>2340</v>
       </c>
       <c r="AI14" s="13">
-        <v>2752</v>
+        <v>2840</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2340</v>
+        <v>2910</v>
       </c>
       <c r="AK14" s="13">
-        <v>2840</v>
+        <v>3269</v>
       </c>
       <c r="AL14" s="13">
-        <v>2910</v>
+        <v>4102</v>
       </c>
       <c r="AM14" s="13">
-        <v>3269</v>
+        <v>3082</v>
       </c>
       <c r="AN14" s="13">
-        <v>4102</v>
+        <v>3793</v>
       </c>
       <c r="AO14" s="13">
-        <v>3082</v>
+        <v>2875</v>
       </c>
       <c r="AP14" s="13">
-        <v>3793</v>
+        <v>2964</v>
       </c>
       <c r="AQ14" s="13">
-        <v>2875</v>
+        <v>3135</v>
       </c>
       <c r="AR14" s="13">
-        <v>2964</v>
+        <v>53</v>
       </c>
       <c r="AS14" s="13">
-        <v>3135</v>
+        <v>2604</v>
       </c>
       <c r="AT14" s="13">
-        <v>53</v>
+        <v>4234</v>
       </c>
       <c r="AU14" s="13">
-        <v>2604</v>
+        <v>2562</v>
       </c>
       <c r="AV14" s="13">
-        <v>4234</v>
+        <v>2111</v>
       </c>
       <c r="AW14" s="13">
-        <v>2562</v>
+        <v>2404</v>
       </c>
       <c r="AX14" s="13">
-        <v>2111</v>
+        <v>2003</v>
       </c>
       <c r="AY14" s="13">
-        <v>2404</v>
+        <v>1917</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2003</v>
+        <v>3834</v>
       </c>
       <c r="BA14" s="13">
-        <v>1917</v>
+        <v>2756</v>
       </c>
       <c r="BB14" s="13">
-        <v>3834</v>
+        <v>3454</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2155,104 +2155,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>234</v>
+      </c>
+      <c r="X15" s="11">
+        <v>228</v>
       </c>
       <c r="Y15" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Z15" s="11">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AA15" s="11">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB15" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AC15" s="11">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AD15" s="11">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AE15" s="11">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="AF15" s="11">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="AG15" s="11">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AH15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>205</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>197</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>211</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>224</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>201</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>169</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>127</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>156</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11">
         <v>118</v>
       </c>
-      <c r="AI15" s="11">
-        <v>217</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>205</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>200</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>197</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>211</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>224</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>201</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>127</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>156</v>
-      </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AU15" s="11">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="AV15" s="11">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="AW15" s="11">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="AX15" s="11">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="AY15" s="11">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="AZ15" s="11">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="BA15" s="11">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="BB15" s="11">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2314,104 +2314,104 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>318</v>
+      </c>
+      <c r="X16" s="13">
+        <v>144</v>
       </c>
       <c r="Y16" s="13">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="Z16" s="13">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="AA16" s="13">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB16" s="13">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="AC16" s="13">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="AD16" s="13">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="AE16" s="13">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="13">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG16" s="13">
+        <v>327</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>127</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>165</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>179</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>151</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>226</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>232</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>230</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>109</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>178</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>186</v>
+      </c>
+      <c r="AV16" s="13">
         <v>68</v>
       </c>
-      <c r="AH16" s="13">
-        <v>133</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>327</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>146</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>127</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>186</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>165</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>179</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>151</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>226</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>232</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>230</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>109</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>178</v>
-      </c>
       <c r="AW16" s="13">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="AX16" s="13">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AY16" s="13">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="AZ16" s="13">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="BA16" s="13">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="BB16" s="13">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2473,104 +2473,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>196</v>
+      </c>
+      <c r="X17" s="11">
+        <v>75</v>
       </c>
       <c r="Y17" s="11">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="Z17" s="11">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AA17" s="11">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AB17" s="11">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="AC17" s="11">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="AD17" s="11">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="AE17" s="11">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="AF17" s="11">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="AG17" s="11">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AH17" s="11">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="AI17" s="11">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AJ17" s="11">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AK17" s="11">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="AL17" s="11">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AM17" s="11">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="AN17" s="11">
+        <v>338</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>221</v>
+      </c>
+      <c r="AP17" s="11">
         <v>194</v>
       </c>
-      <c r="AO17" s="11">
-        <v>144</v>
-      </c>
-      <c r="AP17" s="11">
-        <v>338</v>
-      </c>
       <c r="AQ17" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR17" s="11">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="AV17" s="11">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="AW17" s="11">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="AX17" s="11">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="AY17" s="11">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="AZ17" s="11">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="BA17" s="11">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="BB17" s="11">
-        <v>256</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2632,104 +2632,104 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>119</v>
+      </c>
+      <c r="X18" s="13">
+        <v>50</v>
       </c>
       <c r="Y18" s="13">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="Z18" s="13">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>61</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>141</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>116</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>40</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>38</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>82</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>84</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>29</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>17</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>44</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>45</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>49</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>66</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>77</v>
+      </c>
+      <c r="AV18" s="13">
         <v>50</v>
       </c>
-      <c r="AA18" s="13">
-        <v>46</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>86</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>25</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>141</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>116</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AJ18" s="13">
+      <c r="AW18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AX18" s="13">
         <v>40</v>
       </c>
-      <c r="AK18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>38</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>82</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>84</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>29</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>17</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>44</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>49</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>66</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>77</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>50</v>
-      </c>
       <c r="AY18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AZ18" s="13">
         <v>23</v>
       </c>
-      <c r="AZ18" s="13">
-        <v>40</v>
-      </c>
       <c r="BA18" s="13">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="BB18" s="13">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2791,104 +2791,104 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>97</v>
       </c>
       <c r="Y19" s="11">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="Z19" s="11">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="AA19" s="11">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AB19" s="11">
-        <v>261</v>
+        <v>466</v>
       </c>
       <c r="AC19" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AD19" s="11">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="AE19" s="11">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="AF19" s="11">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="AG19" s="11">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="AH19" s="11">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="AI19" s="11">
-        <v>552</v>
+        <v>184</v>
       </c>
       <c r="AJ19" s="11">
-        <v>133</v>
+        <v>465</v>
       </c>
       <c r="AK19" s="11">
+        <v>438</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>277</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>366</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>428</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>453</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>377</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>373</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>11</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>226</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>310</v>
+      </c>
+      <c r="AU19" s="11">
         <v>184</v>
       </c>
-      <c r="AL19" s="11">
-        <v>465</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>438</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>277</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>366</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>428</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>453</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>377</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>373</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>11</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>226</v>
-      </c>
       <c r="AV19" s="11">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="AW19" s="11">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="AX19" s="11">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="AY19" s="11">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AZ19" s="11">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="BA19" s="11">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="BB19" s="11">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2949,103 +2949,103 @@
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="X20" s="15">
-        <v>0</v>
+        <v>19154</v>
       </c>
       <c r="Y20" s="15">
-        <v>22285</v>
+        <v>19141</v>
       </c>
       <c r="Z20" s="15">
-        <v>19154</v>
+        <v>21411</v>
       </c>
       <c r="AA20" s="15">
-        <v>19141</v>
+        <v>25840</v>
       </c>
       <c r="AB20" s="15">
-        <v>21411</v>
+        <v>19052</v>
       </c>
       <c r="AC20" s="15">
-        <v>25840</v>
+        <v>18369</v>
       </c>
       <c r="AD20" s="15">
-        <v>19052</v>
+        <v>18065</v>
       </c>
       <c r="AE20" s="15">
-        <v>18369</v>
+        <v>20108</v>
       </c>
       <c r="AF20" s="15">
-        <v>18065</v>
+        <v>7346</v>
       </c>
       <c r="AG20" s="15">
-        <v>20108</v>
+        <v>18316</v>
       </c>
       <c r="AH20" s="15">
-        <v>7346</v>
+        <v>23054</v>
       </c>
       <c r="AI20" s="15">
-        <v>18316</v>
+        <v>21705</v>
       </c>
       <c r="AJ20" s="15">
-        <v>23054</v>
+        <v>22138</v>
       </c>
       <c r="AK20" s="15">
-        <v>21705</v>
+        <v>17288</v>
       </c>
       <c r="AL20" s="15">
-        <v>22138</v>
+        <v>16558</v>
       </c>
       <c r="AM20" s="15">
-        <v>17288</v>
+        <v>19743</v>
       </c>
       <c r="AN20" s="15">
-        <v>16558</v>
+        <v>17261</v>
       </c>
       <c r="AO20" s="15">
-        <v>19743</v>
+        <v>16671</v>
       </c>
       <c r="AP20" s="15">
-        <v>17261</v>
+        <v>13788</v>
       </c>
       <c r="AQ20" s="15">
-        <v>16671</v>
+        <v>15229</v>
       </c>
       <c r="AR20" s="15">
-        <v>13788</v>
+        <v>1163</v>
       </c>
       <c r="AS20" s="15">
-        <v>15229</v>
+        <v>15326</v>
       </c>
       <c r="AT20" s="15">
-        <v>1163</v>
+        <v>19559</v>
       </c>
       <c r="AU20" s="15">
-        <v>15326</v>
+        <v>11859</v>
       </c>
       <c r="AV20" s="15">
-        <v>19559</v>
+        <v>10097</v>
       </c>
       <c r="AW20" s="15">
-        <v>11859</v>
+        <v>10757</v>
       </c>
       <c r="AX20" s="15">
-        <v>10097</v>
+        <v>9055</v>
       </c>
       <c r="AY20" s="15">
-        <v>10757</v>
+        <v>15247</v>
       </c>
       <c r="AZ20" s="15">
-        <v>9055</v>
+        <v>12705</v>
       </c>
       <c r="BA20" s="15">
-        <v>15247</v>
+        <v>12657</v>
       </c>
       <c r="BB20" s="15">
-        <v>12705</v>
+        <v>20167</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>69</v>
       </c>
@@ -3191,17 +3191,17 @@
       <c r="AE22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="11">
-        <v>0</v>
+      <c r="AF22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>58</v>
@@ -3215,11 +3215,11 @@
       <c r="AM22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="11" t="s">
-        <v>58</v>
+      <c r="AN22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="11">
+        <v>0</v>
       </c>
       <c r="AP22" s="11">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>70</v>
       </c>
@@ -3350,77 +3350,77 @@
       <c r="AE23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>58</v>
+      <c r="AF23" s="13">
+        <v>1349</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>4198</v>
       </c>
       <c r="AH23" s="13">
-        <v>1349</v>
+        <v>355</v>
       </c>
       <c r="AI23" s="13">
-        <v>4198</v>
+        <v>524</v>
       </c>
       <c r="AJ23" s="13">
-        <v>355</v>
+        <v>1088</v>
       </c>
       <c r="AK23" s="13">
-        <v>524</v>
+        <v>2991</v>
       </c>
       <c r="AL23" s="13">
-        <v>1088</v>
+        <v>797</v>
       </c>
       <c r="AM23" s="13">
-        <v>2991</v>
+        <v>3403</v>
       </c>
       <c r="AN23" s="13">
-        <v>797</v>
+        <v>5451</v>
       </c>
       <c r="AO23" s="13">
-        <v>3403</v>
+        <v>2065</v>
       </c>
       <c r="AP23" s="13">
-        <v>5451</v>
+        <v>2035</v>
       </c>
       <c r="AQ23" s="13">
-        <v>2065</v>
+        <v>4308</v>
       </c>
       <c r="AR23" s="13">
-        <v>2035</v>
+        <v>477</v>
       </c>
       <c r="AS23" s="13">
-        <v>4308</v>
+        <v>969</v>
       </c>
       <c r="AT23" s="13">
-        <v>477</v>
+        <v>913</v>
       </c>
       <c r="AU23" s="13">
-        <v>969</v>
+        <v>2068</v>
       </c>
       <c r="AV23" s="13">
-        <v>913</v>
+        <v>181</v>
       </c>
       <c r="AW23" s="13">
-        <v>2068</v>
+        <v>443</v>
       </c>
       <c r="AX23" s="13">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="AY23" s="13">
-        <v>443</v>
+        <v>1446</v>
       </c>
       <c r="AZ23" s="13">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="BA23" s="13">
-        <v>1446</v>
+        <v>106</v>
       </c>
       <c r="BB23" s="13">
-        <v>839</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
@@ -3509,77 +3509,77 @@
       <c r="AE24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>58</v>
+      <c r="AF24" s="11">
+        <v>194</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>477</v>
       </c>
       <c r="AH24" s="11">
-        <v>194</v>
+        <v>482</v>
       </c>
       <c r="AI24" s="11">
-        <v>477</v>
+        <v>210</v>
       </c>
       <c r="AJ24" s="11">
-        <v>482</v>
+        <v>641</v>
       </c>
       <c r="AK24" s="11">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="AL24" s="11">
-        <v>641</v>
+        <v>304</v>
       </c>
       <c r="AM24" s="11">
-        <v>420</v>
+        <v>982</v>
       </c>
       <c r="AN24" s="11">
-        <v>304</v>
+        <v>494</v>
       </c>
       <c r="AO24" s="11">
-        <v>982</v>
+        <v>1338</v>
       </c>
       <c r="AP24" s="11">
-        <v>494</v>
+        <v>771</v>
       </c>
       <c r="AQ24" s="11">
-        <v>1338</v>
+        <v>1063</v>
       </c>
       <c r="AR24" s="11">
-        <v>771</v>
+        <v>230</v>
       </c>
       <c r="AS24" s="11">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="11">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="AU24" s="11">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="AV24" s="11">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="AW24" s="11">
-        <v>529</v>
+        <v>664</v>
       </c>
       <c r="AX24" s="11">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="AY24" s="11">
-        <v>664</v>
+        <v>2750</v>
       </c>
       <c r="AZ24" s="11">
-        <v>137</v>
+        <v>851</v>
       </c>
       <c r="BA24" s="11">
-        <v>2750</v>
+        <v>121</v>
       </c>
       <c r="BB24" s="11">
-        <v>410</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>72</v>
       </c>
@@ -3668,77 +3668,77 @@
       <c r="AE25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>58</v>
+      <c r="AF25" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>5</v>
       </c>
       <c r="AH25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>21</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>10</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="13">
         <v>13</v>
       </c>
-      <c r="AI25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="13">
+      <c r="AM25" s="13">
+        <v>12</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>15</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="13">
+        <v>102</v>
+      </c>
+      <c r="AQ25" s="13">
+        <v>9</v>
+      </c>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="13">
+        <v>99</v>
+      </c>
+      <c r="AU25" s="13">
+        <v>172</v>
+      </c>
+      <c r="AV25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="13">
         <v>2</v>
-      </c>
-      <c r="AK25" s="13">
-        <v>21</v>
-      </c>
-      <c r="AL25" s="13">
-        <v>10</v>
-      </c>
-      <c r="AM25" s="13">
-        <v>8</v>
-      </c>
-      <c r="AN25" s="13">
-        <v>13</v>
-      </c>
-      <c r="AO25" s="13">
-        <v>12</v>
-      </c>
-      <c r="AP25" s="13">
-        <v>15</v>
-      </c>
-      <c r="AQ25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>102</v>
-      </c>
-      <c r="AS25" s="13">
-        <v>9</v>
-      </c>
-      <c r="AT25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="13">
-        <v>99</v>
-      </c>
-      <c r="AW25" s="13">
-        <v>-79</v>
-      </c>
-      <c r="AX25" s="13">
-        <v>0</v>
       </c>
       <c r="AY25" s="13">
         <v>1</v>
       </c>
       <c r="AZ25" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB25" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
@@ -3826,76 +3826,76 @@
         <v>0</v>
       </c>
       <c r="AF26" s="17">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="AG26" s="17">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="AH26" s="17">
-        <v>1556</v>
+        <v>839</v>
       </c>
       <c r="AI26" s="17">
-        <v>4680</v>
+        <v>755</v>
       </c>
       <c r="AJ26" s="17">
-        <v>839</v>
+        <v>1739</v>
       </c>
       <c r="AK26" s="17">
-        <v>755</v>
+        <v>3419</v>
       </c>
       <c r="AL26" s="17">
-        <v>1739</v>
+        <v>1114</v>
       </c>
       <c r="AM26" s="17">
-        <v>3419</v>
+        <v>4397</v>
       </c>
       <c r="AN26" s="17">
-        <v>1114</v>
+        <v>5960</v>
       </c>
       <c r="AO26" s="17">
-        <v>4397</v>
+        <v>3403</v>
       </c>
       <c r="AP26" s="17">
-        <v>5960</v>
+        <v>2908</v>
       </c>
       <c r="AQ26" s="17">
-        <v>3403</v>
+        <v>5380</v>
       </c>
       <c r="AR26" s="17">
-        <v>2908</v>
+        <v>707</v>
       </c>
       <c r="AS26" s="17">
-        <v>5380</v>
+        <v>969</v>
       </c>
       <c r="AT26" s="17">
-        <v>707</v>
+        <v>1046</v>
       </c>
       <c r="AU26" s="17">
-        <v>969</v>
+        <v>2518</v>
       </c>
       <c r="AV26" s="17">
-        <v>1046</v>
+        <v>413</v>
       </c>
       <c r="AW26" s="17">
-        <v>2518</v>
+        <v>1108</v>
       </c>
       <c r="AX26" s="17">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="AY26" s="17">
-        <v>1108</v>
+        <v>4197</v>
       </c>
       <c r="AZ26" s="17">
-        <v>568</v>
+        <v>1261</v>
       </c>
       <c r="BA26" s="17">
-        <v>4197</v>
+        <v>230</v>
       </c>
       <c r="BB26" s="17">
-        <v>1261</v>
+        <v>1464</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>74</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="BA27" s="19"/>
       <c r="BB27" s="19"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>75</v>
       </c>
@@ -4012,11 +4012,11 @@
       <c r="V28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="17" t="s">
-        <v>58</v>
+      <c r="W28" s="17">
+        <v>0</v>
+      </c>
+      <c r="X28" s="17">
+        <v>0</v>
       </c>
       <c r="Y28" s="17">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>76</v>
       </c>
@@ -4170,103 +4170,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="15">
-        <v>0</v>
+        <v>22285</v>
       </c>
       <c r="X29" s="15">
-        <v>0</v>
+        <v>19154</v>
       </c>
       <c r="Y29" s="15">
-        <v>22285</v>
+        <v>19141</v>
       </c>
       <c r="Z29" s="15">
-        <v>19154</v>
+        <v>21411</v>
       </c>
       <c r="AA29" s="15">
-        <v>19141</v>
+        <v>25840</v>
       </c>
       <c r="AB29" s="15">
-        <v>21411</v>
+        <v>19052</v>
       </c>
       <c r="AC29" s="15">
-        <v>25840</v>
+        <v>18369</v>
       </c>
       <c r="AD29" s="15">
-        <v>19052</v>
+        <v>18065</v>
       </c>
       <c r="AE29" s="15">
-        <v>18369</v>
+        <v>20108</v>
       </c>
       <c r="AF29" s="15">
-        <v>18065</v>
+        <v>8902</v>
       </c>
       <c r="AG29" s="15">
-        <v>20108</v>
+        <v>22996</v>
       </c>
       <c r="AH29" s="15">
-        <v>8902</v>
+        <v>23893</v>
       </c>
       <c r="AI29" s="15">
-        <v>22996</v>
+        <v>22460</v>
       </c>
       <c r="AJ29" s="15">
-        <v>23893</v>
+        <v>23877</v>
       </c>
       <c r="AK29" s="15">
-        <v>22460</v>
+        <v>20707</v>
       </c>
       <c r="AL29" s="15">
-        <v>23877</v>
+        <v>17672</v>
       </c>
       <c r="AM29" s="15">
-        <v>20707</v>
+        <v>24140</v>
       </c>
       <c r="AN29" s="15">
-        <v>17672</v>
+        <v>23221</v>
       </c>
       <c r="AO29" s="15">
-        <v>24140</v>
+        <v>20074</v>
       </c>
       <c r="AP29" s="15">
-        <v>23221</v>
+        <v>16696</v>
       </c>
       <c r="AQ29" s="15">
-        <v>20074</v>
+        <v>20609</v>
       </c>
       <c r="AR29" s="15">
-        <v>16696</v>
+        <v>1870</v>
       </c>
       <c r="AS29" s="15">
-        <v>20609</v>
+        <v>16295</v>
       </c>
       <c r="AT29" s="15">
-        <v>1870</v>
+        <v>20605</v>
       </c>
       <c r="AU29" s="15">
-        <v>16295</v>
+        <v>14377</v>
       </c>
       <c r="AV29" s="15">
-        <v>20605</v>
+        <v>10510</v>
       </c>
       <c r="AW29" s="15">
-        <v>14377</v>
+        <v>11865</v>
       </c>
       <c r="AX29" s="15">
-        <v>10510</v>
+        <v>9623</v>
       </c>
       <c r="AY29" s="15">
-        <v>11865</v>
+        <v>19444</v>
       </c>
       <c r="AZ29" s="15">
-        <v>9623</v>
+        <v>13966</v>
       </c>
       <c r="BA29" s="15">
-        <v>19444</v>
+        <v>12887</v>
       </c>
       <c r="BB29" s="15">
-        <v>13966</v>
+        <v>21631</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4321,7 +4321,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4376,7 +4376,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4431,7 +4431,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4643,7 +4643,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>78</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
@@ -4762,104 +4762,104 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>778</v>
+      </c>
+      <c r="X36" s="11">
+        <v>579</v>
       </c>
       <c r="Y36" s="11">
-        <v>778</v>
+        <v>596</v>
       </c>
       <c r="Z36" s="11">
-        <v>579</v>
+        <v>1031</v>
       </c>
       <c r="AA36" s="11">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="AB36" s="11">
-        <v>1031</v>
+        <v>449</v>
       </c>
       <c r="AC36" s="11">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="AD36" s="11">
-        <v>449</v>
+        <v>623</v>
       </c>
       <c r="AE36" s="11">
-        <v>534</v>
+        <v>838</v>
       </c>
       <c r="AF36" s="11">
-        <v>623</v>
+        <v>207</v>
       </c>
       <c r="AG36" s="11">
-        <v>838</v>
+        <v>522</v>
       </c>
       <c r="AH36" s="11">
-        <v>207</v>
+        <v>690</v>
       </c>
       <c r="AI36" s="11">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="AJ36" s="11">
-        <v>690</v>
+        <v>247</v>
       </c>
       <c r="AK36" s="11">
-        <v>544</v>
+        <v>149</v>
       </c>
       <c r="AL36" s="11">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="AM36" s="11">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="AN36" s="11">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="AO36" s="11">
-        <v>193</v>
+        <v>479</v>
       </c>
       <c r="AP36" s="11">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="AQ36" s="11">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AR36" s="11">
-        <v>398</v>
+        <v>146</v>
       </c>
       <c r="AS36" s="11">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="AT36" s="11">
-        <v>146</v>
+        <v>833</v>
       </c>
       <c r="AU36" s="11">
-        <v>637</v>
+        <v>885</v>
       </c>
       <c r="AV36" s="11">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="AW36" s="11">
-        <v>885</v>
+        <v>513</v>
       </c>
       <c r="AX36" s="11">
-        <v>806</v>
+        <v>440</v>
       </c>
       <c r="AY36" s="11">
-        <v>513</v>
+        <v>608</v>
       </c>
       <c r="AZ36" s="11">
-        <v>440</v>
+        <v>584</v>
       </c>
       <c r="BA36" s="11">
-        <v>608</v>
+        <v>741</v>
       </c>
       <c r="BB36" s="11">
-        <v>584</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
@@ -4921,47 +4921,47 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>7</v>
+      </c>
+      <c r="X37" s="13">
+        <v>3</v>
       </c>
       <c r="Y37" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="13">
         <v>7</v>
       </c>
-      <c r="Z37" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="13">
-        <v>8</v>
-      </c>
       <c r="AB37" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="13">
         <v>5</v>
-      </c>
-      <c r="AC37" s="13">
-        <v>7</v>
       </c>
       <c r="AD37" s="13">
         <v>6</v>
       </c>
       <c r="AE37" s="13">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AF37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="13">
         <v>6</v>
       </c>
-      <c r="AG37" s="13">
-        <v>13</v>
-      </c>
       <c r="AH37" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI37" s="13">
         <v>6</v>
       </c>
       <c r="AJ37" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK37" s="13">
         <v>6</v>
@@ -4970,25 +4970,25 @@
         <v>7</v>
       </c>
       <c r="AM37" s="13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AN37" s="13">
         <v>7</v>
       </c>
       <c r="AO37" s="13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP37" s="13">
         <v>7</v>
       </c>
       <c r="AQ37" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AR37" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="13">
         <v>0</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="AW37" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="13">
         <v>0</v>
       </c>
       <c r="AY37" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="13">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>60</v>
       </c>
@@ -5080,104 +5080,104 @@
       <c r="V38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>58</v>
+      <c r="W38" s="11">
+        <v>13264</v>
+      </c>
+      <c r="X38" s="11">
+        <v>13833</v>
       </c>
       <c r="Y38" s="11">
-        <v>13264</v>
+        <v>11275</v>
       </c>
       <c r="Z38" s="11">
-        <v>13833</v>
+        <v>16972</v>
       </c>
       <c r="AA38" s="11">
-        <v>11275</v>
+        <v>20277</v>
       </c>
       <c r="AB38" s="11">
-        <v>16972</v>
+        <v>9815</v>
       </c>
       <c r="AC38" s="11">
-        <v>20277</v>
+        <v>14661</v>
       </c>
       <c r="AD38" s="11">
-        <v>9815</v>
+        <v>12199</v>
       </c>
       <c r="AE38" s="11">
-        <v>14661</v>
+        <v>14504</v>
       </c>
       <c r="AF38" s="11">
-        <v>12199</v>
+        <v>6813</v>
       </c>
       <c r="AG38" s="11">
-        <v>14504</v>
+        <v>10423</v>
       </c>
       <c r="AH38" s="11">
-        <v>6813</v>
+        <v>22437</v>
       </c>
       <c r="AI38" s="11">
-        <v>10423</v>
+        <v>19668</v>
       </c>
       <c r="AJ38" s="11">
-        <v>22437</v>
+        <v>15370</v>
       </c>
       <c r="AK38" s="11">
-        <v>19668</v>
+        <v>12765</v>
       </c>
       <c r="AL38" s="11">
-        <v>15370</v>
+        <v>10898</v>
       </c>
       <c r="AM38" s="11">
-        <v>12765</v>
+        <v>13579</v>
       </c>
       <c r="AN38" s="11">
-        <v>10898</v>
+        <v>9928</v>
       </c>
       <c r="AO38" s="11">
-        <v>13579</v>
+        <v>11979</v>
       </c>
       <c r="AP38" s="11">
-        <v>9928</v>
+        <v>9617</v>
       </c>
       <c r="AQ38" s="11">
-        <v>11979</v>
+        <v>9553</v>
       </c>
       <c r="AR38" s="11">
-        <v>9617</v>
+        <v>1529</v>
       </c>
       <c r="AS38" s="11">
-        <v>9553</v>
+        <v>11211</v>
       </c>
       <c r="AT38" s="11">
-        <v>1529</v>
+        <v>13159</v>
       </c>
       <c r="AU38" s="11">
-        <v>11211</v>
+        <v>6587</v>
       </c>
       <c r="AV38" s="11">
-        <v>13159</v>
+        <v>5800</v>
       </c>
       <c r="AW38" s="11">
-        <v>6587</v>
+        <v>8431</v>
       </c>
       <c r="AX38" s="11">
-        <v>5800</v>
+        <v>6359</v>
       </c>
       <c r="AY38" s="11">
-        <v>8431</v>
+        <v>10896</v>
       </c>
       <c r="AZ38" s="11">
-        <v>6359</v>
+        <v>8487</v>
       </c>
       <c r="BA38" s="11">
-        <v>10896</v>
+        <v>8498</v>
       </c>
       <c r="BB38" s="11">
-        <v>8487</v>
+        <v>14686</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>61</v>
       </c>
@@ -5239,104 +5239,104 @@
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="W39" s="13">
+        <v>2868</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2396</v>
       </c>
       <c r="Y39" s="13">
-        <v>2868</v>
+        <v>2340</v>
       </c>
       <c r="Z39" s="13">
+        <v>3056</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>4129</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>3129</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>3152</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>3085</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>3132</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>1415</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>2136</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>2727</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>3723</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>2745</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>3453</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>3586</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>3102</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>3229</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>3088</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>2626</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>2974</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>504</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>2423</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>4156</v>
+      </c>
+      <c r="AU39" s="13">
         <v>2396</v>
       </c>
-      <c r="AA39" s="13">
-        <v>2340</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>3056</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>4129</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>3129</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>3152</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>3085</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>3132</v>
-      </c>
-      <c r="AH39" s="13">
-        <v>1415</v>
-      </c>
-      <c r="AI39" s="13">
-        <v>2136</v>
-      </c>
-      <c r="AJ39" s="13">
-        <v>2727</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>3723</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>2745</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>3453</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>3586</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>3229</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>3088</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>2626</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>2974</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>504</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>2423</v>
-      </c>
       <c r="AV39" s="13">
-        <v>4156</v>
+        <v>1966</v>
       </c>
       <c r="AW39" s="13">
-        <v>2396</v>
+        <v>2576</v>
       </c>
       <c r="AX39" s="13">
-        <v>1966</v>
+        <v>2155</v>
       </c>
       <c r="AY39" s="13">
-        <v>2576</v>
+        <v>2250</v>
       </c>
       <c r="AZ39" s="13">
-        <v>2155</v>
+        <v>3549</v>
       </c>
       <c r="BA39" s="13">
-        <v>2250</v>
+        <v>2780</v>
       </c>
       <c r="BB39" s="13">
-        <v>3549</v>
+        <v>3329</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>62</v>
       </c>
@@ -5398,104 +5398,104 @@
       <c r="V40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>58</v>
+      <c r="W40" s="11">
+        <v>206</v>
+      </c>
+      <c r="X40" s="11">
+        <v>196</v>
       </c>
       <c r="Y40" s="11">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="Z40" s="11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AA40" s="11">
+        <v>170</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>199</v>
+      </c>
+      <c r="AC40" s="11">
         <v>192</v>
       </c>
-      <c r="AB40" s="11">
-        <v>208</v>
-      </c>
-      <c r="AC40" s="11">
+      <c r="AD40" s="11">
+        <v>188</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>204</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>101</v>
+      </c>
+      <c r="AG40" s="11">
         <v>170</v>
       </c>
-      <c r="AD40" s="11">
-        <v>199</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>192</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>188</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>204</v>
-      </c>
       <c r="AH40" s="11">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="AI40" s="11">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="AJ40" s="11">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AK40" s="11">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="AL40" s="11">
         <v>184</v>
       </c>
       <c r="AM40" s="11">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="AN40" s="11">
+        <v>179</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>168</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>106</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>127</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>19</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>93</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>151</v>
+      </c>
+      <c r="AU40" s="11">
+        <v>190</v>
+      </c>
+      <c r="AV40" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW40" s="11">
+        <v>120</v>
+      </c>
+      <c r="AX40" s="11">
+        <v>153</v>
+      </c>
+      <c r="AY40" s="11">
+        <v>161</v>
+      </c>
+      <c r="AZ40" s="11">
+        <v>145</v>
+      </c>
+      <c r="BA40" s="11">
+        <v>146</v>
+      </c>
+      <c r="BB40" s="11">
         <v>184</v>
       </c>
-      <c r="AO40" s="11">
-        <v>206</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>179</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>168</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>106</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>127</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>19</v>
-      </c>
-      <c r="AU40" s="11">
-        <v>93</v>
-      </c>
-      <c r="AV40" s="11">
-        <v>151</v>
-      </c>
-      <c r="AW40" s="11">
-        <v>190</v>
-      </c>
-      <c r="AX40" s="11">
-        <v>136</v>
-      </c>
-      <c r="AY40" s="11">
-        <v>120</v>
-      </c>
-      <c r="AZ40" s="11">
-        <v>153</v>
-      </c>
-      <c r="BA40" s="11">
-        <v>161</v>
-      </c>
-      <c r="BB40" s="11">
-        <v>145</v>
-      </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>63</v>
       </c>
@@ -5557,104 +5557,104 @@
       <c r="V41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>58</v>
+      <c r="W41" s="13">
+        <v>208</v>
+      </c>
+      <c r="X41" s="13">
+        <v>125</v>
       </c>
       <c r="Y41" s="13">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Z41" s="13">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AA41" s="13">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="AB41" s="13">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AC41" s="13">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AD41" s="13">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="AE41" s="13">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF41" s="13">
+        <v>105</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>239</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>120</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>180</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>121</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>145</v>
+      </c>
+      <c r="AL41" s="13">
+        <v>157</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>183</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>108</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>225</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>139</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>173</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>44</v>
+      </c>
+      <c r="AS41" s="13">
         <v>127</v>
       </c>
-      <c r="AG41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AH41" s="13">
-        <v>105</v>
-      </c>
-      <c r="AI41" s="13">
-        <v>239</v>
-      </c>
-      <c r="AJ41" s="13">
-        <v>120</v>
-      </c>
-      <c r="AK41" s="13">
-        <v>180</v>
-      </c>
-      <c r="AL41" s="13">
-        <v>121</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>145</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>157</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>183</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>108</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>225</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>139</v>
-      </c>
-      <c r="AS41" s="13">
+      <c r="AT41" s="13">
+        <v>165</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>98</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>92</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>101</v>
+      </c>
+      <c r="AX41" s="13">
+        <v>100</v>
+      </c>
+      <c r="AY41" s="13">
+        <v>159</v>
+      </c>
+      <c r="AZ41" s="13">
         <v>173</v>
       </c>
-      <c r="AT41" s="13">
-        <v>44</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>127</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>165</v>
-      </c>
-      <c r="AW41" s="13">
-        <v>98</v>
-      </c>
-      <c r="AX41" s="13">
-        <v>92</v>
-      </c>
-      <c r="AY41" s="13">
-        <v>101</v>
-      </c>
-      <c r="AZ41" s="13">
-        <v>100</v>
-      </c>
       <c r="BA41" s="13">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="BB41" s="13">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>64</v>
       </c>
@@ -5716,104 +5716,104 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>117</v>
+      </c>
+      <c r="X42" s="11">
+        <v>89</v>
       </c>
       <c r="Y42" s="11">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="Z42" s="11">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="AA42" s="11">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="AB42" s="11">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="AC42" s="11">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="AD42" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AE42" s="11">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="AF42" s="11">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="AG42" s="11">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AH42" s="11">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="AI42" s="11">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="AJ42" s="11">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="AK42" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL42" s="11">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="AM42" s="11">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="AN42" s="11">
+        <v>268</v>
+      </c>
+      <c r="AO42" s="11">
+        <v>218</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>253</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>172</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>45</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="11">
         <v>210</v>
       </c>
-      <c r="AO42" s="11">
-        <v>152</v>
-      </c>
-      <c r="AP42" s="11">
-        <v>268</v>
-      </c>
-      <c r="AQ42" s="11">
-        <v>218</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>253</v>
-      </c>
-      <c r="AS42" s="11">
-        <v>172</v>
-      </c>
-      <c r="AT42" s="11">
-        <v>45</v>
-      </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="AV42" s="11">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="AW42" s="11">
-        <v>398</v>
+        <v>289</v>
       </c>
       <c r="AX42" s="11">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="AY42" s="11">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="AZ42" s="11">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="BA42" s="11">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="BB42" s="11">
-        <v>291</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>65</v>
       </c>
@@ -5875,104 +5875,104 @@
       <c r="V43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>58</v>
+      <c r="W43" s="13">
+        <v>33</v>
+      </c>
+      <c r="X43" s="13">
+        <v>21</v>
       </c>
       <c r="Y43" s="13">
+        <v>13</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>91</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>54</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>83</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>82</v>
+      </c>
+      <c r="AD43" s="13">
+        <v>117</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>119</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>53</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>68</v>
+      </c>
+      <c r="AH43" s="13">
+        <v>58</v>
+      </c>
+      <c r="AI43" s="13">
+        <v>110</v>
+      </c>
+      <c r="AJ43" s="13">
+        <v>22</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>87</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>76</v>
+      </c>
+      <c r="AM43" s="13">
+        <v>46</v>
+      </c>
+      <c r="AN43" s="13">
+        <v>19</v>
+      </c>
+      <c r="AO43" s="13">
+        <v>40</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>32</v>
+      </c>
+      <c r="AQ43" s="13">
+        <v>51</v>
+      </c>
+      <c r="AR43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="13">
+        <v>58</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>60</v>
+      </c>
+      <c r="AV43" s="13">
+        <v>27</v>
+      </c>
+      <c r="AW43" s="13">
+        <v>41</v>
+      </c>
+      <c r="AX43" s="13">
+        <v>26</v>
+      </c>
+      <c r="AY43" s="13">
+        <v>30</v>
+      </c>
+      <c r="AZ43" s="13">
         <v>33</v>
       </c>
-      <c r="Z43" s="13">
-        <v>21</v>
-      </c>
-      <c r="AA43" s="13">
-        <v>13</v>
-      </c>
-      <c r="AB43" s="13">
-        <v>91</v>
-      </c>
-      <c r="AC43" s="13">
-        <v>54</v>
-      </c>
-      <c r="AD43" s="13">
-        <v>83</v>
-      </c>
-      <c r="AE43" s="13">
-        <v>82</v>
-      </c>
-      <c r="AF43" s="13">
-        <v>117</v>
-      </c>
-      <c r="AG43" s="13">
-        <v>119</v>
-      </c>
-      <c r="AH43" s="13">
-        <v>53</v>
-      </c>
-      <c r="AI43" s="13">
-        <v>68</v>
-      </c>
-      <c r="AJ43" s="13">
-        <v>58</v>
-      </c>
-      <c r="AK43" s="13">
-        <v>110</v>
-      </c>
-      <c r="AL43" s="13">
-        <v>22</v>
-      </c>
-      <c r="AM43" s="13">
-        <v>87</v>
-      </c>
-      <c r="AN43" s="13">
-        <v>76</v>
-      </c>
-      <c r="AO43" s="13">
-        <v>46</v>
-      </c>
-      <c r="AP43" s="13">
-        <v>19</v>
-      </c>
-      <c r="AQ43" s="13">
-        <v>40</v>
-      </c>
-      <c r="AR43" s="13">
-        <v>32</v>
-      </c>
-      <c r="AS43" s="13">
-        <v>51</v>
-      </c>
-      <c r="AT43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV43" s="13">
-        <v>58</v>
-      </c>
-      <c r="AW43" s="13">
-        <v>60</v>
-      </c>
-      <c r="AX43" s="13">
-        <v>27</v>
-      </c>
-      <c r="AY43" s="13">
-        <v>41</v>
-      </c>
-      <c r="AZ43" s="13">
-        <v>26</v>
-      </c>
       <c r="BA43" s="13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="BB43" s="13">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
@@ -6034,104 +6034,104 @@
       <c r="V44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>58</v>
+      <c r="W44" s="11">
+        <v>49</v>
+      </c>
+      <c r="X44" s="11">
+        <v>65</v>
       </c>
       <c r="Y44" s="11">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="Z44" s="11">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="AA44" s="11">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="AB44" s="11">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="AC44" s="11">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AD44" s="11">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="AE44" s="11">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AF44" s="11">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="AG44" s="11">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="AH44" s="11">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="AI44" s="11">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="AJ44" s="11">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AK44" s="11">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AL44" s="11">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AM44" s="11">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AN44" s="11">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="AO44" s="11">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="AP44" s="11">
+        <v>351</v>
+      </c>
+      <c r="AQ44" s="11">
+        <v>329</v>
+      </c>
+      <c r="AR44" s="11">
+        <v>19</v>
+      </c>
+      <c r="AS44" s="11">
+        <v>195</v>
+      </c>
+      <c r="AT44" s="11">
+        <v>295</v>
+      </c>
+      <c r="AU44" s="11">
+        <v>142</v>
+      </c>
+      <c r="AV44" s="11">
+        <v>215</v>
+      </c>
+      <c r="AW44" s="11">
+        <v>247</v>
+      </c>
+      <c r="AX44" s="11">
+        <v>230</v>
+      </c>
+      <c r="AY44" s="11">
+        <v>278</v>
+      </c>
+      <c r="AZ44" s="11">
+        <v>308</v>
+      </c>
+      <c r="BA44" s="11">
+        <v>303</v>
+      </c>
+      <c r="BB44" s="11">
         <v>328</v>
       </c>
-      <c r="AQ44" s="11">
-        <v>400</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>351</v>
-      </c>
-      <c r="AS44" s="11">
-        <v>329</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>19</v>
-      </c>
-      <c r="AU44" s="11">
-        <v>195</v>
-      </c>
-      <c r="AV44" s="11">
-        <v>295</v>
-      </c>
-      <c r="AW44" s="11">
-        <v>142</v>
-      </c>
-      <c r="AX44" s="11">
-        <v>215</v>
-      </c>
-      <c r="AY44" s="11">
-        <v>247</v>
-      </c>
-      <c r="AZ44" s="11">
-        <v>230</v>
-      </c>
-      <c r="BA44" s="11">
-        <v>278</v>
-      </c>
-      <c r="BB44" s="11">
-        <v>308</v>
-      </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>79</v>
       </c>
@@ -6192,103 +6192,103 @@
         <v>0</v>
       </c>
       <c r="W45" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="X45" s="15">
-        <v>0</v>
+        <v>17307</v>
       </c>
       <c r="Y45" s="15">
-        <v>17530</v>
+        <v>14710</v>
       </c>
       <c r="Z45" s="15">
-        <v>17307</v>
+        <v>21890</v>
       </c>
       <c r="AA45" s="15">
-        <v>14710</v>
+        <v>25621</v>
       </c>
       <c r="AB45" s="15">
-        <v>21890</v>
+        <v>14367</v>
       </c>
       <c r="AC45" s="15">
-        <v>25621</v>
+        <v>19272</v>
       </c>
       <c r="AD45" s="15">
-        <v>14367</v>
+        <v>16847</v>
       </c>
       <c r="AE45" s="15">
-        <v>19272</v>
+        <v>19462</v>
       </c>
       <c r="AF45" s="15">
-        <v>16847</v>
+        <v>9187</v>
       </c>
       <c r="AG45" s="15">
-        <v>19462</v>
+        <v>14124</v>
       </c>
       <c r="AH45" s="15">
-        <v>9187</v>
+        <v>26578</v>
       </c>
       <c r="AI45" s="15">
-        <v>14124</v>
+        <v>25026</v>
       </c>
       <c r="AJ45" s="15">
-        <v>26578</v>
+        <v>19083</v>
       </c>
       <c r="AK45" s="15">
-        <v>25026</v>
+        <v>17394</v>
       </c>
       <c r="AL45" s="15">
-        <v>19083</v>
+        <v>15593</v>
       </c>
       <c r="AM45" s="15">
-        <v>17394</v>
+        <v>17790</v>
       </c>
       <c r="AN45" s="15">
-        <v>15593</v>
+        <v>14436</v>
       </c>
       <c r="AO45" s="15">
-        <v>17790</v>
+        <v>16605</v>
       </c>
       <c r="AP45" s="15">
-        <v>14436</v>
+        <v>13529</v>
       </c>
       <c r="AQ45" s="15">
-        <v>16605</v>
+        <v>13877</v>
       </c>
       <c r="AR45" s="15">
-        <v>13529</v>
+        <v>2306</v>
       </c>
       <c r="AS45" s="15">
-        <v>13877</v>
+        <v>14687</v>
       </c>
       <c r="AT45" s="15">
-        <v>2306</v>
+        <v>19027</v>
       </c>
       <c r="AU45" s="15">
+        <v>10756</v>
+      </c>
+      <c r="AV45" s="15">
+        <v>9344</v>
+      </c>
+      <c r="AW45" s="15">
+        <v>12320</v>
+      </c>
+      <c r="AX45" s="15">
+        <v>9714</v>
+      </c>
+      <c r="AY45" s="15">
         <v>14687</v>
       </c>
-      <c r="AV45" s="15">
-        <v>19027</v>
-      </c>
-      <c r="AW45" s="15">
-        <v>10756</v>
-      </c>
-      <c r="AX45" s="15">
-        <v>9344</v>
-      </c>
-      <c r="AY45" s="15">
-        <v>12320</v>
-      </c>
       <c r="AZ45" s="15">
-        <v>9714</v>
+        <v>13570</v>
       </c>
       <c r="BA45" s="15">
-        <v>14687</v>
+        <v>12888</v>
       </c>
       <c r="BB45" s="15">
-        <v>13570</v>
+        <v>19877</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>80</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6434,17 +6434,17 @@
       <c r="AE47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>0</v>
+      <c r="AF47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ47" s="11" t="s">
         <v>58</v>
@@ -6458,11 +6458,11 @@
       <c r="AM47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO47" s="11" t="s">
-        <v>58</v>
+      <c r="AN47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>0</v>
       </c>
       <c r="AP47" s="11">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6593,77 +6593,77 @@
       <c r="AE48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>58</v>
+      <c r="AF48" s="13">
+        <v>1187</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>3233</v>
       </c>
       <c r="AH48" s="13">
-        <v>1187</v>
+        <v>225</v>
       </c>
       <c r="AI48" s="13">
-        <v>3233</v>
+        <v>686</v>
       </c>
       <c r="AJ48" s="13">
-        <v>225</v>
+        <v>1017</v>
       </c>
       <c r="AK48" s="13">
-        <v>686</v>
+        <v>2907</v>
       </c>
       <c r="AL48" s="13">
-        <v>1017</v>
+        <v>886</v>
       </c>
       <c r="AM48" s="13">
-        <v>2907</v>
+        <v>3204</v>
       </c>
       <c r="AN48" s="13">
-        <v>886</v>
+        <v>5547</v>
       </c>
       <c r="AO48" s="13">
-        <v>3204</v>
+        <v>1891</v>
       </c>
       <c r="AP48" s="13">
-        <v>5547</v>
+        <v>2328</v>
       </c>
       <c r="AQ48" s="13">
-        <v>1891</v>
+        <v>4146</v>
       </c>
       <c r="AR48" s="13">
-        <v>2328</v>
+        <v>585</v>
       </c>
       <c r="AS48" s="13">
-        <v>4146</v>
+        <v>1002</v>
       </c>
       <c r="AT48" s="13">
-        <v>585</v>
+        <v>790</v>
       </c>
       <c r="AU48" s="13">
-        <v>1002</v>
+        <v>2190</v>
       </c>
       <c r="AV48" s="13">
-        <v>790</v>
+        <v>152</v>
       </c>
       <c r="AW48" s="13">
-        <v>2190</v>
+        <v>449</v>
       </c>
       <c r="AX48" s="13">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="AY48" s="13">
-        <v>449</v>
+        <v>1521</v>
       </c>
       <c r="AZ48" s="13">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="BA48" s="13">
-        <v>1521</v>
+        <v>84</v>
       </c>
       <c r="BB48" s="13">
-        <v>431</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6752,77 +6752,77 @@
       <c r="AE49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG49" s="11" t="s">
-        <v>58</v>
+      <c r="AF49" s="11">
+        <v>186</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>413</v>
       </c>
       <c r="AH49" s="11">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="AI49" s="11">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="AJ49" s="11">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="AK49" s="11">
-        <v>325</v>
+        <v>493</v>
       </c>
       <c r="AL49" s="11">
-        <v>477</v>
+        <v>315</v>
       </c>
       <c r="AM49" s="11">
-        <v>493</v>
+        <v>903</v>
       </c>
       <c r="AN49" s="11">
-        <v>315</v>
+        <v>605</v>
       </c>
       <c r="AO49" s="11">
-        <v>903</v>
+        <v>1224</v>
       </c>
       <c r="AP49" s="11">
-        <v>605</v>
+        <v>763</v>
       </c>
       <c r="AQ49" s="11">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="AR49" s="11">
-        <v>763</v>
+        <v>242</v>
       </c>
       <c r="AS49" s="11">
-        <v>1199</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="AU49" s="11">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="AV49" s="11">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="AW49" s="11">
-        <v>266</v>
+        <v>661</v>
       </c>
       <c r="AX49" s="11">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="AY49" s="11">
-        <v>661</v>
+        <v>2659</v>
       </c>
       <c r="AZ49" s="11">
-        <v>112</v>
+        <v>986</v>
       </c>
       <c r="BA49" s="11">
-        <v>2659</v>
+        <v>89</v>
       </c>
       <c r="BB49" s="11">
-        <v>986</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>72</v>
       </c>
@@ -6911,77 +6911,77 @@
       <c r="AE50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>58</v>
+      <c r="AF50" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>0</v>
       </c>
       <c r="AH50" s="13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI50" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AJ50" s="13">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AK50" s="13">
         <v>8</v>
       </c>
       <c r="AL50" s="13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AM50" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN50" s="13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AO50" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP50" s="13">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="AQ50" s="13">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="AR50" s="13">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AS50" s="13">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="13">
         <v>1</v>
       </c>
       <c r="AY50" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ50" s="13">
         <v>1</v>
       </c>
       <c r="BA50" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="13">
         <v>2</v>
       </c>
-      <c r="BB50" s="13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>81</v>
       </c>
@@ -7069,76 +7069,76 @@
         <v>0</v>
       </c>
       <c r="AF51" s="17">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="AG51" s="17">
-        <v>0</v>
+        <v>3646</v>
       </c>
       <c r="AH51" s="17">
-        <v>1377</v>
+        <v>654</v>
       </c>
       <c r="AI51" s="17">
-        <v>3646</v>
+        <v>1019</v>
       </c>
       <c r="AJ51" s="17">
-        <v>654</v>
+        <v>1517</v>
       </c>
       <c r="AK51" s="17">
-        <v>1019</v>
+        <v>3408</v>
       </c>
       <c r="AL51" s="17">
-        <v>1517</v>
+        <v>1216</v>
       </c>
       <c r="AM51" s="17">
-        <v>3408</v>
+        <v>4118</v>
       </c>
       <c r="AN51" s="17">
-        <v>1216</v>
+        <v>6154</v>
       </c>
       <c r="AO51" s="17">
-        <v>4118</v>
+        <v>3128</v>
       </c>
       <c r="AP51" s="17">
-        <v>6154</v>
+        <v>3137</v>
       </c>
       <c r="AQ51" s="17">
-        <v>3128</v>
+        <v>5407</v>
       </c>
       <c r="AR51" s="17">
-        <v>3137</v>
+        <v>831</v>
       </c>
       <c r="AS51" s="17">
-        <v>5407</v>
+        <v>1002</v>
       </c>
       <c r="AT51" s="17">
-        <v>831</v>
+        <v>943</v>
       </c>
       <c r="AU51" s="17">
-        <v>1002</v>
+        <v>2476</v>
       </c>
       <c r="AV51" s="17">
-        <v>943</v>
+        <v>521</v>
       </c>
       <c r="AW51" s="17">
-        <v>2476</v>
+        <v>1111</v>
       </c>
       <c r="AX51" s="17">
-        <v>521</v>
+        <v>440</v>
       </c>
       <c r="AY51" s="17">
-        <v>1111</v>
+        <v>4182</v>
       </c>
       <c r="AZ51" s="17">
-        <v>440</v>
+        <v>1418</v>
       </c>
       <c r="BA51" s="17">
-        <v>4182</v>
+        <v>173</v>
       </c>
       <c r="BB51" s="17">
-        <v>1418</v>
+        <v>1209</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>74</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="BA52" s="19"/>
       <c r="BB52" s="19"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>75</v>
       </c>
@@ -7255,11 +7255,11 @@
       <c r="V53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>58</v>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
       </c>
       <c r="Y53" s="17">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>82</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="BA54" s="19"/>
       <c r="BB54" s="19"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>83</v>
       </c>
@@ -7469,11 +7469,11 @@
       <c r="V55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>58</v>
+      <c r="W55" s="17">
+        <v>0</v>
+      </c>
+      <c r="X55" s="17">
+        <v>0</v>
       </c>
       <c r="Y55" s="17">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>76</v>
       </c>
@@ -7627,103 +7627,103 @@
         <v>0</v>
       </c>
       <c r="W56" s="15">
-        <v>0</v>
+        <v>17530</v>
       </c>
       <c r="X56" s="15">
-        <v>0</v>
+        <v>17307</v>
       </c>
       <c r="Y56" s="15">
-        <v>17530</v>
+        <v>14710</v>
       </c>
       <c r="Z56" s="15">
-        <v>17307</v>
+        <v>21890</v>
       </c>
       <c r="AA56" s="15">
-        <v>14710</v>
+        <v>25621</v>
       </c>
       <c r="AB56" s="15">
-        <v>21890</v>
+        <v>14367</v>
       </c>
       <c r="AC56" s="15">
-        <v>25621</v>
+        <v>19272</v>
       </c>
       <c r="AD56" s="15">
-        <v>14367</v>
+        <v>16847</v>
       </c>
       <c r="AE56" s="15">
-        <v>19272</v>
+        <v>19462</v>
       </c>
       <c r="AF56" s="15">
-        <v>16847</v>
+        <v>10564</v>
       </c>
       <c r="AG56" s="15">
-        <v>19462</v>
+        <v>17770</v>
       </c>
       <c r="AH56" s="15">
-        <v>10564</v>
+        <v>27232</v>
       </c>
       <c r="AI56" s="15">
-        <v>17770</v>
+        <v>26045</v>
       </c>
       <c r="AJ56" s="15">
-        <v>27232</v>
+        <v>20600</v>
       </c>
       <c r="AK56" s="15">
-        <v>26045</v>
+        <v>20802</v>
       </c>
       <c r="AL56" s="15">
-        <v>20600</v>
+        <v>16809</v>
       </c>
       <c r="AM56" s="15">
-        <v>20802</v>
+        <v>21908</v>
       </c>
       <c r="AN56" s="15">
-        <v>16809</v>
+        <v>20590</v>
       </c>
       <c r="AO56" s="15">
-        <v>21908</v>
+        <v>19733</v>
       </c>
       <c r="AP56" s="15">
-        <v>20590</v>
+        <v>16666</v>
       </c>
       <c r="AQ56" s="15">
-        <v>19733</v>
+        <v>19284</v>
       </c>
       <c r="AR56" s="15">
-        <v>16666</v>
+        <v>3137</v>
       </c>
       <c r="AS56" s="15">
-        <v>19284</v>
+        <v>15689</v>
       </c>
       <c r="AT56" s="15">
-        <v>3137</v>
+        <v>19970</v>
       </c>
       <c r="AU56" s="15">
-        <v>15689</v>
+        <v>13232</v>
       </c>
       <c r="AV56" s="15">
-        <v>19970</v>
+        <v>9865</v>
       </c>
       <c r="AW56" s="15">
-        <v>13232</v>
+        <v>13431</v>
       </c>
       <c r="AX56" s="15">
-        <v>9865</v>
+        <v>10154</v>
       </c>
       <c r="AY56" s="15">
-        <v>13431</v>
+        <v>18869</v>
       </c>
       <c r="AZ56" s="15">
-        <v>10154</v>
+        <v>14988</v>
       </c>
       <c r="BA56" s="15">
-        <v>18869</v>
+        <v>13061</v>
       </c>
       <c r="BB56" s="15">
-        <v>14988</v>
+        <v>21086</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7778,7 +7778,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7833,7 +7833,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7888,7 +7888,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>84</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8100,7 +8100,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>85</v>
       </c>
@@ -8157,7 +8157,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -8219,104 +8219,104 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>108663</v>
+      </c>
+      <c r="X63" s="11">
+        <v>94348</v>
       </c>
       <c r="Y63" s="11">
-        <v>108663</v>
+        <v>107444</v>
       </c>
       <c r="Z63" s="11">
-        <v>94348</v>
+        <v>190049</v>
       </c>
       <c r="AA63" s="11">
-        <v>107444</v>
+        <v>134759</v>
       </c>
       <c r="AB63" s="11">
-        <v>190049</v>
+        <v>137151</v>
       </c>
       <c r="AC63" s="11">
-        <v>134759</v>
+        <v>191996</v>
       </c>
       <c r="AD63" s="11">
-        <v>137151</v>
+        <v>246892</v>
       </c>
       <c r="AE63" s="11">
-        <v>191996</v>
+        <v>373913</v>
       </c>
       <c r="AF63" s="11">
-        <v>246892</v>
+        <v>98738</v>
       </c>
       <c r="AG63" s="11">
-        <v>373913</v>
+        <v>279757</v>
       </c>
       <c r="AH63" s="11">
-        <v>98738</v>
+        <v>356211</v>
       </c>
       <c r="AI63" s="11">
-        <v>279757</v>
+        <v>296506</v>
       </c>
       <c r="AJ63" s="11">
-        <v>356211</v>
+        <v>116349</v>
       </c>
       <c r="AK63" s="11">
-        <v>296506</v>
+        <v>58505</v>
       </c>
       <c r="AL63" s="11">
-        <v>116349</v>
+        <v>103229</v>
       </c>
       <c r="AM63" s="11">
-        <v>58505</v>
+        <v>100868</v>
       </c>
       <c r="AN63" s="11">
-        <v>103229</v>
+        <v>101907</v>
       </c>
       <c r="AO63" s="11">
-        <v>100868</v>
+        <v>149477</v>
       </c>
       <c r="AP63" s="11">
-        <v>101907</v>
+        <v>121351</v>
       </c>
       <c r="AQ63" s="11">
-        <v>149477</v>
+        <v>154285</v>
       </c>
       <c r="AR63" s="11">
-        <v>121351</v>
+        <v>71739</v>
       </c>
       <c r="AS63" s="11">
-        <v>154285</v>
+        <v>182398</v>
       </c>
       <c r="AT63" s="11">
-        <v>71739</v>
+        <v>388392</v>
       </c>
       <c r="AU63" s="11">
-        <v>182398</v>
+        <v>438788</v>
       </c>
       <c r="AV63" s="11">
-        <v>388392</v>
+        <v>465754</v>
       </c>
       <c r="AW63" s="11">
-        <v>438788</v>
+        <v>249163</v>
       </c>
       <c r="AX63" s="11">
-        <v>465754</v>
+        <v>254591</v>
       </c>
       <c r="AY63" s="11">
-        <v>249163</v>
+        <v>358699</v>
       </c>
       <c r="AZ63" s="11">
-        <v>254591</v>
+        <v>325998</v>
       </c>
       <c r="BA63" s="11">
-        <v>358699</v>
+        <v>487951</v>
       </c>
       <c r="BB63" s="11">
-        <v>325998</v>
+        <v>422513</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8378,104 +8378,104 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>1111</v>
+      </c>
+      <c r="X64" s="13">
+        <v>483</v>
       </c>
       <c r="Y64" s="13">
-        <v>1111</v>
+        <v>961</v>
       </c>
       <c r="Z64" s="13">
-        <v>483</v>
+        <v>729</v>
       </c>
       <c r="AA64" s="13">
-        <v>961</v>
+        <v>807</v>
       </c>
       <c r="AB64" s="13">
-        <v>729</v>
+        <v>986</v>
       </c>
       <c r="AC64" s="13">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="AD64" s="13">
-        <v>986</v>
+        <v>621</v>
       </c>
       <c r="AE64" s="13">
-        <v>753</v>
+        <v>1690</v>
       </c>
       <c r="AF64" s="13">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>1690</v>
+        <v>1010</v>
       </c>
       <c r="AH64" s="13">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AI64" s="13">
-        <v>1010</v>
+        <v>672</v>
       </c>
       <c r="AJ64" s="13">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="AK64" s="13">
-        <v>672</v>
+        <v>839</v>
       </c>
       <c r="AL64" s="13">
-        <v>893</v>
+        <v>829</v>
       </c>
       <c r="AM64" s="13">
-        <v>839</v>
+        <v>1694</v>
       </c>
       <c r="AN64" s="13">
-        <v>829</v>
+        <v>926</v>
       </c>
       <c r="AO64" s="13">
-        <v>1694</v>
+        <v>940</v>
       </c>
       <c r="AP64" s="13">
-        <v>926</v>
+        <v>1009</v>
       </c>
       <c r="AQ64" s="13">
-        <v>940</v>
+        <v>2247</v>
       </c>
       <c r="AR64" s="13">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="AS64" s="13">
-        <v>2247</v>
+        <v>2</v>
       </c>
       <c r="AT64" s="13">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AU64" s="13">
         <v>2</v>
       </c>
       <c r="AV64" s="13">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AW64" s="13">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="AX64" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY64" s="13">
-        <v>865</v>
+        <v>4</v>
       </c>
       <c r="AZ64" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BA64" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8537,104 +8537,104 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>1007923</v>
+      </c>
+      <c r="X65" s="11">
+        <v>1019172</v>
       </c>
       <c r="Y65" s="11">
-        <v>1007923</v>
+        <v>854376</v>
       </c>
       <c r="Z65" s="11">
-        <v>1019172</v>
+        <v>1293664</v>
       </c>
       <c r="AA65" s="11">
-        <v>854376</v>
+        <v>1656363</v>
       </c>
       <c r="AB65" s="11">
-        <v>1293664</v>
+        <v>835325</v>
       </c>
       <c r="AC65" s="11">
-        <v>1656363</v>
+        <v>1285037</v>
       </c>
       <c r="AD65" s="11">
-        <v>835325</v>
+        <v>984172</v>
       </c>
       <c r="AE65" s="11">
-        <v>1285037</v>
+        <v>1222339</v>
       </c>
       <c r="AF65" s="11">
-        <v>984172</v>
+        <v>566003</v>
       </c>
       <c r="AG65" s="11">
-        <v>1222339</v>
+        <v>888768</v>
       </c>
       <c r="AH65" s="11">
-        <v>566003</v>
+        <v>1980433</v>
       </c>
       <c r="AI65" s="11">
-        <v>888768</v>
+        <v>1563890</v>
       </c>
       <c r="AJ65" s="11">
-        <v>1980433</v>
+        <v>1208470</v>
       </c>
       <c r="AK65" s="11">
-        <v>1563890</v>
+        <v>996961</v>
       </c>
       <c r="AL65" s="11">
-        <v>1208470</v>
+        <v>838674</v>
       </c>
       <c r="AM65" s="11">
-        <v>996961</v>
+        <v>1027046</v>
       </c>
       <c r="AN65" s="11">
-        <v>838674</v>
+        <v>758393</v>
       </c>
       <c r="AO65" s="11">
-        <v>1027046</v>
+        <v>913473</v>
       </c>
       <c r="AP65" s="11">
-        <v>758393</v>
+        <v>764171</v>
       </c>
       <c r="AQ65" s="11">
-        <v>913473</v>
+        <v>788459</v>
       </c>
       <c r="AR65" s="11">
-        <v>764171</v>
+        <v>142009</v>
       </c>
       <c r="AS65" s="11">
-        <v>788459</v>
+        <v>2786230</v>
       </c>
       <c r="AT65" s="11">
-        <v>142009</v>
+        <v>3315731</v>
       </c>
       <c r="AU65" s="11">
-        <v>2786230</v>
+        <v>1663541</v>
       </c>
       <c r="AV65" s="11">
-        <v>3315731</v>
+        <v>1465062</v>
       </c>
       <c r="AW65" s="11">
-        <v>1663541</v>
+        <v>2114315</v>
       </c>
       <c r="AX65" s="11">
-        <v>1465062</v>
+        <v>1583838</v>
       </c>
       <c r="AY65" s="11">
-        <v>2114315</v>
+        <v>2708027</v>
       </c>
       <c r="AZ65" s="11">
-        <v>1583838</v>
+        <v>2106694</v>
       </c>
       <c r="BA65" s="11">
-        <v>2708027</v>
+        <v>2111394</v>
       </c>
       <c r="BB65" s="11">
-        <v>2106694</v>
+        <v>3643075</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8696,104 +8696,104 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>265065</v>
+      </c>
+      <c r="X66" s="13">
+        <v>220836</v>
       </c>
       <c r="Y66" s="13">
-        <v>265065</v>
+        <v>216962</v>
       </c>
       <c r="Z66" s="13">
-        <v>220836</v>
+        <v>292803</v>
       </c>
       <c r="AA66" s="13">
-        <v>216962</v>
+        <v>398130</v>
       </c>
       <c r="AB66" s="13">
-        <v>292803</v>
+        <v>314937</v>
       </c>
       <c r="AC66" s="13">
-        <v>398130</v>
+        <v>332294</v>
       </c>
       <c r="AD66" s="13">
-        <v>314937</v>
+        <v>307799</v>
       </c>
       <c r="AE66" s="13">
-        <v>332294</v>
+        <v>322048</v>
       </c>
       <c r="AF66" s="13">
-        <v>307799</v>
+        <v>149373</v>
       </c>
       <c r="AG66" s="13">
-        <v>322048</v>
+        <v>229490</v>
       </c>
       <c r="AH66" s="13">
-        <v>149373</v>
+        <v>282099</v>
       </c>
       <c r="AI66" s="13">
-        <v>229490</v>
+        <v>377989</v>
       </c>
       <c r="AJ66" s="13">
-        <v>282099</v>
+        <v>282479</v>
       </c>
       <c r="AK66" s="13">
-        <v>377989</v>
+        <v>342298</v>
       </c>
       <c r="AL66" s="13">
-        <v>282479</v>
+        <v>361616</v>
       </c>
       <c r="AM66" s="13">
-        <v>342298</v>
+        <v>317010</v>
       </c>
       <c r="AN66" s="13">
-        <v>361616</v>
+        <v>320709</v>
       </c>
       <c r="AO66" s="13">
-        <v>317010</v>
+        <v>305179</v>
       </c>
       <c r="AP66" s="13">
-        <v>320709</v>
+        <v>276534</v>
       </c>
       <c r="AQ66" s="13">
-        <v>305179</v>
+        <v>318270</v>
       </c>
       <c r="AR66" s="13">
-        <v>276534</v>
+        <v>57179</v>
       </c>
       <c r="AS66" s="13">
-        <v>318270</v>
+        <v>743627</v>
       </c>
       <c r="AT66" s="13">
-        <v>57179</v>
+        <v>1302328</v>
       </c>
       <c r="AU66" s="13">
-        <v>743627</v>
+        <v>781302</v>
       </c>
       <c r="AV66" s="13">
-        <v>1302328</v>
+        <v>629672</v>
       </c>
       <c r="AW66" s="13">
-        <v>781302</v>
+        <v>817617</v>
       </c>
       <c r="AX66" s="13">
-        <v>629672</v>
+        <v>675159</v>
       </c>
       <c r="AY66" s="13">
-        <v>817617</v>
+        <v>715479</v>
       </c>
       <c r="AZ66" s="13">
-        <v>675159</v>
+        <v>1099432</v>
       </c>
       <c r="BA66" s="13">
-        <v>715479</v>
+        <v>864647</v>
       </c>
       <c r="BB66" s="13">
-        <v>1099432</v>
+        <v>1022673</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>62</v>
       </c>
@@ -8855,104 +8855,104 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>49323</v>
+      </c>
+      <c r="X67" s="11">
+        <v>47045</v>
       </c>
       <c r="Y67" s="11">
-        <v>49323</v>
+        <v>46193</v>
       </c>
       <c r="Z67" s="11">
-        <v>47045</v>
+        <v>50540</v>
       </c>
       <c r="AA67" s="11">
-        <v>46193</v>
+        <v>43750</v>
       </c>
       <c r="AB67" s="11">
-        <v>50540</v>
+        <v>61447</v>
       </c>
       <c r="AC67" s="11">
-        <v>43750</v>
+        <v>60196</v>
       </c>
       <c r="AD67" s="11">
-        <v>61447</v>
+        <v>56916</v>
       </c>
       <c r="AE67" s="11">
-        <v>60196</v>
+        <v>61798</v>
       </c>
       <c r="AF67" s="11">
-        <v>56916</v>
+        <v>31477</v>
       </c>
       <c r="AG67" s="11">
-        <v>61798</v>
+        <v>53770</v>
       </c>
       <c r="AH67" s="11">
-        <v>31477</v>
+        <v>47809</v>
       </c>
       <c r="AI67" s="11">
-        <v>53770</v>
+        <v>72368</v>
       </c>
       <c r="AJ67" s="11">
-        <v>47809</v>
+        <v>53171</v>
       </c>
       <c r="AK67" s="11">
-        <v>72368</v>
+        <v>52107</v>
       </c>
       <c r="AL67" s="11">
-        <v>53171</v>
+        <v>52967</v>
       </c>
       <c r="AM67" s="11">
-        <v>52107</v>
+        <v>60628</v>
       </c>
       <c r="AN67" s="11">
-        <v>52967</v>
+        <v>51287</v>
       </c>
       <c r="AO67" s="11">
-        <v>60628</v>
+        <v>48078</v>
       </c>
       <c r="AP67" s="11">
-        <v>51287</v>
+        <v>32370</v>
       </c>
       <c r="AQ67" s="11">
-        <v>48078</v>
+        <v>39513</v>
       </c>
       <c r="AR67" s="11">
-        <v>32370</v>
+        <v>6745</v>
       </c>
       <c r="AS67" s="11">
-        <v>39513</v>
+        <v>65975</v>
       </c>
       <c r="AT67" s="11">
-        <v>6745</v>
+        <v>110448</v>
       </c>
       <c r="AU67" s="11">
-        <v>65975</v>
+        <v>138226</v>
       </c>
       <c r="AV67" s="11">
-        <v>110448</v>
+        <v>99021</v>
       </c>
       <c r="AW67" s="11">
-        <v>138226</v>
+        <v>87340</v>
       </c>
       <c r="AX67" s="11">
-        <v>99021</v>
+        <v>110786</v>
       </c>
       <c r="AY67" s="11">
-        <v>87340</v>
+        <v>116071</v>
       </c>
       <c r="AZ67" s="11">
-        <v>110786</v>
+        <v>104077</v>
       </c>
       <c r="BA67" s="11">
-        <v>116071</v>
+        <v>105382</v>
       </c>
       <c r="BB67" s="11">
-        <v>104077</v>
+        <v>132082</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>63</v>
       </c>
@@ -9014,104 +9014,104 @@
       <c r="V68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="W68" s="13">
+        <v>27484</v>
+      </c>
+      <c r="X68" s="13">
+        <v>18402</v>
       </c>
       <c r="Y68" s="13">
-        <v>27484</v>
+        <v>16690</v>
       </c>
       <c r="Z68" s="13">
-        <v>18402</v>
+        <v>24946</v>
       </c>
       <c r="AA68" s="13">
-        <v>16690</v>
+        <v>22849</v>
       </c>
       <c r="AB68" s="13">
-        <v>24946</v>
+        <v>27697</v>
       </c>
       <c r="AC68" s="13">
-        <v>22849</v>
+        <v>21504</v>
       </c>
       <c r="AD68" s="13">
-        <v>27697</v>
+        <v>21096</v>
       </c>
       <c r="AE68" s="13">
-        <v>21504</v>
+        <v>20534</v>
       </c>
       <c r="AF68" s="13">
-        <v>21096</v>
+        <v>17970</v>
       </c>
       <c r="AG68" s="13">
-        <v>20534</v>
+        <v>34127</v>
       </c>
       <c r="AH68" s="13">
-        <v>17970</v>
+        <v>16978</v>
       </c>
       <c r="AI68" s="13">
-        <v>34127</v>
+        <v>31214</v>
       </c>
       <c r="AJ68" s="13">
-        <v>16978</v>
+        <v>21035</v>
       </c>
       <c r="AK68" s="13">
-        <v>31214</v>
+        <v>24884</v>
       </c>
       <c r="AL68" s="13">
-        <v>21035</v>
+        <v>27480</v>
       </c>
       <c r="AM68" s="13">
-        <v>24884</v>
+        <v>31785</v>
       </c>
       <c r="AN68" s="13">
-        <v>27480</v>
+        <v>18679</v>
       </c>
       <c r="AO68" s="13">
-        <v>31785</v>
+        <v>38368</v>
       </c>
       <c r="AP68" s="13">
-        <v>18679</v>
+        <v>24941</v>
       </c>
       <c r="AQ68" s="13">
-        <v>38368</v>
+        <v>31023</v>
       </c>
       <c r="AR68" s="13">
-        <v>24941</v>
+        <v>8348</v>
       </c>
       <c r="AS68" s="13">
-        <v>31023</v>
+        <v>50463</v>
       </c>
       <c r="AT68" s="13">
-        <v>8348</v>
+        <v>68547</v>
       </c>
       <c r="AU68" s="13">
-        <v>50463</v>
+        <v>41742</v>
       </c>
       <c r="AV68" s="13">
-        <v>68547</v>
+        <v>39813</v>
       </c>
       <c r="AW68" s="13">
-        <v>41742</v>
+        <v>42838</v>
       </c>
       <c r="AX68" s="13">
-        <v>39813</v>
+        <v>42030</v>
       </c>
       <c r="AY68" s="13">
-        <v>42838</v>
+        <v>66226</v>
       </c>
       <c r="AZ68" s="13">
-        <v>42030</v>
+        <v>71779</v>
       </c>
       <c r="BA68" s="13">
-        <v>66226</v>
+        <v>46970</v>
       </c>
       <c r="BB68" s="13">
-        <v>71779</v>
+        <v>77459</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>64</v>
       </c>
@@ -9173,104 +9173,104 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>10408</v>
+      </c>
+      <c r="X69" s="11">
+        <v>7859</v>
       </c>
       <c r="Y69" s="11">
-        <v>10408</v>
+        <v>8833</v>
       </c>
       <c r="Z69" s="11">
-        <v>7859</v>
+        <v>14069</v>
       </c>
       <c r="AA69" s="11">
-        <v>8833</v>
+        <v>14195</v>
       </c>
       <c r="AB69" s="11">
-        <v>14069</v>
+        <v>18763</v>
       </c>
       <c r="AC69" s="11">
-        <v>14195</v>
+        <v>19911</v>
       </c>
       <c r="AD69" s="11">
-        <v>18763</v>
+        <v>18547</v>
       </c>
       <c r="AE69" s="11">
-        <v>19911</v>
+        <v>20908</v>
       </c>
       <c r="AF69" s="11">
-        <v>18547</v>
+        <v>11762</v>
       </c>
       <c r="AG69" s="11">
-        <v>20908</v>
+        <v>19634</v>
       </c>
       <c r="AH69" s="11">
-        <v>11762</v>
+        <v>18274</v>
       </c>
       <c r="AI69" s="11">
-        <v>19634</v>
+        <v>23989</v>
       </c>
       <c r="AJ69" s="11">
-        <v>18274</v>
+        <v>8317</v>
       </c>
       <c r="AK69" s="11">
-        <v>23989</v>
+        <v>24266</v>
       </c>
       <c r="AL69" s="11">
-        <v>8317</v>
+        <v>17751</v>
       </c>
       <c r="AM69" s="11">
-        <v>24266</v>
+        <v>12850</v>
       </c>
       <c r="AN69" s="11">
-        <v>17751</v>
+        <v>22491</v>
       </c>
       <c r="AO69" s="11">
-        <v>12850</v>
+        <v>18410</v>
       </c>
       <c r="AP69" s="11">
-        <v>22491</v>
+        <v>21385</v>
       </c>
       <c r="AQ69" s="11">
-        <v>18410</v>
+        <v>14727</v>
       </c>
       <c r="AR69" s="11">
-        <v>21385</v>
+        <v>3724</v>
       </c>
       <c r="AS69" s="11">
-        <v>14727</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
-        <v>3724</v>
+        <v>48188</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>91031</v>
       </c>
       <c r="AV69" s="11">
-        <v>48188</v>
+        <v>69274</v>
       </c>
       <c r="AW69" s="11">
-        <v>91031</v>
+        <v>66077</v>
       </c>
       <c r="AX69" s="11">
-        <v>69274</v>
+        <v>56991</v>
       </c>
       <c r="AY69" s="11">
-        <v>66077</v>
+        <v>69028</v>
       </c>
       <c r="AZ69" s="11">
-        <v>56991</v>
+        <v>65946</v>
       </c>
       <c r="BA69" s="11">
-        <v>69028</v>
+        <v>61135</v>
       </c>
       <c r="BB69" s="11">
-        <v>65946</v>
+        <v>80276</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>65</v>
       </c>
@@ -9332,104 +9332,104 @@
       <c r="V70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="13" t="s">
-        <v>58</v>
+      <c r="W70" s="13">
+        <v>8316</v>
+      </c>
+      <c r="X70" s="13">
+        <v>4065</v>
       </c>
       <c r="Y70" s="13">
-        <v>8316</v>
+        <v>2267</v>
       </c>
       <c r="Z70" s="13">
-        <v>4065</v>
+        <v>22808</v>
       </c>
       <c r="AA70" s="13">
-        <v>2267</v>
+        <v>14798</v>
       </c>
       <c r="AB70" s="13">
-        <v>22808</v>
+        <v>20571</v>
       </c>
       <c r="AC70" s="13">
-        <v>14798</v>
+        <v>20717</v>
       </c>
       <c r="AD70" s="13">
-        <v>20571</v>
+        <v>29009</v>
       </c>
       <c r="AE70" s="13">
-        <v>20717</v>
+        <v>29418</v>
       </c>
       <c r="AF70" s="13">
-        <v>29009</v>
+        <v>12655</v>
       </c>
       <c r="AG70" s="13">
-        <v>29418</v>
+        <v>16567</v>
       </c>
       <c r="AH70" s="13">
-        <v>12655</v>
+        <v>13430</v>
       </c>
       <c r="AI70" s="13">
-        <v>16567</v>
+        <v>29327</v>
       </c>
       <c r="AJ70" s="13">
-        <v>13430</v>
+        <v>5865</v>
       </c>
       <c r="AK70" s="13">
-        <v>29327</v>
+        <v>23529</v>
       </c>
       <c r="AL70" s="13">
-        <v>5865</v>
+        <v>20592</v>
       </c>
       <c r="AM70" s="13">
-        <v>23529</v>
+        <v>11910</v>
       </c>
       <c r="AN70" s="13">
-        <v>20592</v>
+        <v>5129</v>
       </c>
       <c r="AO70" s="13">
-        <v>11910</v>
+        <v>10487</v>
       </c>
       <c r="AP70" s="13">
-        <v>5129</v>
+        <v>8206</v>
       </c>
       <c r="AQ70" s="13">
-        <v>10487</v>
+        <v>13577</v>
       </c>
       <c r="AR70" s="13">
-        <v>8206</v>
+        <v>-35</v>
       </c>
       <c r="AS70" s="13">
-        <v>13577</v>
+        <v>322</v>
       </c>
       <c r="AT70" s="13">
-        <v>-35</v>
+        <v>40809</v>
       </c>
       <c r="AU70" s="13">
-        <v>322</v>
+        <v>42542</v>
       </c>
       <c r="AV70" s="13">
-        <v>40809</v>
+        <v>19311</v>
       </c>
       <c r="AW70" s="13">
-        <v>42542</v>
+        <v>28976</v>
       </c>
       <c r="AX70" s="13">
-        <v>19311</v>
+        <v>17690</v>
       </c>
       <c r="AY70" s="13">
-        <v>28976</v>
+        <v>20910</v>
       </c>
       <c r="AZ70" s="13">
-        <v>17690</v>
+        <v>22550</v>
       </c>
       <c r="BA70" s="13">
-        <v>20910</v>
+        <v>26627</v>
       </c>
       <c r="BB70" s="13">
-        <v>22550</v>
+        <v>30157</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>66</v>
       </c>
@@ -9491,104 +9491,104 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>5167</v>
+      </c>
+      <c r="X71" s="11">
+        <v>6007</v>
       </c>
       <c r="Y71" s="11">
-        <v>5167</v>
+        <v>8693</v>
       </c>
       <c r="Z71" s="11">
-        <v>6007</v>
+        <v>23786</v>
       </c>
       <c r="AA71" s="11">
-        <v>8693</v>
+        <v>25057</v>
       </c>
       <c r="AB71" s="11">
-        <v>23786</v>
+        <v>37003</v>
       </c>
       <c r="AC71" s="11">
-        <v>25057</v>
+        <v>32383</v>
       </c>
       <c r="AD71" s="11">
-        <v>37003</v>
+        <v>28459</v>
       </c>
       <c r="AE71" s="11">
-        <v>32383</v>
+        <v>30165</v>
       </c>
       <c r="AF71" s="11">
-        <v>28459</v>
+        <v>37837</v>
       </c>
       <c r="AG71" s="11">
-        <v>30165</v>
+        <v>36353</v>
       </c>
       <c r="AH71" s="11">
-        <v>37837</v>
+        <v>15787</v>
       </c>
       <c r="AI71" s="11">
-        <v>36353</v>
+        <v>29392</v>
       </c>
       <c r="AJ71" s="11">
-        <v>15787</v>
+        <v>34864</v>
       </c>
       <c r="AK71" s="11">
-        <v>29392</v>
+        <v>38488</v>
       </c>
       <c r="AL71" s="11">
-        <v>34864</v>
+        <v>32693</v>
       </c>
       <c r="AM71" s="11">
-        <v>38488</v>
+        <v>37838</v>
       </c>
       <c r="AN71" s="11">
-        <v>32693</v>
+        <v>38609</v>
       </c>
       <c r="AO71" s="11">
-        <v>37838</v>
+        <v>48351</v>
       </c>
       <c r="AP71" s="11">
-        <v>38609</v>
+        <v>43690</v>
       </c>
       <c r="AQ71" s="11">
-        <v>48351</v>
+        <v>41390</v>
       </c>
       <c r="AR71" s="11">
-        <v>43690</v>
+        <v>1729</v>
       </c>
       <c r="AS71" s="11">
-        <v>41390</v>
+        <v>65314</v>
       </c>
       <c r="AT71" s="11">
-        <v>1729</v>
+        <v>98534</v>
       </c>
       <c r="AU71" s="11">
-        <v>65314</v>
+        <v>48013</v>
       </c>
       <c r="AV71" s="11">
-        <v>98534</v>
+        <v>70118</v>
       </c>
       <c r="AW71" s="11">
-        <v>48013</v>
+        <v>80911</v>
       </c>
       <c r="AX71" s="11">
-        <v>70118</v>
+        <v>74330</v>
       </c>
       <c r="AY71" s="11">
-        <v>80911</v>
+        <v>90419</v>
       </c>
       <c r="AZ71" s="11">
-        <v>74330</v>
+        <v>98216</v>
       </c>
       <c r="BA71" s="11">
-        <v>90419</v>
+        <v>97855</v>
       </c>
       <c r="BB71" s="11">
-        <v>98216</v>
+        <v>102802</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>79</v>
       </c>
@@ -9649,103 +9649,103 @@
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>1418217</v>
       </c>
       <c r="Y72" s="15">
-        <v>1483460</v>
+        <v>1262419</v>
       </c>
       <c r="Z72" s="15">
-        <v>1418217</v>
+        <v>1913394</v>
       </c>
       <c r="AA72" s="15">
-        <v>1262419</v>
+        <v>2310708</v>
       </c>
       <c r="AB72" s="15">
-        <v>1913394</v>
+        <v>1453880</v>
       </c>
       <c r="AC72" s="15">
-        <v>2310708</v>
+        <v>1964791</v>
       </c>
       <c r="AD72" s="15">
-        <v>1453880</v>
+        <v>1693511</v>
       </c>
       <c r="AE72" s="15">
-        <v>1964791</v>
+        <v>2082813</v>
       </c>
       <c r="AF72" s="15">
-        <v>1693511</v>
+        <v>925815</v>
       </c>
       <c r="AG72" s="15">
-        <v>2082813</v>
+        <v>1559476</v>
       </c>
       <c r="AH72" s="15">
-        <v>925815</v>
+        <v>2731826</v>
       </c>
       <c r="AI72" s="15">
-        <v>1559476</v>
+        <v>2425347</v>
       </c>
       <c r="AJ72" s="15">
-        <v>2731826</v>
+        <v>1731443</v>
       </c>
       <c r="AK72" s="15">
-        <v>2425347</v>
+        <v>1561877</v>
       </c>
       <c r="AL72" s="15">
-        <v>1731443</v>
+        <v>1455831</v>
       </c>
       <c r="AM72" s="15">
-        <v>1561877</v>
+        <v>1601629</v>
       </c>
       <c r="AN72" s="15">
-        <v>1455831</v>
+        <v>1318130</v>
       </c>
       <c r="AO72" s="15">
-        <v>1601629</v>
+        <v>1532763</v>
       </c>
       <c r="AP72" s="15">
-        <v>1318130</v>
+        <v>1293657</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1532763</v>
+        <v>1403491</v>
       </c>
       <c r="AR72" s="15">
-        <v>1293657</v>
+        <v>291455</v>
       </c>
       <c r="AS72" s="15">
-        <v>1403491</v>
+        <v>3894331</v>
       </c>
       <c r="AT72" s="15">
-        <v>291455</v>
+        <v>5373021</v>
       </c>
       <c r="AU72" s="15">
-        <v>3894331</v>
+        <v>3245187</v>
       </c>
       <c r="AV72" s="15">
-        <v>5373021</v>
+        <v>2858027</v>
       </c>
       <c r="AW72" s="15">
-        <v>3245187</v>
+        <v>3488102</v>
       </c>
       <c r="AX72" s="15">
-        <v>2858027</v>
+        <v>2815425</v>
       </c>
       <c r="AY72" s="15">
-        <v>3488102</v>
+        <v>4144863</v>
       </c>
       <c r="AZ72" s="15">
-        <v>2815425</v>
+        <v>3894693</v>
       </c>
       <c r="BA72" s="15">
-        <v>4144863</v>
+        <v>3801961</v>
       </c>
       <c r="BB72" s="15">
-        <v>3894693</v>
+        <v>5511040</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>87</v>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>69</v>
       </c>
@@ -9891,11 +9891,11 @@
       <c r="AE74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG74" s="11" t="s">
-        <v>58</v>
+      <c r="AF74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="11">
+        <v>0</v>
       </c>
       <c r="AH74" s="11">
         <v>0</v>
@@ -9961,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>70</v>
       </c>
@@ -10050,77 +10050,77 @@
       <c r="AE75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG75" s="13" t="s">
-        <v>58</v>
+      <c r="AF75" s="13">
+        <v>116620</v>
+      </c>
+      <c r="AG75" s="13">
+        <v>309568</v>
       </c>
       <c r="AH75" s="13">
-        <v>116620</v>
+        <v>21173</v>
       </c>
       <c r="AI75" s="13">
-        <v>309568</v>
+        <v>66694</v>
       </c>
       <c r="AJ75" s="13">
-        <v>21173</v>
+        <v>99832</v>
       </c>
       <c r="AK75" s="13">
-        <v>66694</v>
+        <v>341273</v>
       </c>
       <c r="AL75" s="13">
-        <v>99832</v>
+        <v>97524</v>
       </c>
       <c r="AM75" s="13">
-        <v>341273</v>
+        <v>302812</v>
       </c>
       <c r="AN75" s="13">
-        <v>97524</v>
+        <v>520476</v>
       </c>
       <c r="AO75" s="13">
-        <v>302812</v>
+        <v>183036</v>
       </c>
       <c r="AP75" s="13">
-        <v>520476</v>
+        <v>210854</v>
       </c>
       <c r="AQ75" s="13">
-        <v>183036</v>
+        <v>368803</v>
       </c>
       <c r="AR75" s="13">
-        <v>210854</v>
+        <v>50271</v>
       </c>
       <c r="AS75" s="13">
-        <v>368803</v>
+        <v>87798</v>
       </c>
       <c r="AT75" s="13">
-        <v>50271</v>
+        <v>85431</v>
       </c>
       <c r="AU75" s="13">
-        <v>87798</v>
+        <v>210620</v>
       </c>
       <c r="AV75" s="13">
-        <v>85431</v>
+        <v>29453</v>
       </c>
       <c r="AW75" s="13">
-        <v>210620</v>
+        <v>86442</v>
       </c>
       <c r="AX75" s="13">
-        <v>29453</v>
+        <v>60226</v>
       </c>
       <c r="AY75" s="13">
-        <v>86442</v>
+        <v>262478</v>
       </c>
       <c r="AZ75" s="13">
-        <v>60226</v>
+        <v>72699</v>
       </c>
       <c r="BA75" s="13">
-        <v>262478</v>
+        <v>17992</v>
       </c>
       <c r="BB75" s="13">
-        <v>72699</v>
+        <v>148940</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>71</v>
       </c>
@@ -10209,77 +10209,77 @@
       <c r="AE76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11">
+        <v>18758</v>
+      </c>
+      <c r="AG76" s="11">
+        <v>40047</v>
       </c>
       <c r="AH76" s="11">
-        <v>18758</v>
+        <v>38955</v>
       </c>
       <c r="AI76" s="11">
-        <v>40047</v>
+        <v>32052</v>
       </c>
       <c r="AJ76" s="11">
-        <v>38955</v>
+        <v>46364</v>
       </c>
       <c r="AK76" s="11">
-        <v>32052</v>
+        <v>54176</v>
       </c>
       <c r="AL76" s="11">
-        <v>46364</v>
+        <v>38711</v>
       </c>
       <c r="AM76" s="11">
-        <v>54176</v>
+        <v>94801</v>
       </c>
       <c r="AN76" s="11">
-        <v>38711</v>
+        <v>57500</v>
       </c>
       <c r="AO76" s="11">
-        <v>94801</v>
+        <v>124393</v>
       </c>
       <c r="AP76" s="11">
-        <v>57500</v>
+        <v>76660</v>
       </c>
       <c r="AQ76" s="11">
-        <v>124393</v>
+        <v>111746</v>
       </c>
       <c r="AR76" s="11">
-        <v>76660</v>
+        <v>21156</v>
       </c>
       <c r="AS76" s="11">
-        <v>111746</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="11">
-        <v>21156</v>
+        <v>17497</v>
       </c>
       <c r="AU76" s="11">
-        <v>0</v>
+        <v>25520</v>
       </c>
       <c r="AV76" s="11">
-        <v>17497</v>
+        <v>46649</v>
       </c>
       <c r="AW76" s="11">
-        <v>25520</v>
+        <v>119878</v>
       </c>
       <c r="AX76" s="11">
-        <v>46649</v>
+        <v>21157</v>
       </c>
       <c r="AY76" s="11">
-        <v>119878</v>
+        <v>446434</v>
       </c>
       <c r="AZ76" s="11">
-        <v>21157</v>
+        <v>166255</v>
       </c>
       <c r="BA76" s="11">
-        <v>446434</v>
+        <v>20894</v>
       </c>
       <c r="BB76" s="11">
-        <v>166255</v>
+        <v>80043</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>72</v>
       </c>
@@ -10368,77 +10368,77 @@
       <c r="AE77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG77" s="13" t="s">
-        <v>58</v>
+      <c r="AF77" s="13">
+        <v>943</v>
+      </c>
+      <c r="AG77" s="13">
+        <v>0</v>
       </c>
       <c r="AH77" s="13">
-        <v>943</v>
+        <v>4324</v>
       </c>
       <c r="AI77" s="13">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="AJ77" s="13">
-        <v>4324</v>
+        <v>6310</v>
       </c>
       <c r="AK77" s="13">
-        <v>2050</v>
+        <v>2026</v>
       </c>
       <c r="AL77" s="13">
-        <v>6310</v>
+        <v>3966</v>
       </c>
       <c r="AM77" s="13">
-        <v>2026</v>
+        <v>1146</v>
       </c>
       <c r="AN77" s="13">
-        <v>3966</v>
+        <v>168</v>
       </c>
       <c r="AO77" s="13">
-        <v>1146</v>
+        <v>4244</v>
       </c>
       <c r="AP77" s="13">
-        <v>168</v>
+        <v>13410</v>
       </c>
       <c r="AQ77" s="13">
-        <v>4244</v>
+        <v>17769</v>
       </c>
       <c r="AR77" s="13">
-        <v>13410</v>
+        <v>308</v>
       </c>
       <c r="AS77" s="13">
-        <v>17769</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="13">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="13">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AV77" s="13">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AW77" s="13">
-        <v>1920</v>
+        <v>220</v>
       </c>
       <c r="AX77" s="13">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="AY77" s="13">
-        <v>220</v>
+        <v>634</v>
       </c>
       <c r="AZ77" s="13">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="BA77" s="13">
-        <v>634</v>
+        <v>143</v>
       </c>
       <c r="BB77" s="13">
-        <v>393</v>
+        <v>867</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>81</v>
       </c>
@@ -10526,76 +10526,76 @@
         <v>0</v>
       </c>
       <c r="AF78" s="17">
-        <v>0</v>
+        <v>136321</v>
       </c>
       <c r="AG78" s="17">
-        <v>0</v>
+        <v>349615</v>
       </c>
       <c r="AH78" s="17">
-        <v>136321</v>
+        <v>64452</v>
       </c>
       <c r="AI78" s="17">
-        <v>349615</v>
+        <v>100796</v>
       </c>
       <c r="AJ78" s="17">
-        <v>64452</v>
+        <v>152506</v>
       </c>
       <c r="AK78" s="17">
-        <v>100796</v>
+        <v>397475</v>
       </c>
       <c r="AL78" s="17">
-        <v>152506</v>
+        <v>140201</v>
       </c>
       <c r="AM78" s="17">
-        <v>397475</v>
+        <v>398759</v>
       </c>
       <c r="AN78" s="17">
-        <v>140201</v>
+        <v>578144</v>
       </c>
       <c r="AO78" s="17">
-        <v>398759</v>
+        <v>311673</v>
       </c>
       <c r="AP78" s="17">
-        <v>578144</v>
+        <v>300924</v>
       </c>
       <c r="AQ78" s="17">
-        <v>311673</v>
+        <v>498318</v>
       </c>
       <c r="AR78" s="17">
-        <v>300924</v>
+        <v>71735</v>
       </c>
       <c r="AS78" s="17">
-        <v>498318</v>
+        <v>87798</v>
       </c>
       <c r="AT78" s="17">
-        <v>71735</v>
+        <v>102928</v>
       </c>
       <c r="AU78" s="17">
-        <v>87798</v>
+        <v>238060</v>
       </c>
       <c r="AV78" s="17">
-        <v>102928</v>
+        <v>76156</v>
       </c>
       <c r="AW78" s="17">
-        <v>238060</v>
+        <v>206540</v>
       </c>
       <c r="AX78" s="17">
-        <v>76156</v>
+        <v>81665</v>
       </c>
       <c r="AY78" s="17">
-        <v>206540</v>
+        <v>709546</v>
       </c>
       <c r="AZ78" s="17">
-        <v>81665</v>
+        <v>239347</v>
       </c>
       <c r="BA78" s="17">
-        <v>709546</v>
+        <v>39029</v>
       </c>
       <c r="BB78" s="17">
-        <v>239347</v>
+        <v>229850</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>88</v>
       </c>
@@ -10652,7 +10652,7 @@
       <c r="BA79" s="19"/>
       <c r="BB79" s="19"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
         <v>75</v>
       </c>
@@ -10714,11 +10714,11 @@
       <c r="V80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="17" t="s">
-        <v>58</v>
+      <c r="W80" s="17">
+        <v>0</v>
+      </c>
+      <c r="X80" s="17">
+        <v>0</v>
       </c>
       <c r="Y80" s="17">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>89</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="BA81" s="19"/>
       <c r="BB81" s="19"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
         <v>83</v>
       </c>
@@ -10930,11 +10930,11 @@
       <c r="V82" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="17" t="s">
-        <v>58</v>
+      <c r="W82" s="17">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <v>0</v>
       </c>
       <c r="Y82" s="17">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>90</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>91</v>
       </c>
@@ -11146,11 +11146,11 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>0</v>
+      </c>
+      <c r="X84" s="11">
+        <v>0</v>
       </c>
       <c r="Y84" s="11">
         <v>0</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>76</v>
       </c>
@@ -11304,103 +11304,103 @@
         <v>0</v>
       </c>
       <c r="W85" s="15">
-        <v>0</v>
+        <v>1483460</v>
       </c>
       <c r="X85" s="15">
-        <v>0</v>
+        <v>1418217</v>
       </c>
       <c r="Y85" s="15">
-        <v>1483460</v>
+        <v>1262419</v>
       </c>
       <c r="Z85" s="15">
-        <v>1418217</v>
+        <v>1913394</v>
       </c>
       <c r="AA85" s="15">
-        <v>1262419</v>
+        <v>2310708</v>
       </c>
       <c r="AB85" s="15">
-        <v>1913394</v>
+        <v>1453880</v>
       </c>
       <c r="AC85" s="15">
-        <v>2310708</v>
+        <v>1964791</v>
       </c>
       <c r="AD85" s="15">
-        <v>1453880</v>
+        <v>1693511</v>
       </c>
       <c r="AE85" s="15">
-        <v>1964791</v>
+        <v>2082813</v>
       </c>
       <c r="AF85" s="15">
-        <v>1693511</v>
+        <v>1062136</v>
       </c>
       <c r="AG85" s="15">
-        <v>2082813</v>
+        <v>1909091</v>
       </c>
       <c r="AH85" s="15">
-        <v>1062136</v>
+        <v>2796278</v>
       </c>
       <c r="AI85" s="15">
-        <v>1909091</v>
+        <v>2526143</v>
       </c>
       <c r="AJ85" s="15">
-        <v>2796278</v>
+        <v>1883949</v>
       </c>
       <c r="AK85" s="15">
-        <v>2526143</v>
+        <v>1959352</v>
       </c>
       <c r="AL85" s="15">
-        <v>1883949</v>
+        <v>1596032</v>
       </c>
       <c r="AM85" s="15">
-        <v>1959352</v>
+        <v>2000388</v>
       </c>
       <c r="AN85" s="15">
-        <v>1596032</v>
+        <v>1896274</v>
       </c>
       <c r="AO85" s="15">
-        <v>2000388</v>
+        <v>1844436</v>
       </c>
       <c r="AP85" s="15">
-        <v>1896274</v>
+        <v>1594581</v>
       </c>
       <c r="AQ85" s="15">
-        <v>1844436</v>
+        <v>1901809</v>
       </c>
       <c r="AR85" s="15">
-        <v>1594581</v>
+        <v>363190</v>
       </c>
       <c r="AS85" s="15">
-        <v>1901809</v>
+        <v>3982129</v>
       </c>
       <c r="AT85" s="15">
-        <v>363190</v>
+        <v>5475949</v>
       </c>
       <c r="AU85" s="15">
-        <v>3982129</v>
+        <v>3483247</v>
       </c>
       <c r="AV85" s="15">
-        <v>5475949</v>
+        <v>2934183</v>
       </c>
       <c r="AW85" s="15">
-        <v>3483247</v>
+        <v>3694642</v>
       </c>
       <c r="AX85" s="15">
-        <v>2934183</v>
+        <v>2897090</v>
       </c>
       <c r="AY85" s="15">
-        <v>3694642</v>
+        <v>4854409</v>
       </c>
       <c r="AZ85" s="15">
-        <v>2897090</v>
+        <v>4134040</v>
       </c>
       <c r="BA85" s="15">
-        <v>4854409</v>
+        <v>3840990</v>
       </c>
       <c r="BB85" s="15">
-        <v>4134040</v>
+        <v>5740890</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -11455,7 +11455,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11510,7 +11510,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -11565,7 +11565,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>92</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11777,7 +11777,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
@@ -11834,7 +11834,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
@@ -11896,104 +11896,104 @@
       <c r="V92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X92" s="11" t="s">
-        <v>58</v>
+      <c r="W92" s="11">
+        <v>139669666</v>
+      </c>
+      <c r="X92" s="11">
+        <v>162949914</v>
       </c>
       <c r="Y92" s="11">
-        <v>139669666</v>
+        <v>180275168</v>
       </c>
       <c r="Z92" s="11">
-        <v>162949914</v>
+        <v>184334627</v>
       </c>
       <c r="AA92" s="11">
-        <v>180275168</v>
+        <v>274458248</v>
       </c>
       <c r="AB92" s="11">
-        <v>184334627</v>
+        <v>305458797</v>
       </c>
       <c r="AC92" s="11">
-        <v>274458248</v>
+        <v>359543071</v>
       </c>
       <c r="AD92" s="11">
-        <v>305458797</v>
+        <v>396295345</v>
       </c>
       <c r="AE92" s="11">
-        <v>359543071</v>
+        <v>446196897</v>
       </c>
       <c r="AF92" s="11">
-        <v>396295345</v>
+        <v>476995169</v>
       </c>
       <c r="AG92" s="11">
-        <v>446196897</v>
+        <v>535932950</v>
       </c>
       <c r="AH92" s="11">
-        <v>476995169</v>
+        <v>516247826</v>
       </c>
       <c r="AI92" s="11">
-        <v>535932950</v>
+        <v>545047794</v>
       </c>
       <c r="AJ92" s="11">
-        <v>516247826</v>
+        <v>471048583</v>
       </c>
       <c r="AK92" s="11">
-        <v>545047794</v>
+        <v>392651007</v>
       </c>
       <c r="AL92" s="11">
-        <v>471048583</v>
+        <v>518738693</v>
       </c>
       <c r="AM92" s="11">
-        <v>392651007</v>
+        <v>522632124</v>
       </c>
       <c r="AN92" s="11">
-        <v>518738693</v>
+        <v>275424324</v>
       </c>
       <c r="AO92" s="11">
-        <v>522632124</v>
+        <v>312060543</v>
       </c>
       <c r="AP92" s="11">
-        <v>275424324</v>
+        <v>304902010</v>
       </c>
       <c r="AQ92" s="11">
-        <v>312060543</v>
+        <v>319430642</v>
       </c>
       <c r="AR92" s="11">
-        <v>304902010</v>
+        <v>491363014</v>
       </c>
       <c r="AS92" s="11">
-        <v>319430642</v>
+        <v>286339089</v>
       </c>
       <c r="AT92" s="11">
-        <v>491363014</v>
+        <v>466256903</v>
       </c>
       <c r="AU92" s="11">
-        <v>286339089</v>
+        <v>495805650</v>
       </c>
       <c r="AV92" s="11">
-        <v>466256903</v>
+        <v>577858561</v>
       </c>
       <c r="AW92" s="11">
-        <v>495805650</v>
+        <v>485697856</v>
       </c>
       <c r="AX92" s="11">
-        <v>577858561</v>
+        <v>578615909</v>
       </c>
       <c r="AY92" s="11">
-        <v>485697856</v>
+        <v>589965461</v>
       </c>
       <c r="AZ92" s="11">
-        <v>578615909</v>
+        <v>558215753</v>
       </c>
       <c r="BA92" s="11">
-        <v>589965461</v>
+        <v>658503374</v>
       </c>
       <c r="BB92" s="11">
-        <v>558215753</v>
+        <v>552304575</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>59</v>
       </c>
@@ -12055,75 +12055,75 @@
       <c r="V93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X93" s="13" t="s">
-        <v>58</v>
+      <c r="W93" s="13">
+        <v>158714286</v>
+      </c>
+      <c r="X93" s="13">
+        <v>161000000</v>
       </c>
       <c r="Y93" s="13">
-        <v>158714286</v>
+        <v>120125000</v>
       </c>
       <c r="Z93" s="13">
-        <v>161000000</v>
+        <v>145800000</v>
       </c>
       <c r="AA93" s="13">
-        <v>120125000</v>
+        <v>115285714</v>
       </c>
       <c r="AB93" s="13">
-        <v>145800000</v>
+        <v>164333333</v>
       </c>
       <c r="AC93" s="13">
-        <v>115285714</v>
+        <v>150600000</v>
       </c>
       <c r="AD93" s="13">
-        <v>164333333</v>
+        <v>103500000</v>
       </c>
       <c r="AE93" s="13">
-        <v>150600000</v>
-      </c>
-      <c r="AF93" s="13">
-        <v>103500000</v>
+        <v>130000000</v>
+      </c>
+      <c r="AF93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG93" s="13">
-        <v>130000000</v>
-      </c>
-      <c r="AH93" s="13" t="s">
-        <v>58</v>
+        <v>168333333</v>
+      </c>
+      <c r="AH93" s="13">
+        <v>134166667</v>
       </c>
       <c r="AI93" s="13">
-        <v>168333333</v>
+        <v>112000000</v>
       </c>
       <c r="AJ93" s="13">
-        <v>134166667</v>
+        <v>127571429</v>
       </c>
       <c r="AK93" s="13">
-        <v>112000000</v>
+        <v>139833333</v>
       </c>
       <c r="AL93" s="13">
-        <v>127571429</v>
+        <v>118428571</v>
       </c>
       <c r="AM93" s="13">
-        <v>139833333</v>
+        <v>130307692</v>
       </c>
       <c r="AN93" s="13">
-        <v>118428571</v>
+        <v>132285714</v>
       </c>
       <c r="AO93" s="13">
-        <v>130307692</v>
+        <v>117500000</v>
       </c>
       <c r="AP93" s="13">
-        <v>132285714</v>
+        <v>144142857</v>
       </c>
       <c r="AQ93" s="13">
-        <v>117500000</v>
-      </c>
-      <c r="AR93" s="13">
-        <v>144142857</v>
-      </c>
-      <c r="AS93" s="13">
         <v>149800000</v>
       </c>
+      <c r="AR93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS93" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT93" s="13" t="s">
         <v>58</v>
       </c>
@@ -12133,14 +12133,14 @@
       <c r="AV93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW93" s="13" t="s">
-        <v>58</v>
+      <c r="AW93" s="13">
+        <v>432500000</v>
       </c>
       <c r="AX93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY93" s="13">
-        <v>432500000</v>
+      <c r="AY93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ93" s="13" t="s">
         <v>58</v>
@@ -12152,7 +12152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>60</v>
       </c>
@@ -12214,104 +12214,104 @@
       <c r="V94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X94" s="11" t="s">
-        <v>58</v>
+      <c r="W94" s="11">
+        <v>75989370</v>
+      </c>
+      <c r="X94" s="11">
+        <v>73676860</v>
       </c>
       <c r="Y94" s="11">
-        <v>75989370</v>
+        <v>75776142</v>
       </c>
       <c r="Z94" s="11">
-        <v>73676860</v>
+        <v>76223427</v>
       </c>
       <c r="AA94" s="11">
-        <v>75776142</v>
+        <v>81686788</v>
       </c>
       <c r="AB94" s="11">
-        <v>76223427</v>
+        <v>85106979</v>
       </c>
       <c r="AC94" s="11">
-        <v>81686788</v>
+        <v>87650024</v>
       </c>
       <c r="AD94" s="11">
-        <v>85106979</v>
+        <v>80676449</v>
       </c>
       <c r="AE94" s="11">
-        <v>87650024</v>
+        <v>84275993</v>
       </c>
       <c r="AF94" s="11">
-        <v>80676449</v>
+        <v>83076912</v>
       </c>
       <c r="AG94" s="11">
-        <v>84275993</v>
+        <v>85269884</v>
       </c>
       <c r="AH94" s="11">
-        <v>83076912</v>
+        <v>88266390</v>
       </c>
       <c r="AI94" s="11">
-        <v>85269884</v>
+        <v>79514440</v>
       </c>
       <c r="AJ94" s="11">
-        <v>88266390</v>
+        <v>78625244</v>
       </c>
       <c r="AK94" s="11">
-        <v>79514440</v>
+        <v>78101136</v>
       </c>
       <c r="AL94" s="11">
-        <v>78625244</v>
+        <v>76956689</v>
       </c>
       <c r="AM94" s="11">
-        <v>78101136</v>
+        <v>75634877</v>
       </c>
       <c r="AN94" s="11">
-        <v>76956689</v>
+        <v>76389303</v>
       </c>
       <c r="AO94" s="11">
-        <v>75634877</v>
+        <v>76256198</v>
       </c>
       <c r="AP94" s="11">
-        <v>76389303</v>
+        <v>79460435</v>
       </c>
       <c r="AQ94" s="11">
-        <v>76256198</v>
+        <v>82535225</v>
       </c>
       <c r="AR94" s="11">
-        <v>79460435</v>
+        <v>92877044</v>
       </c>
       <c r="AS94" s="11">
-        <v>82535225</v>
+        <v>248526447</v>
       </c>
       <c r="AT94" s="11">
-        <v>92877044</v>
+        <v>251974390</v>
       </c>
       <c r="AU94" s="11">
-        <v>248526447</v>
+        <v>252549112</v>
       </c>
       <c r="AV94" s="11">
-        <v>251974390</v>
+        <v>252596897</v>
       </c>
       <c r="AW94" s="11">
-        <v>252549112</v>
+        <v>250778674</v>
       </c>
       <c r="AX94" s="11">
-        <v>252596897</v>
+        <v>249070294</v>
       </c>
       <c r="AY94" s="11">
-        <v>250778674</v>
+        <v>248534049</v>
       </c>
       <c r="AZ94" s="11">
-        <v>249070294</v>
+        <v>248225993</v>
       </c>
       <c r="BA94" s="11">
-        <v>248534049</v>
+        <v>248457755</v>
       </c>
       <c r="BB94" s="11">
-        <v>248225993</v>
+        <v>248064483</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>61</v>
       </c>
@@ -12373,104 +12373,104 @@
       <c r="V95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X95" s="13" t="s">
-        <v>58</v>
+      <c r="W95" s="13">
+        <v>92421548</v>
+      </c>
+      <c r="X95" s="13">
+        <v>92168614</v>
       </c>
       <c r="Y95" s="13">
-        <v>92421548</v>
+        <v>92718803</v>
       </c>
       <c r="Z95" s="13">
-        <v>92168614</v>
+        <v>95812500</v>
       </c>
       <c r="AA95" s="13">
-        <v>92718803</v>
+        <v>96422863</v>
       </c>
       <c r="AB95" s="13">
-        <v>95812500</v>
+        <v>100651007</v>
       </c>
       <c r="AC95" s="13">
-        <v>96422863</v>
+        <v>105423223</v>
       </c>
       <c r="AD95" s="13">
-        <v>100651007</v>
+        <v>99772771</v>
       </c>
       <c r="AE95" s="13">
-        <v>105423223</v>
+        <v>102825032</v>
       </c>
       <c r="AF95" s="13">
-        <v>99772771</v>
+        <v>105563958</v>
       </c>
       <c r="AG95" s="13">
-        <v>102825032</v>
+        <v>107439139</v>
       </c>
       <c r="AH95" s="13">
-        <v>105563958</v>
+        <v>103446645</v>
       </c>
       <c r="AI95" s="13">
-        <v>107439139</v>
+        <v>101528069</v>
       </c>
       <c r="AJ95" s="13">
-        <v>103446645</v>
+        <v>102906740</v>
       </c>
       <c r="AK95" s="13">
-        <v>101528069</v>
+        <v>99130611</v>
       </c>
       <c r="AL95" s="13">
-        <v>102906740</v>
+        <v>100841049</v>
       </c>
       <c r="AM95" s="13">
-        <v>99130611</v>
+        <v>102195358</v>
       </c>
       <c r="AN95" s="13">
-        <v>100841049</v>
+        <v>99321462</v>
       </c>
       <c r="AO95" s="13">
-        <v>102195358</v>
+        <v>98827396</v>
       </c>
       <c r="AP95" s="13">
-        <v>99321462</v>
+        <v>105306169</v>
       </c>
       <c r="AQ95" s="13">
-        <v>98827396</v>
+        <v>107017485</v>
       </c>
       <c r="AR95" s="13">
-        <v>105306169</v>
+        <v>113450397</v>
       </c>
       <c r="AS95" s="13">
-        <v>107017485</v>
+        <v>306903426</v>
       </c>
       <c r="AT95" s="13">
-        <v>113450397</v>
+        <v>313360924</v>
       </c>
       <c r="AU95" s="13">
-        <v>306903426</v>
+        <v>326085977</v>
       </c>
       <c r="AV95" s="13">
-        <v>313360924</v>
+        <v>320280773</v>
       </c>
       <c r="AW95" s="13">
-        <v>326085977</v>
+        <v>317397904</v>
       </c>
       <c r="AX95" s="13">
-        <v>320280773</v>
+        <v>313298840</v>
       </c>
       <c r="AY95" s="13">
-        <v>317397904</v>
+        <v>317990667</v>
       </c>
       <c r="AZ95" s="13">
-        <v>313298840</v>
+        <v>309786419</v>
       </c>
       <c r="BA95" s="13">
-        <v>317990667</v>
+        <v>311024101</v>
       </c>
       <c r="BB95" s="13">
-        <v>309786419</v>
+        <v>307201262</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>62</v>
       </c>
@@ -12532,104 +12532,104 @@
       <c r="V96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>58</v>
+      <c r="W96" s="11">
+        <v>239432039</v>
+      </c>
+      <c r="X96" s="11">
+        <v>240025510</v>
       </c>
       <c r="Y96" s="11">
-        <v>239432039</v>
+        <v>240588542</v>
       </c>
       <c r="Z96" s="11">
-        <v>240025510</v>
+        <v>242980769</v>
       </c>
       <c r="AA96" s="11">
-        <v>240588542</v>
+        <v>257352941</v>
       </c>
       <c r="AB96" s="11">
-        <v>242980769</v>
+        <v>308778894</v>
       </c>
       <c r="AC96" s="11">
-        <v>257352941</v>
+        <v>313520833</v>
       </c>
       <c r="AD96" s="11">
-        <v>308778894</v>
+        <v>302744681</v>
       </c>
       <c r="AE96" s="11">
-        <v>313520833</v>
+        <v>302931373</v>
       </c>
       <c r="AF96" s="11">
-        <v>302744681</v>
+        <v>311653465</v>
       </c>
       <c r="AG96" s="11">
-        <v>302931373</v>
+        <v>316294118</v>
       </c>
       <c r="AH96" s="11">
-        <v>311653465</v>
+        <v>300685535</v>
       </c>
       <c r="AI96" s="11">
-        <v>316294118</v>
+        <v>284913386</v>
       </c>
       <c r="AJ96" s="11">
-        <v>300685535</v>
+        <v>288972826</v>
       </c>
       <c r="AK96" s="11">
-        <v>284913386</v>
+        <v>292735955</v>
       </c>
       <c r="AL96" s="11">
-        <v>288972826</v>
+        <v>287864130</v>
       </c>
       <c r="AM96" s="11">
-        <v>292735955</v>
+        <v>294310680</v>
       </c>
       <c r="AN96" s="11">
-        <v>287864130</v>
+        <v>286519553</v>
       </c>
       <c r="AO96" s="11">
-        <v>294310680</v>
+        <v>286178571</v>
       </c>
       <c r="AP96" s="11">
-        <v>286519553</v>
+        <v>305377358</v>
       </c>
       <c r="AQ96" s="11">
-        <v>286178571</v>
+        <v>311125984</v>
       </c>
       <c r="AR96" s="11">
-        <v>305377358</v>
+        <v>355000000</v>
       </c>
       <c r="AS96" s="11">
-        <v>311125984</v>
+        <v>709408602</v>
       </c>
       <c r="AT96" s="11">
-        <v>355000000</v>
+        <v>731443709</v>
       </c>
       <c r="AU96" s="11">
-        <v>709408602</v>
+        <v>727505263</v>
       </c>
       <c r="AV96" s="11">
-        <v>731443709</v>
+        <v>728095588</v>
       </c>
       <c r="AW96" s="11">
-        <v>727505263</v>
+        <v>727833333</v>
       </c>
       <c r="AX96" s="11">
-        <v>728095588</v>
+        <v>724091503</v>
       </c>
       <c r="AY96" s="11">
-        <v>727833333</v>
+        <v>720937888</v>
       </c>
       <c r="AZ96" s="11">
-        <v>724091503</v>
+        <v>717772414</v>
       </c>
       <c r="BA96" s="11">
-        <v>720937888</v>
+        <v>721794521</v>
       </c>
       <c r="BB96" s="11">
-        <v>717772414</v>
+        <v>717836957</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>63</v>
       </c>
@@ -12691,104 +12691,104 @@
       <c r="V97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="13" t="s">
-        <v>58</v>
+      <c r="W97" s="13">
+        <v>132134615</v>
+      </c>
+      <c r="X97" s="13">
+        <v>147216000</v>
       </c>
       <c r="Y97" s="13">
-        <v>132134615</v>
+        <v>160480769</v>
       </c>
       <c r="Z97" s="13">
-        <v>147216000</v>
+        <v>166306667</v>
       </c>
       <c r="AA97" s="13">
-        <v>160480769</v>
+        <v>174419847</v>
       </c>
       <c r="AB97" s="13">
-        <v>166306667</v>
+        <v>177544872</v>
       </c>
       <c r="AC97" s="13">
-        <v>174419847</v>
+        <v>174829268</v>
       </c>
       <c r="AD97" s="13">
-        <v>177544872</v>
+        <v>166110236</v>
       </c>
       <c r="AE97" s="13">
-        <v>174829268</v>
+        <v>169702479</v>
       </c>
       <c r="AF97" s="13">
-        <v>166110236</v>
+        <v>171142857</v>
       </c>
       <c r="AG97" s="13">
-        <v>169702479</v>
+        <v>142790795</v>
       </c>
       <c r="AH97" s="13">
-        <v>171142857</v>
+        <v>141483333</v>
       </c>
       <c r="AI97" s="13">
-        <v>142790795</v>
+        <v>173411111</v>
       </c>
       <c r="AJ97" s="13">
-        <v>141483333</v>
+        <v>173842975</v>
       </c>
       <c r="AK97" s="13">
-        <v>173411111</v>
+        <v>171613793</v>
       </c>
       <c r="AL97" s="13">
-        <v>173842975</v>
+        <v>175031847</v>
       </c>
       <c r="AM97" s="13">
-        <v>171613793</v>
+        <v>173688525</v>
       </c>
       <c r="AN97" s="13">
-        <v>175031847</v>
+        <v>172953704</v>
       </c>
       <c r="AO97" s="13">
-        <v>173688525</v>
+        <v>170524444</v>
       </c>
       <c r="AP97" s="13">
-        <v>172953704</v>
+        <v>179431655</v>
       </c>
       <c r="AQ97" s="13">
-        <v>170524444</v>
+        <v>179323699</v>
       </c>
       <c r="AR97" s="13">
-        <v>179431655</v>
+        <v>189727273</v>
       </c>
       <c r="AS97" s="13">
-        <v>179323699</v>
+        <v>397346457</v>
       </c>
       <c r="AT97" s="13">
-        <v>189727273</v>
+        <v>415436364</v>
       </c>
       <c r="AU97" s="13">
-        <v>397346457</v>
+        <v>425938776</v>
       </c>
       <c r="AV97" s="13">
-        <v>415436364</v>
+        <v>432750000</v>
       </c>
       <c r="AW97" s="13">
-        <v>425938776</v>
+        <v>424138614</v>
       </c>
       <c r="AX97" s="13">
-        <v>432750000</v>
+        <v>420300000</v>
       </c>
       <c r="AY97" s="13">
-        <v>424138614</v>
+        <v>416515723</v>
       </c>
       <c r="AZ97" s="13">
-        <v>420300000</v>
+        <v>414907514</v>
       </c>
       <c r="BA97" s="13">
-        <v>416515723</v>
+        <v>419375000</v>
       </c>
       <c r="BB97" s="13">
-        <v>414907514</v>
+        <v>412015957</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>64</v>
       </c>
@@ -12850,104 +12850,104 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>88957265</v>
+      </c>
+      <c r="X98" s="11">
+        <v>88303371</v>
       </c>
       <c r="Y98" s="11">
-        <v>88957265</v>
+        <v>92010417</v>
       </c>
       <c r="Z98" s="11">
-        <v>88303371</v>
+        <v>88484277</v>
       </c>
       <c r="AA98" s="11">
-        <v>92010417</v>
+        <v>92777778</v>
       </c>
       <c r="AB98" s="11">
-        <v>88484277</v>
+        <v>87269767</v>
       </c>
       <c r="AC98" s="11">
-        <v>92777778</v>
+        <v>88493333</v>
       </c>
       <c r="AD98" s="11">
-        <v>87269767</v>
+        <v>84689498</v>
       </c>
       <c r="AE98" s="11">
-        <v>88493333</v>
+        <v>83967871</v>
       </c>
       <c r="AF98" s="11">
-        <v>84689498</v>
+        <v>87125926</v>
       </c>
       <c r="AG98" s="11">
-        <v>83967871</v>
+        <v>88044843</v>
       </c>
       <c r="AH98" s="11">
-        <v>87125926</v>
+        <v>82687783</v>
       </c>
       <c r="AI98" s="11">
-        <v>88044843</v>
+        <v>84171930</v>
       </c>
       <c r="AJ98" s="11">
-        <v>82687783</v>
+        <v>85742268</v>
       </c>
       <c r="AK98" s="11">
-        <v>84171930</v>
+        <v>84846154</v>
       </c>
       <c r="AL98" s="11">
-        <v>85742268</v>
+        <v>84528571</v>
       </c>
       <c r="AM98" s="11">
-        <v>84846154</v>
+        <v>84539474</v>
       </c>
       <c r="AN98" s="11">
-        <v>84528571</v>
+        <v>83921642</v>
       </c>
       <c r="AO98" s="11">
-        <v>84539474</v>
+        <v>84449541</v>
       </c>
       <c r="AP98" s="11">
-        <v>83921642</v>
+        <v>84525692</v>
       </c>
       <c r="AQ98" s="11">
-        <v>84449541</v>
+        <v>85622093</v>
       </c>
       <c r="AR98" s="11">
-        <v>84525692</v>
-      </c>
-      <c r="AS98" s="11">
-        <v>85622093</v>
+        <v>82755556</v>
+      </c>
+      <c r="AS98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT98" s="11">
-        <v>82755556</v>
-      </c>
-      <c r="AU98" s="11" t="s">
-        <v>58</v>
+        <v>229466667</v>
+      </c>
+      <c r="AU98" s="11">
+        <v>228721106</v>
       </c>
       <c r="AV98" s="11">
-        <v>229466667</v>
+        <v>229384106</v>
       </c>
       <c r="AW98" s="11">
-        <v>228721106</v>
+        <v>228640138</v>
       </c>
       <c r="AX98" s="11">
-        <v>229384106</v>
+        <v>227055777</v>
       </c>
       <c r="AY98" s="11">
-        <v>228640138</v>
+        <v>226321311</v>
       </c>
       <c r="AZ98" s="11">
-        <v>227055777</v>
+        <v>226618557</v>
       </c>
       <c r="BA98" s="11">
-        <v>226321311</v>
+        <v>226425926</v>
       </c>
       <c r="BB98" s="11">
-        <v>226618557</v>
+        <v>226129577</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>65</v>
       </c>
@@ -13009,104 +13009,104 @@
       <c r="V99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="W99" s="13">
+        <v>252000000</v>
+      </c>
+      <c r="X99" s="13">
+        <v>193571429</v>
       </c>
       <c r="Y99" s="13">
-        <v>252000000</v>
+        <v>174384615</v>
       </c>
       <c r="Z99" s="13">
-        <v>193571429</v>
+        <v>250637363</v>
       </c>
       <c r="AA99" s="13">
-        <v>174384615</v>
+        <v>274037037</v>
       </c>
       <c r="AB99" s="13">
-        <v>250637363</v>
+        <v>247843373</v>
       </c>
       <c r="AC99" s="13">
-        <v>274037037</v>
+        <v>252646341</v>
       </c>
       <c r="AD99" s="13">
-        <v>247843373</v>
+        <v>247940171</v>
       </c>
       <c r="AE99" s="13">
-        <v>252646341</v>
+        <v>247210084</v>
       </c>
       <c r="AF99" s="13">
-        <v>247940171</v>
+        <v>238773585</v>
       </c>
       <c r="AG99" s="13">
-        <v>247210084</v>
+        <v>243632353</v>
       </c>
       <c r="AH99" s="13">
-        <v>238773585</v>
+        <v>231551724</v>
       </c>
       <c r="AI99" s="13">
-        <v>243632353</v>
+        <v>266609091</v>
       </c>
       <c r="AJ99" s="13">
-        <v>231551724</v>
+        <v>266590909</v>
       </c>
       <c r="AK99" s="13">
-        <v>266609091</v>
+        <v>270448276</v>
       </c>
       <c r="AL99" s="13">
-        <v>266590909</v>
+        <v>270947368</v>
       </c>
       <c r="AM99" s="13">
-        <v>270448276</v>
+        <v>258913043</v>
       </c>
       <c r="AN99" s="13">
-        <v>270947368</v>
+        <v>269947368</v>
       </c>
       <c r="AO99" s="13">
-        <v>258913043</v>
+        <v>262175000</v>
       </c>
       <c r="AP99" s="13">
-        <v>269947368</v>
+        <v>256437500</v>
       </c>
       <c r="AQ99" s="13">
-        <v>262175000</v>
-      </c>
-      <c r="AR99" s="13">
-        <v>256437500</v>
+        <v>266215686</v>
+      </c>
+      <c r="AR99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS99" s="13">
-        <v>266215686</v>
-      </c>
-      <c r="AT99" s="13" t="s">
-        <v>58</v>
+        <v>322000000</v>
+      </c>
+      <c r="AT99" s="13">
+        <v>703603448</v>
       </c>
       <c r="AU99" s="13">
-        <v>322000000</v>
+        <v>709033333</v>
       </c>
       <c r="AV99" s="13">
-        <v>703603448</v>
+        <v>715222222</v>
       </c>
       <c r="AW99" s="13">
-        <v>709033333</v>
+        <v>706731707</v>
       </c>
       <c r="AX99" s="13">
-        <v>715222222</v>
+        <v>680384615</v>
       </c>
       <c r="AY99" s="13">
-        <v>706731707</v>
+        <v>697000000</v>
       </c>
       <c r="AZ99" s="13">
-        <v>680384615</v>
+        <v>683333333</v>
       </c>
       <c r="BA99" s="13">
-        <v>697000000</v>
+        <v>700710526</v>
       </c>
       <c r="BB99" s="13">
-        <v>683333333</v>
+        <v>718023810</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>66</v>
       </c>
@@ -13168,104 +13168,104 @@
       <c r="V100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X100" s="11" t="s">
-        <v>58</v>
+      <c r="W100" s="11">
+        <v>105448980</v>
+      </c>
+      <c r="X100" s="11">
+        <v>92415385</v>
       </c>
       <c r="Y100" s="11">
-        <v>105448980</v>
+        <v>101081395</v>
       </c>
       <c r="Z100" s="11">
-        <v>92415385</v>
+        <v>109110092</v>
       </c>
       <c r="AA100" s="11">
-        <v>101081395</v>
+        <v>119889952</v>
       </c>
       <c r="AB100" s="11">
-        <v>109110092</v>
+        <v>117469841</v>
       </c>
       <c r="AC100" s="11">
-        <v>119889952</v>
+        <v>108667785</v>
       </c>
       <c r="AD100" s="11">
-        <v>117469841</v>
+        <v>100561837</v>
       </c>
       <c r="AE100" s="11">
-        <v>108667785</v>
+        <v>106968085</v>
       </c>
       <c r="AF100" s="11">
-        <v>100561837</v>
+        <v>105689944</v>
       </c>
       <c r="AG100" s="11">
-        <v>106968085</v>
+        <v>107872404</v>
       </c>
       <c r="AH100" s="11">
-        <v>105689944</v>
+        <v>98668750</v>
       </c>
       <c r="AI100" s="11">
-        <v>107872404</v>
+        <v>114812500</v>
       </c>
       <c r="AJ100" s="11">
-        <v>98668750</v>
+        <v>120220690</v>
       </c>
       <c r="AK100" s="11">
-        <v>114812500</v>
+        <v>118424615</v>
       </c>
       <c r="AL100" s="11">
-        <v>120220690</v>
+        <v>118452899</v>
       </c>
       <c r="AM100" s="11">
-        <v>118424615</v>
+        <v>119740506</v>
       </c>
       <c r="AN100" s="11">
-        <v>118452899</v>
+        <v>117710366</v>
       </c>
       <c r="AO100" s="11">
-        <v>119740506</v>
+        <v>120877500</v>
       </c>
       <c r="AP100" s="11">
-        <v>117710366</v>
+        <v>124472934</v>
       </c>
       <c r="AQ100" s="11">
-        <v>120877500</v>
+        <v>125805471</v>
       </c>
       <c r="AR100" s="11">
-        <v>124472934</v>
+        <v>91000000</v>
       </c>
       <c r="AS100" s="11">
-        <v>125805471</v>
+        <v>334943590</v>
       </c>
       <c r="AT100" s="11">
-        <v>91000000</v>
+        <v>334013559</v>
       </c>
       <c r="AU100" s="11">
-        <v>334943590</v>
+        <v>338119718</v>
       </c>
       <c r="AV100" s="11">
-        <v>334013559</v>
+        <v>326130233</v>
       </c>
       <c r="AW100" s="11">
-        <v>338119718</v>
+        <v>327574899</v>
       </c>
       <c r="AX100" s="11">
-        <v>326130233</v>
+        <v>323173913</v>
       </c>
       <c r="AY100" s="11">
-        <v>327574899</v>
+        <v>325248201</v>
       </c>
       <c r="AZ100" s="11">
-        <v>323173913</v>
+        <v>318883117</v>
       </c>
       <c r="BA100" s="11">
-        <v>325248201</v>
+        <v>322953795</v>
       </c>
       <c r="BB100" s="11">
-        <v>318883117</v>
+        <v>313420732</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>95</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="BA101" s="9"/>
       <c r="BB101" s="9"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>70</v>
       </c>
@@ -13411,77 +13411,77 @@
       <c r="AE102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG102" s="11" t="s">
-        <v>58</v>
+      <c r="AF102" s="11">
+        <v>98247683</v>
+      </c>
+      <c r="AG102" s="11">
+        <v>95752552</v>
       </c>
       <c r="AH102" s="11">
-        <v>98247683</v>
+        <v>94102222</v>
       </c>
       <c r="AI102" s="11">
-        <v>95752552</v>
+        <v>97221574</v>
       </c>
       <c r="AJ102" s="11">
-        <v>94102222</v>
+        <v>98163225</v>
       </c>
       <c r="AK102" s="11">
-        <v>97221574</v>
+        <v>117396973</v>
       </c>
       <c r="AL102" s="11">
-        <v>98163225</v>
+        <v>110072235</v>
       </c>
       <c r="AM102" s="11">
-        <v>117396973</v>
+        <v>94510612</v>
       </c>
       <c r="AN102" s="11">
-        <v>110072235</v>
+        <v>93830178</v>
       </c>
       <c r="AO102" s="11">
-        <v>94510612</v>
+        <v>96793231</v>
       </c>
       <c r="AP102" s="11">
-        <v>93830178</v>
+        <v>90573024</v>
       </c>
       <c r="AQ102" s="11">
-        <v>96793231</v>
+        <v>88953932</v>
       </c>
       <c r="AR102" s="11">
-        <v>90573024</v>
+        <v>85933333</v>
       </c>
       <c r="AS102" s="11">
-        <v>88953932</v>
+        <v>87622754</v>
       </c>
       <c r="AT102" s="11">
-        <v>85933333</v>
+        <v>108140506</v>
       </c>
       <c r="AU102" s="11">
-        <v>87622754</v>
+        <v>96173516</v>
       </c>
       <c r="AV102" s="11">
-        <v>108140506</v>
+        <v>193769737</v>
       </c>
       <c r="AW102" s="11">
-        <v>96173516</v>
+        <v>192521158</v>
       </c>
       <c r="AX102" s="11">
-        <v>193769737</v>
+        <v>184177370</v>
       </c>
       <c r="AY102" s="11">
-        <v>192521158</v>
+        <v>172569362</v>
       </c>
       <c r="AZ102" s="11">
-        <v>184177370</v>
+        <v>168675174</v>
       </c>
       <c r="BA102" s="11">
-        <v>172569362</v>
+        <v>214190476</v>
       </c>
       <c r="BB102" s="11">
-        <v>168675174</v>
+        <v>186408010</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>71</v>
       </c>
@@ -13570,77 +13570,77 @@
       <c r="AE103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG103" s="13" t="s">
-        <v>58</v>
+      <c r="AF103" s="13">
+        <v>100849462</v>
+      </c>
+      <c r="AG103" s="13">
+        <v>96966102</v>
       </c>
       <c r="AH103" s="13">
-        <v>100849462</v>
+        <v>93867470</v>
       </c>
       <c r="AI103" s="13">
-        <v>96966102</v>
+        <v>98621538</v>
       </c>
       <c r="AJ103" s="13">
-        <v>93867470</v>
+        <v>97199161</v>
       </c>
       <c r="AK103" s="13">
-        <v>98621538</v>
+        <v>109890467</v>
       </c>
       <c r="AL103" s="13">
-        <v>97199161</v>
+        <v>122892063</v>
       </c>
       <c r="AM103" s="13">
-        <v>109890467</v>
+        <v>104984496</v>
       </c>
       <c r="AN103" s="13">
-        <v>122892063</v>
+        <v>95041322</v>
       </c>
       <c r="AO103" s="13">
-        <v>104984496</v>
+        <v>101628268</v>
       </c>
       <c r="AP103" s="13">
-        <v>95041322</v>
+        <v>100471822</v>
       </c>
       <c r="AQ103" s="13">
-        <v>101628268</v>
+        <v>93199333</v>
       </c>
       <c r="AR103" s="13">
-        <v>100471822</v>
-      </c>
-      <c r="AS103" s="13">
-        <v>93199333</v>
+        <v>87421488</v>
+      </c>
+      <c r="AS103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT103" s="13">
-        <v>87421488</v>
-      </c>
-      <c r="AU103" s="13" t="s">
-        <v>58</v>
+        <v>114359477</v>
+      </c>
+      <c r="AU103" s="13">
+        <v>95939850</v>
       </c>
       <c r="AV103" s="13">
-        <v>114359477</v>
+        <v>126763587</v>
       </c>
       <c r="AW103" s="13">
-        <v>95939850</v>
+        <v>181358548</v>
       </c>
       <c r="AX103" s="13">
-        <v>126763587</v>
+        <v>188901786</v>
       </c>
       <c r="AY103" s="13">
-        <v>181358548</v>
+        <v>167895449</v>
       </c>
       <c r="AZ103" s="13">
-        <v>188901786</v>
+        <v>168615619</v>
       </c>
       <c r="BA103" s="13">
-        <v>167895449</v>
+        <v>234764045</v>
       </c>
       <c r="BB103" s="13">
-        <v>168615619</v>
+        <v>196183824</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>72</v>
       </c>
@@ -13729,74 +13729,74 @@
       <c r="AE104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF104" s="11" t="s">
-        <v>58</v>
+      <c r="AF104" s="11">
+        <v>235750000</v>
       </c>
       <c r="AG104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AH104" s="11">
-        <v>235750000</v>
-      </c>
-      <c r="AI104" s="11" t="s">
-        <v>58</v>
+        <v>308857143</v>
+      </c>
+      <c r="AI104" s="11">
+        <v>256250000</v>
       </c>
       <c r="AJ104" s="11">
-        <v>308857143</v>
+        <v>274347826</v>
       </c>
       <c r="AK104" s="11">
-        <v>256250000</v>
+        <v>253250000</v>
       </c>
       <c r="AL104" s="11">
-        <v>274347826</v>
+        <v>264400000</v>
       </c>
       <c r="AM104" s="11">
-        <v>253250000</v>
+        <v>104181818</v>
       </c>
       <c r="AN104" s="11">
-        <v>264400000</v>
+        <v>84000000</v>
       </c>
       <c r="AO104" s="11">
-        <v>104181818</v>
+        <v>326461538</v>
       </c>
       <c r="AP104" s="11">
-        <v>84000000</v>
+        <v>291521739</v>
       </c>
       <c r="AQ104" s="11">
-        <v>326461538</v>
+        <v>286596774</v>
       </c>
       <c r="AR104" s="11">
-        <v>291521739</v>
-      </c>
-      <c r="AS104" s="11">
-        <v>286596774</v>
-      </c>
-      <c r="AT104" s="11">
         <v>77000000</v>
       </c>
-      <c r="AU104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV104" s="11" t="s">
-        <v>58</v>
+      <c r="AS104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU104" s="11">
+        <v>96000000</v>
+      </c>
+      <c r="AV104" s="11">
+        <v>54000000</v>
       </c>
       <c r="AW104" s="11">
-        <v>96000000</v>
+        <v>220000000</v>
       </c>
       <c r="AX104" s="11">
-        <v>54000000</v>
+        <v>282000000</v>
       </c>
       <c r="AY104" s="11">
-        <v>220000000</v>
+        <v>317000000</v>
       </c>
       <c r="AZ104" s="11">
-        <v>282000000</v>
-      </c>
-      <c r="BA104" s="11">
-        <v>317000000</v>
+        <v>393000000</v>
+      </c>
+      <c r="BA104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB104" s="11">
-        <v>393000000</v>
+        <v>433500000</v>
       </c>
     </row>
   </sheetData>
